--- a/BackTest/2019-10-14 BackTest HYC.xlsx
+++ b/BackTest/2019-10-14 BackTest HYC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9300000000000033</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>7.042253521126816</v>
+      </c>
       <c r="L12" t="n">
         <v>8.300000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9500000000000028</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-27.27272727272722</v>
+      </c>
       <c r="L13" t="n">
         <v>8.303000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.000000000000002</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-37.25490196078445</v>
+      </c>
       <c r="L14" t="n">
         <v>8.293000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-25.58139534883709</v>
+      </c>
       <c r="L15" t="n">
         <v>8.261000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.17</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-25.58139534883762</v>
+      </c>
       <c r="L16" t="n">
         <v>8.254000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.17</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-17.94871794871816</v>
+      </c>
       <c r="L17" t="n">
         <v>8.243</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.18</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-27.77777777777849</v>
+      </c>
       <c r="L18" t="n">
         <v>8.237</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.279999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-53.48837209302383</v>
+      </c>
       <c r="L19" t="n">
         <v>8.217000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.309999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-47.36842105263207</v>
+      </c>
       <c r="L20" t="n">
         <v>8.191000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.359999999999998</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-30.23255813953546</v>
+      </c>
       <c r="L21" t="n">
         <v>8.178000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.369999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-28.57142857142917</v>
+      </c>
       <c r="L22" t="n">
         <v>8.164000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.16949152542368</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L23" t="n">
         <v>8.149000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.479999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>-35.18518518518537</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L24" t="n">
         <v>8.121</v>
@@ -1515,7 +1537,7 @@
         <v>1.489999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>-48.00000000000021</v>
+        <v>-62.50000000000042</v>
       </c>
       <c r="L25" t="n">
         <v>8.105</v>
@@ -1564,7 +1586,7 @@
         <v>1.559999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>-23.2558139534884</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>8.092000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.579999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>-30.95238095238128</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L27" t="n">
         <v>8.077000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>1.619999999999997</v>
       </c>
       <c r="K28" t="n">
-        <v>-30.95238095238113</v>
+        <v>-29.41176470588242</v>
       </c>
       <c r="L28" t="n">
         <v>8.057</v>
@@ -1711,7 +1733,7 @@
         <v>1.659999999999997</v>
       </c>
       <c r="K29" t="n">
-        <v>-30.9523809523814</v>
+        <v>-8.57142857142895</v>
       </c>
       <c r="L29" t="n">
         <v>8.051000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>1.669999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>-34.14634146341476</v>
+        <v>-22.58064516128981</v>
       </c>
       <c r="L30" t="n">
         <v>8.049000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>1.819999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.617977528090009</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>8.057</v>
@@ -1860,7 +1882,7 @@
         <v>1.819999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.617977528090009</v>
+        <v>28.57142857142839</v>
       </c>
       <c r="L32" t="n">
         <v>8.066000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>1.829999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-4.545454545454683</v>
+        <v>54.28571428571421</v>
       </c>
       <c r="L33" t="n">
         <v>8.077000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>1.909999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.68131868131878</v>
+        <v>28.57142857142839</v>
       </c>
       <c r="L34" t="n">
         <v>8.088000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>1.929999999999996</v>
       </c>
       <c r="K35" t="n">
-        <v>-7.500000000000105</v>
+        <v>8.108108108107952</v>
       </c>
       <c r="L35" t="n">
         <v>8.098000000000003</v>
@@ -2064,7 +2086,7 @@
         <v>2.009999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>-21.42857142857149</v>
+        <v>-6.976744186046396</v>
       </c>
       <c r="L36" t="n">
         <v>8.093000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>2.009999999999996</v>
       </c>
       <c r="K37" t="n">
-        <v>-21.42857142857149</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="L37" t="n">
         <v>8.090000000000003</v>
@@ -2166,7 +2188,7 @@
         <v>2.019999999999996</v>
       </c>
       <c r="K38" t="n">
-        <v>-21.42857142857149</v>
+        <v>-5.555555555555445</v>
       </c>
       <c r="L38" t="n">
         <v>8.092000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>2.089999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.234567901234546</v>
+        <v>9.523809523809362</v>
       </c>
       <c r="L39" t="n">
         <v>8.097000000000003</v>
@@ -2268,7 +2290,7 @@
         <v>2.129999999999995</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.43902439024386</v>
+        <v>-48.38709677419329</v>
       </c>
       <c r="L40" t="n">
         <v>8.097000000000003</v>
@@ -2319,7 +2341,7 @@
         <v>2.169999999999995</v>
       </c>
       <c r="K41" t="n">
-        <v>-3.703703703703639</v>
+        <v>-31.42857142857146</v>
       </c>
       <c r="L41" t="n">
         <v>8.086000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>2.249999999999995</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.36363636363636</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L42" t="n">
         <v>8.067000000000004</v>
@@ -2421,7 +2443,7 @@
         <v>2.279999999999994</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.545454545454665</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L43" t="n">
         <v>8.052000000000003</v>
@@ -2472,7 +2494,7 @@
         <v>2.289999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>6.172839506172937</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L44" t="n">
         <v>8.046000000000003</v>
@@ -2523,7 +2545,7 @@
         <v>2.329999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38095238095233</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>8.038000000000004</v>
@@ -2574,7 +2596,7 @@
         <v>2.349999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.797468354430528</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L46" t="n">
         <v>8.040000000000003</v>
@@ -2625,7 +2647,7 @@
         <v>2.419999999999996</v>
       </c>
       <c r="K47" t="n">
-        <v>7.142857142857219</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>8.049000000000003</v>
@@ -2676,7 +2698,7 @@
         <v>2.479999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>4.651162790697579</v>
+        <v>-12.82051282051298</v>
       </c>
       <c r="L48" t="n">
         <v>8.051000000000004</v>
@@ -2727,7 +2749,7 @@
         <v>2.519999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>4.651162790697775</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L49" t="n">
         <v>8.050000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>2.549999999999997</v>
       </c>
       <c r="K50" t="n">
-        <v>6.818181818181681</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L50" t="n">
         <v>8.056000000000003</v>
@@ -2829,7 +2851,7 @@
         <v>2.609999999999996</v>
       </c>
       <c r="K51" t="n">
-        <v>-18.98734177215174</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L51" t="n">
         <v>8.052000000000003</v>
@@ -2880,7 +2902,7 @@
         <v>2.649999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>-22.89156626506018</v>
+        <v>-8.108108108107874</v>
       </c>
       <c r="L52" t="n">
         <v>8.052000000000003</v>
@@ -2931,7 +2953,7 @@
         <v>2.659999999999997</v>
       </c>
       <c r="K53" t="n">
-        <v>-22.89156626506018</v>
+        <v>-13.51351351351367</v>
       </c>
       <c r="L53" t="n">
         <v>8.048000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>2.669999999999996</v>
       </c>
       <c r="K54" t="n">
-        <v>-13.15789473684206</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>8.044000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>2.689999999999996</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.15789473684206</v>
+        <v>-11.7647058823527</v>
       </c>
       <c r="L55" t="n">
         <v>8.042000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.347826086956432</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L56" t="n">
         <v>8.037000000000003</v>
@@ -3135,7 +3157,7 @@
         <v>2.749999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>-10.81081081081082</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L57" t="n">
         <v>8.020000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>2.789999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>-16.88311688311686</v>
+        <v>-70.37037037037086</v>
       </c>
       <c r="L58" t="n">
         <v>8.005000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>2.819999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>-31.50684931506845</v>
+        <v>-92.59259259259271</v>
       </c>
       <c r="L59" t="n">
         <v>7.983000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>2.829999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>-28.57142857142868</v>
+        <v>-90.90909090909113</v>
       </c>
       <c r="L60" t="n">
         <v>7.957000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>2.929999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>-18.42105263157885</v>
+        <v>-21.42857142857127</v>
       </c>
       <c r="L61" t="n">
         <v>7.947000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>3.029999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-20.51282051282045</v>
+        <v>-40.54054054054053</v>
       </c>
       <c r="L62" t="n">
         <v>7.931</v>
@@ -3441,7 +3463,7 @@
         <v>3.039999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>-23.6842105263155</v>
+        <v>-40.54054054054019</v>
       </c>
       <c r="L63" t="n">
         <v>7.917</v>
@@ -3492,7 +3514,7 @@
         <v>3.039999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>-25.3333333333333</v>
+        <v>-37.14285714285687</v>
       </c>
       <c r="L64" t="n">
         <v>7.901999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.069999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>-16.21621621621621</v>
+        <v>-24.3243243243244</v>
       </c>
       <c r="L65" t="n">
         <v>7.892</v>
@@ -3594,7 +3616,7 @@
         <v>3.079999999999997</v>
       </c>
       <c r="K66" t="n">
-        <v>-20.54794520547934</v>
+        <v>-15.15151515151505</v>
       </c>
       <c r="L66" t="n">
         <v>7.882</v>
@@ -3645,7 +3667,7 @@
         <v>3.109999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>-36.23188405797094</v>
+        <v>-12.49999999999996</v>
       </c>
       <c r="L67" t="n">
         <v>7.873999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>3.169999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>-18.84057971014475</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L68" t="n">
         <v>7.875999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>3.179999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>-27.27272727272723</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L69" t="n">
         <v>7.879999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>3.229999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>-38.23529411764694</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>7.879999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>3.279999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>-37.31343283582088</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L71" t="n">
         <v>7.864999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>3.299999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>-35.38461538461524</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L72" t="n">
         <v>7.857999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>-16.21621621621621</v>
+        <v>5.555555555555445</v>
       </c>
       <c r="L73" t="n">
         <v>7.859999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>-17.80821917808215</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L74" t="n">
         <v>7.861999999999997</v>
@@ -4053,7 +4075,7 @@
         <v>3.499999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-25.92592592592587</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L75" t="n">
         <v>7.850999999999997</v>
@@ -4104,7 +4126,7 @@
         <v>3.499999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>-24.99999999999997</v>
+        <v>-17.94871794871781</v>
       </c>
       <c r="L76" t="n">
         <v>7.840999999999998</v>
@@ -4155,7 +4177,7 @@
         <v>3.499999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>-19.9999999999999</v>
+        <v>-39.39393939393946</v>
       </c>
       <c r="L77" t="n">
         <v>7.833999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>3.499999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>-15.49295774647877</v>
+        <v>-37.50000000000011</v>
       </c>
       <c r="L78" t="n">
         <v>7.821</v>
@@ -4257,7 +4279,7 @@
         <v>3.529999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-15.49295774647888</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>7.805999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>3.629999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>7.805999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>3.639999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>-15.49295774647892</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L81" t="n">
         <v>7.81</v>
@@ -4410,7 +4432,7 @@
         <v>3.649999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L82" t="n">
         <v>7.816999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>3.739999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571439</v>
+        <v>-35.29411764705897</v>
       </c>
       <c r="L83" t="n">
         <v>7.805</v>
@@ -4512,7 +4534,7 @@
         <v>3.779999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>-18.91891891891904</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L84" t="n">
         <v>7.789</v>
@@ -4563,7 +4585,7 @@
         <v>3.809999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>-27.02702702702699</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L85" t="n">
         <v>7.779999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>3.819999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>-24.32432432432434</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L86" t="n">
         <v>7.772</v>
@@ -4665,7 +4687,7 @@
         <v>3.869999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>-26.31578947368419</v>
+        <v>-35.13513513513526</v>
       </c>
       <c r="L87" t="n">
         <v>7.759</v>
@@ -4716,7 +4738,7 @@
         <v>3.879999999999995</v>
       </c>
       <c r="K88" t="n">
-        <v>-35.21126760563394</v>
+        <v>-25.71428571428583</v>
       </c>
       <c r="L88" t="n">
         <v>7.747</v>
@@ -4767,7 +4789,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K89" t="n">
-        <v>-30.55555555555577</v>
+        <v>-62.96296296296345</v>
       </c>
       <c r="L89" t="n">
         <v>7.74</v>
@@ -4818,7 +4840,7 @@
         <v>3.919999999999995</v>
       </c>
       <c r="K90" t="n">
-        <v>-27.53623188405806</v>
+        <v>-64.28571428571473</v>
       </c>
       <c r="L90" t="n">
         <v>7.721000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>3.979999999999994</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.42857142857151</v>
+        <v>-39.39393939393967</v>
       </c>
       <c r="L91" t="n">
         <v>7.709000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>4.059999999999994</v>
       </c>
       <c r="K92" t="n">
-        <v>-18.42105263157911</v>
+        <v>-37.50000000000031</v>
       </c>
       <c r="L92" t="n">
         <v>7.688000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>4.129999999999995</v>
       </c>
       <c r="K93" t="n">
-        <v>-23.2876712328768</v>
+        <v>-2.857142857142814</v>
       </c>
       <c r="L93" t="n">
         <v>7.683</v>
@@ -5022,7 +5044,7 @@
         <v>4.159999999999995</v>
       </c>
       <c r="K94" t="n">
-        <v>-26.31578947368433</v>
+        <v>-2.85714285714306</v>
       </c>
       <c r="L94" t="n">
         <v>7.678999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>4.289999999999995</v>
       </c>
       <c r="K95" t="n">
-        <v>3.797468354430311</v>
+        <v>23.40425531914887</v>
       </c>
       <c r="L95" t="n">
         <v>7.691</v>
@@ -5124,7 +5146,7 @@
         <v>4.309999999999994</v>
       </c>
       <c r="K96" t="n">
-        <v>1.234567901234546</v>
+        <v>31.81818181818184</v>
       </c>
       <c r="L96" t="n">
         <v>7.7</v>
@@ -5175,7 +5197,7 @@
         <v>4.349999999999994</v>
       </c>
       <c r="K97" t="n">
-        <v>-3.529411764705924</v>
+        <v>19.14893617021278</v>
       </c>
       <c r="L97" t="n">
         <v>7.709999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>4.389999999999994</v>
       </c>
       <c r="K98" t="n">
-        <v>1.123595505617957</v>
+        <v>22.44897959183683</v>
       </c>
       <c r="L98" t="n">
         <v>7.723000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>4.419999999999995</v>
       </c>
       <c r="K99" t="n">
-        <v>7.865168539325901</v>
+        <v>32.00000000000003</v>
       </c>
       <c r="L99" t="n">
         <v>7.737</v>
@@ -5328,7 +5350,7 @@
         <v>4.429999999999995</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.000000000000017</v>
+        <v>19.99999999999992</v>
       </c>
       <c r="L100" t="n">
         <v>7.752000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>4.429999999999995</v>
       </c>
       <c r="K101" t="n">
-        <v>-3.79746835443042</v>
+        <v>45.9459459459458</v>
       </c>
       <c r="L101" t="n">
         <v>7.761000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>4.429999999999995</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.128205128205143</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L102" t="n">
         <v>7.778000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>4.489999999999995</v>
       </c>
       <c r="K103" t="n">
-        <v>-1.333333333333308</v>
+        <v>21.21212121212129</v>
       </c>
       <c r="L103" t="n">
         <v>7.782000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>4.519999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L104" t="n">
         <v>7.786000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>4.529999999999996</v>
       </c>
       <c r="K105" t="n">
-        <v>5.555555555555562</v>
+        <v>-27.2727272727269</v>
       </c>
       <c r="L105" t="n">
         <v>7.778000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>4.579999999999996</v>
       </c>
       <c r="K106" t="n">
-        <v>10.5263157894737</v>
+        <v>13.0434782608696</v>
       </c>
       <c r="L106" t="n">
         <v>7.777000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>4.579999999999996</v>
       </c>
       <c r="K107" t="n">
-        <v>18.30985915492957</v>
+        <v>-5.263157894736695</v>
       </c>
       <c r="L107" t="n">
         <v>7.780000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>4.639999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>7.894736842105204</v>
+        <v>-45.45454545454538</v>
       </c>
       <c r="L108" t="n">
         <v>7.773000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>4.639999999999996</v>
       </c>
       <c r="K109" t="n">
-        <v>5.405405405405403</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L109" t="n">
         <v>7.763</v>
@@ -5838,7 +5860,7 @@
         <v>4.659999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>10.81081081081079</v>
+        <v>-30.43478260869522</v>
       </c>
       <c r="L110" t="n">
         <v>7.755999999999998</v>
@@ -5889,7 +5911,7 @@
         <v>4.699999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>-2.777777777777709</v>
+        <v>-40.74074074074033</v>
       </c>
       <c r="L111" t="n">
         <v>7.744999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>4.739999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>2.941176470588293</v>
+        <v>-35.99999999999969</v>
       </c>
       <c r="L112" t="n">
         <v>7.729999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>4.829999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>5.714285714285704</v>
+        <v>9.677419354838747</v>
       </c>
       <c r="L113" t="n">
         <v>7.729999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>4.949999999999997</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.329113924050596</v>
+        <v>-23.80952380952389</v>
       </c>
       <c r="L114" t="n">
         <v>7.720999999999998</v>
@@ -6093,7 +6115,7 @@
         <v>4.949999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>-27.27272727272715</v>
+        <v>-40.54054054054053</v>
       </c>
       <c r="L115" t="n">
         <v>7.710999999999997</v>
@@ -6144,7 +6166,7 @@
         <v>5.019999999999997</v>
       </c>
       <c r="K116" t="n">
-        <v>-12.6760563380281</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L116" t="n">
         <v>7.702999999999998</v>
@@ -6195,7 +6217,7 @@
         <v>5.129999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>7.692307692307622</v>
+        <v>18.36734693877547</v>
       </c>
       <c r="L117" t="n">
         <v>7.705999999999998</v>
@@ -6246,7 +6268,7 @@
         <v>5.149999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>13.72549019607849</v>
       </c>
       <c r="L118" t="n">
         <v>7.712999999999998</v>
@@ -6297,7 +6319,7 @@
         <v>5.149999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>-4.109589041095917</v>
+        <v>10.20408163265304</v>
       </c>
       <c r="L119" t="n">
         <v>7.719999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>5.159999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.1095890410958</v>
+        <v>17.39130434782614</v>
       </c>
       <c r="L120" t="n">
         <v>7.723999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>5.269999999999996</v>
       </c>
       <c r="K121" t="n">
-        <v>-16.66666666666661</v>
+        <v>1.886792452830151</v>
       </c>
       <c r="L121" t="n">
         <v>7.720999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>5.289999999999996</v>
       </c>
       <c r="K122" t="n">
-        <v>-18.6046511627906</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L122" t="n">
         <v>7.720000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>5.299999999999995</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111109</v>
+        <v>8.571428571428672</v>
       </c>
       <c r="L123" t="n">
         <v>7.711</v>
@@ -6552,7 +6574,7 @@
         <v>5.329999999999996</v>
       </c>
       <c r="K124" t="n">
-        <v>-3.703703703703622</v>
+        <v>15.7894736842107</v>
       </c>
       <c r="L124" t="n">
         <v>7.717000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>5.389999999999996</v>
       </c>
       <c r="K125" t="n">
-        <v>-11.62790697674424</v>
+        <v>-18.91891891891904</v>
       </c>
       <c r="L125" t="n">
         <v>7.717000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>5.389999999999996</v>
       </c>
       <c r="K126" t="n">
-        <v>-18.51851851851855</v>
+        <v>-69.23076923076917</v>
       </c>
       <c r="L126" t="n">
         <v>7.709999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>5.469999999999996</v>
       </c>
       <c r="K127" t="n">
-        <v>-7.86516853932587</v>
+        <v>-25</v>
       </c>
       <c r="L127" t="n">
         <v>7.699999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>5.519999999999996</v>
       </c>
       <c r="K128" t="n">
-        <v>-6.818181818181775</v>
+        <v>-35.1351351351351</v>
       </c>
       <c r="L128" t="n">
         <v>7.686999999999998</v>
@@ -6807,7 +6829,7 @@
         <v>5.519999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.818181818181775</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>7.673999999999997</v>
@@ -6858,7 +6880,7 @@
         <v>5.519999999999996</v>
       </c>
       <c r="K130" t="n">
-        <v>-9.302325581395362</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L130" t="n">
         <v>7.661999999999996</v>
@@ -6909,7 +6931,7 @@
         <v>5.519999999999996</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.878048780487813</v>
+        <v>4.347826086956421</v>
       </c>
       <c r="L131" t="n">
         <v>7.660999999999996</v>
@@ -6960,7 +6982,7 @@
         <v>5.529999999999996</v>
       </c>
       <c r="K132" t="n">
-        <v>-1.265822784810101</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L132" t="n">
         <v>7.660999999999996</v>
@@ -7011,7 +7033,7 @@
         <v>5.549999999999996</v>
       </c>
       <c r="K133" t="n">
-        <v>-16.66666666666669</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L133" t="n">
         <v>7.657999999999996</v>
@@ -7062,7 +7084,7 @@
         <v>5.579999999999997</v>
       </c>
       <c r="K134" t="n">
-        <v>4.761904761904802</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L134" t="n">
         <v>7.654999999999996</v>
@@ -7113,7 +7135,7 @@
         <v>5.579999999999997</v>
       </c>
       <c r="K135" t="n">
-        <v>4.761904761904802</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L135" t="n">
         <v>7.657999999999996</v>
@@ -7164,7 +7186,7 @@
         <v>5.599999999999997</v>
       </c>
       <c r="K136" t="n">
-        <v>-10.34482758620698</v>
+        <v>-53.84615384615374</v>
       </c>
       <c r="L136" t="n">
         <v>7.658999999999996</v>
@@ -7215,7 +7237,7 @@
         <v>5.599999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>-36.17021276595738</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L137" t="n">
         <v>7.651999999999997</v>
@@ -7266,7 +7288,7 @@
         <v>5.609999999999997</v>
       </c>
       <c r="K138" t="n">
-        <v>-34.78260869565214</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>7.648999999999996</v>
@@ -7317,7 +7339,7 @@
         <v>5.609999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>-34.78260869565214</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>7.645999999999996</v>
@@ -7368,7 +7390,7 @@
         <v>5.679999999999997</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.38461538461536</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L140" t="n">
         <v>7.649999999999997</v>
@@ -7419,7 +7441,7 @@
         <v>5.689999999999997</v>
       </c>
       <c r="K141" t="n">
-        <v>9.523809523809513</v>
+        <v>37.49999999999952</v>
       </c>
       <c r="L141" t="n">
         <v>7.654999999999997</v>
@@ -7470,7 +7492,7 @@
         <v>5.699999999999997</v>
       </c>
       <c r="K142" t="n">
-        <v>17.07317073170713</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L142" t="n">
         <v>7.661999999999996</v>
@@ -7521,7 +7543,7 @@
         <v>5.699999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>14.99999999999985</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L143" t="n">
         <v>7.670999999999997</v>
@@ -7572,7 +7594,7 @@
         <v>5.699999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>8.108108108107913</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L144" t="n">
         <v>7.676999999999997</v>
@@ -7623,7 +7645,7 @@
         <v>5.699999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>29.03225806451604</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L145" t="n">
         <v>7.682999999999997</v>
@@ -7674,7 +7696,7 @@
         <v>5.709999999999996</v>
       </c>
       <c r="K146" t="n">
-        <v>25</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L146" t="n">
         <v>7.689999999999996</v>
@@ -7725,7 +7747,7 @@
         <v>5.709999999999996</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L147" t="n">
         <v>7.696999999999996</v>
@@ -7776,7 +7798,7 @@
         <v>5.769999999999996</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.999999999999915</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L148" t="n">
         <v>7.698999999999996</v>
@@ -7827,7 +7849,7 @@
         <v>5.779999999999997</v>
       </c>
       <c r="K149" t="n">
-        <v>-7.69230769230785</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L149" t="n">
         <v>7.699999999999998</v>
@@ -7878,7 +7900,7 @@
         <v>5.819999999999997</v>
       </c>
       <c r="K150" t="n">
-        <v>6.666666666666508</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L150" t="n">
         <v>7.697999999999998</v>
@@ -7929,7 +7951,7 @@
         <v>5.819999999999997</v>
       </c>
       <c r="K151" t="n">
-        <v>6.666666666666508</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>7.694999999999998</v>
@@ -7980,7 +8002,7 @@
         <v>5.819999999999997</v>
       </c>
       <c r="K152" t="n">
-        <v>10.34482758620664</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>7.690999999999997</v>
@@ -8031,7 +8053,7 @@
         <v>5.919999999999997</v>
       </c>
       <c r="K153" t="n">
-        <v>40.54054054054053</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L153" t="n">
         <v>7.696999999999997</v>
@@ -8082,7 +8104,7 @@
         <v>6.009999999999997</v>
       </c>
       <c r="K154" t="n">
-        <v>6.97674418604656</v>
+        <v>-9.677419354838488</v>
       </c>
       <c r="L154" t="n">
         <v>7.693999999999997</v>
@@ -8139,7 +8161,7 @@
         <v>6.019999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>4.545454545454435</v>
+        <v>-9.677419354838747</v>
       </c>
       <c r="L155" t="n">
         <v>7.689999999999998</v>
@@ -8200,7 +8222,7 @@
         <v>6.049999999999997</v>
       </c>
       <c r="K156" t="n">
-        <v>2.222222222222372</v>
+        <v>-17.64705882352926</v>
       </c>
       <c r="L156" t="n">
         <v>7.683999999999999</v>
@@ -8261,7 +8283,7 @@
         <v>6.049999999999997</v>
       </c>
       <c r="K157" t="n">
-        <v>2.222222222222372</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>7.678</v>
@@ -8320,7 +8342,7 @@
         <v>6.089999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>12.50000000000009</v>
+        <v>16.12903225806472</v>
       </c>
       <c r="L158" t="n">
         <v>7.681999999999999</v>
@@ -8381,7 +8403,7 @@
         <v>6.099999999999997</v>
       </c>
       <c r="K159" t="n">
-        <v>14.28571428571434</v>
+        <v>7.142857142857302</v>
       </c>
       <c r="L159" t="n">
         <v>7.688</v>
@@ -8442,7 +8464,7 @@
         <v>6.119999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>4.545454545454454</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L160" t="n">
         <v>7.691999999999998</v>
@@ -8503,7 +8525,7 @@
         <v>6.179999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>14.28571428571434</v>
+        <v>27.7777777777779</v>
       </c>
       <c r="L161" t="n">
         <v>7.701999999999998</v>
@@ -8562,7 +8584,7 @@
         <v>6.249999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>-1.818181818181777</v>
+        <v>-21.21212121212129</v>
       </c>
       <c r="L162" t="n">
         <v>7.704999999999998</v>
@@ -8621,7 +8643,7 @@
         <v>6.249999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>-1.818181818181777</v>
+        <v>8.333333333333147</v>
       </c>
       <c r="L163" t="n">
         <v>7.697999999999998</v>
@@ -8678,7 +8700,7 @@
         <v>6.379999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>17.64705882352941</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L164" t="n">
         <v>7.712999999999998</v>
@@ -8735,7 +8757,7 @@
         <v>6.469999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>3.896103896103926</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L165" t="n">
         <v>7.719999999999999</v>
@@ -8792,7 +8814,7 @@
         <v>6.599999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>19.1011235955056</v>
+        <v>41.81818181818175</v>
       </c>
       <c r="L166" t="n">
         <v>7.742999999999998</v>
@@ -8849,7 +8871,7 @@
         <v>6.789999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>33.33333333333333</v>
+        <v>54.28571428571426</v>
       </c>
       <c r="L167" t="n">
         <v>7.784999999999997</v>
@@ -8906,7 +8928,7 @@
         <v>6.869999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>30.90909090909086</v>
+        <v>37.66233766233765</v>
       </c>
       <c r="L168" t="n">
         <v>7.814999999999996</v>
@@ -8957,7 +8979,7 @@
         <v>6.909999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>27.4336283185841</v>
+        <v>29.11392405063293</v>
       </c>
       <c r="L169" t="n">
         <v>7.839999999999996</v>
@@ -9008,7 +9030,7 @@
         <v>6.969999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>18.26086956521737</v>
+        <v>13.9240506329113</v>
       </c>
       <c r="L170" t="n">
         <v>7.856999999999997</v>
@@ -9059,7 +9081,7 @@
         <v>6.969999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>18.26086956521737</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L171" t="n">
         <v>7.867999999999997</v>
@@ -9110,7 +9132,7 @@
         <v>7.009999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>21.00840336134452</v>
+        <v>28.94736842105257</v>
       </c>
       <c r="L172" t="n">
         <v>7.889999999999996</v>
@@ -9161,7 +9183,7 @@
         <v>7.039999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>10.71428571428572</v>
+        <v>9.090909090909165</v>
       </c>
       <c r="L173" t="n">
         <v>7.908999999999997</v>
@@ -9212,7 +9234,7 @@
         <v>7.089999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>14.81481481481473</v>
+        <v>16.12903225806443</v>
       </c>
       <c r="L174" t="n">
         <v>7.909999999999997</v>
@@ -9263,7 +9285,7 @@
         <v>7.129999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>18.91891891891891</v>
+        <v>1.886792452830145</v>
       </c>
       <c r="L175" t="n">
         <v>7.923999999999997</v>
@@ -9314,7 +9336,7 @@
         <v>7.169999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>24.99999999999992</v>
+        <v>-36.84210526315797</v>
       </c>
       <c r="L176" t="n">
         <v>7.928999999999997</v>
@@ -9365,7 +9387,7 @@
         <v>7.209999999999998</v>
       </c>
       <c r="K177" t="n">
-        <v>27.58620689655164</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L177" t="n">
         <v>7.918999999999997</v>
@@ -9416,7 +9438,7 @@
         <v>7.229999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>22.80701754385962</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>7.914999999999997</v>
@@ -9467,7 +9489,7 @@
         <v>7.259999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>24.13793103448276</v>
+        <v>31.03448275862094</v>
       </c>
       <c r="L179" t="n">
         <v>7.917999999999997</v>
@@ -9518,7 +9540,7 @@
         <v>7.259999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>22.80701754385968</v>
+        <v>31.03448275862094</v>
       </c>
       <c r="L180" t="n">
         <v>7.926999999999998</v>
@@ -9569,7 +9591,7 @@
         <v>7.259999999999998</v>
       </c>
       <c r="K181" t="n">
-        <v>18.51851851851852</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L181" t="n">
         <v>7.935999999999998</v>
@@ -9620,7 +9642,7 @@
         <v>7.329999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>18.51851851851852</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L182" t="n">
         <v>7.933999999999997</v>
@@ -9671,7 +9693,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>23.47826086956523</v>
+        <v>41.93548387096793</v>
       </c>
       <c r="L183" t="n">
         <v>7.941999999999998</v>
@@ -9722,7 +9744,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>13.72549019607847</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L184" t="n">
         <v>7.954999999999998</v>
@@ -9773,7 +9795,7 @@
         <v>7.429999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>20.83333333333331</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L185" t="n">
         <v>7.960999999999999</v>
@@ -9824,7 +9846,7 @@
         <v>7.429999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>8.433734939759052</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L186" t="n">
         <v>7.962999999999999</v>
@@ -9875,7 +9897,7 @@
         <v>7.479999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>-24.63768115942023</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L187" t="n">
         <v>7.956</v>
@@ -9926,7 +9948,7 @@
         <v>7.559999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>-24.63768115942023</v>
+        <v>-53.33333333333326</v>
       </c>
       <c r="L188" t="n">
         <v>7.943</v>
@@ -9977,7 +9999,7 @@
         <v>7.639999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>-6.849315068493114</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L189" t="n">
         <v>7.935</v>
@@ -10028,7 +10050,7 @@
         <v>7.639999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>1.492537313432935</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L190" t="n">
         <v>7.927</v>
@@ -10079,7 +10101,7 @@
         <v>7.639999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>1.492537313432935</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L191" t="n">
         <v>7.919</v>
@@ -10130,7 +10152,7 @@
         <v>7.639999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>-4.761904761904654</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>7.918000000000001</v>
@@ -10181,7 +10203,7 @@
         <v>7.699999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>9.090909090909017</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L193" t="n">
         <v>7.915999999999999</v>
@@ -10232,7 +10254,7 @@
         <v>7.759999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>7.462686567164285</v>
+        <v>-15.15151515151513</v>
       </c>
       <c r="L194" t="n">
         <v>7.907999999999999</v>
@@ -10283,7 +10305,7 @@
         <v>7.789999999999997</v>
       </c>
       <c r="K195" t="n">
-        <v>6.060606060606073</v>
+        <v>-5.555555555555706</v>
       </c>
       <c r="L195" t="n">
         <v>7.905999999999999</v>
@@ -10334,7 +10356,7 @@
         <v>7.819999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>4.615384615384658</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L196" t="n">
         <v>7.906999999999998</v>
@@ -10385,7 +10407,7 @@
         <v>7.879999999999997</v>
       </c>
       <c r="K197" t="n">
-        <v>-10.44776119402978</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L197" t="n">
         <v>7.906999999999998</v>
@@ -10436,7 +10458,7 @@
         <v>7.899999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>-4.477611940298551</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L198" t="n">
         <v>7.916999999999999</v>
@@ -10487,7 +10509,7 @@
         <v>7.909999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>-7.692307692307819</v>
+        <v>11.11111111111097</v>
       </c>
       <c r="L199" t="n">
         <v>7.919999999999999</v>
@@ -10538,7 +10560,7 @@
         <v>7.909999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>-7.692307692307819</v>
+        <v>11.11111111111097</v>
       </c>
       <c r="L200" t="n">
         <v>7.922999999999999</v>
@@ -10589,7 +10611,7 @@
         <v>7.979999999999996</v>
       </c>
       <c r="K201" t="n">
-        <v>-16.66666666666673</v>
+        <v>-11.76470588235305</v>
       </c>
       <c r="L201" t="n">
         <v>7.918999999999999</v>
@@ -10640,7 +10662,7 @@
         <v>7.989999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>-6.060606060606089</v>
+        <v>-31.03448275862092</v>
       </c>
       <c r="L202" t="n">
         <v>7.915999999999999</v>
@@ -10691,7 +10713,7 @@
         <v>8.019999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>-12.90322580645168</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>7.909999999999999</v>
@@ -10742,7 +10764,7 @@
         <v>8.029999999999996</v>
       </c>
       <c r="K204" t="n">
-        <v>-11.1111111111112</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L204" t="n">
         <v>7.910999999999999</v>
@@ -10793,7 +10815,7 @@
         <v>8.059999999999995</v>
       </c>
       <c r="K205" t="n">
-        <v>-1.587301587301563</v>
+        <v>-8.333333333333242</v>
       </c>
       <c r="L205" t="n">
         <v>7.911999999999997</v>
@@ -10844,7 +10866,7 @@
         <v>8.089999999999996</v>
       </c>
       <c r="K206" t="n">
-        <v>-6.060606060606089</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L206" t="n">
         <v>7.906999999999998</v>
@@ -10946,7 +10968,7 @@
         <v>8.109999999999996</v>
       </c>
       <c r="K208" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>7.910999999999997</v>
@@ -10997,7 +11019,7 @@
         <v>8.139999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>11.99999999999996</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L209" t="n">
         <v>7.913999999999996</v>
@@ -11048,7 +11070,7 @@
         <v>8.149999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>13.72549019607837</v>
+        <v>64.70588235294053</v>
       </c>
       <c r="L210" t="n">
         <v>7.917999999999995</v>
@@ -11099,7 +11121,7 @@
         <v>8.159999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>11.53846153846151</v>
+        <v>52.94117647058789</v>
       </c>
       <c r="L211" t="n">
         <v>7.927999999999995</v>
@@ -11150,7 +11172,7 @@
         <v>8.179999999999996</v>
       </c>
       <c r="K212" t="n">
-        <v>7.40740740740745</v>
+        <v>25</v>
       </c>
       <c r="L212" t="n">
         <v>7.934999999999993</v>
@@ -11201,7 +11223,7 @@
         <v>8.179999999999996</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.166666666666597</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L213" t="n">
         <v>7.938999999999993</v>
@@ -11252,7 +11274,7 @@
         <v>8.219999999999995</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L214" t="n">
         <v>7.937999999999994</v>
@@ -11303,7 +11325,7 @@
         <v>8.239999999999995</v>
       </c>
       <c r="K215" t="n">
-        <v>-2.222222222222187</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L215" t="n">
         <v>7.935999999999995</v>
@@ -11354,7 +11376,7 @@
         <v>8.249999999999995</v>
       </c>
       <c r="K216" t="n">
-        <v>-6.976744186046617</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>7.937999999999994</v>
@@ -11405,7 +11427,7 @@
         <v>8.259999999999994</v>
       </c>
       <c r="K217" t="n">
-        <v>5.263157894736768</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L217" t="n">
         <v>7.936999999999995</v>
@@ -11456,7 +11478,7 @@
         <v>8.269999999999994</v>
       </c>
       <c r="K218" t="n">
-        <v>2.702702702702664</v>
+        <v>-23.07692307692376</v>
       </c>
       <c r="L218" t="n">
         <v>7.936999999999995</v>
@@ -11507,7 +11529,7 @@
         <v>8.279999999999994</v>
       </c>
       <c r="K219" t="n">
-        <v>-2.702702702702664</v>
+        <v>-38.46153846153915</v>
       </c>
       <c r="L219" t="n">
         <v>7.932999999999995</v>
@@ -11558,7 +11580,7 @@
         <v>8.279999999999994</v>
       </c>
       <c r="K220" t="n">
-        <v>-2.702702702702664</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L220" t="n">
         <v>7.927999999999995</v>
@@ -11609,7 +11631,7 @@
         <v>8.279999999999994</v>
       </c>
       <c r="K221" t="n">
-        <v>20</v>
+        <v>-20.00000000000089</v>
       </c>
       <c r="L221" t="n">
         <v>7.923999999999997</v>
@@ -11660,7 +11682,7 @@
         <v>8.319999999999993</v>
       </c>
       <c r="K222" t="n">
-        <v>3.030303030302989</v>
+        <v>-42.85714285714413</v>
       </c>
       <c r="L222" t="n">
         <v>7.917999999999997</v>
@@ -11711,7 +11733,7 @@
         <v>8.329999999999993</v>
       </c>
       <c r="K223" t="n">
-        <v>-9.677419354838886</v>
+        <v>-27.27272727272808</v>
       </c>
       <c r="L223" t="n">
         <v>7.910999999999997</v>
@@ -11762,7 +11784,7 @@
         <v>8.349999999999993</v>
       </c>
       <c r="K224" t="n">
-        <v>-6.250000000000208</v>
+        <v>-27.27272727272808</v>
       </c>
       <c r="L224" t="n">
         <v>7.909999999999997</v>
@@ -11813,7 +11835,7 @@
         <v>8.379999999999992</v>
       </c>
       <c r="K225" t="n">
-        <v>-25.00000000000028</v>
+        <v>-53.84615384615453</v>
       </c>
       <c r="L225" t="n">
         <v>7.903999999999996</v>
@@ -11864,7 +11886,7 @@
         <v>8.429999999999993</v>
       </c>
       <c r="K226" t="n">
-        <v>-29.41176470588283</v>
+        <v>-64.70588235294207</v>
       </c>
       <c r="L226" t="n">
         <v>7.891999999999996</v>
@@ -11915,7 +11937,7 @@
         <v>8.449999999999992</v>
       </c>
       <c r="K227" t="n">
-        <v>-41.17647058823565</v>
+        <v>-77.7777777777785</v>
       </c>
       <c r="L227" t="n">
         <v>7.878999999999996</v>
@@ -11966,7 +11988,7 @@
         <v>8.449999999999992</v>
       </c>
       <c r="K228" t="n">
-        <v>-41.17647058823565</v>
+        <v>-76.47058823529488</v>
       </c>
       <c r="L228" t="n">
         <v>7.864999999999998</v>
@@ -12017,7 +12039,7 @@
         <v>8.489999999999991</v>
       </c>
       <c r="K229" t="n">
-        <v>-60.00000000000097</v>
+        <v>-80.95238095238196</v>
       </c>
       <c r="L229" t="n">
         <v>7.847999999999997</v>
@@ -12068,7 +12090,7 @@
         <v>8.569999999999991</v>
       </c>
       <c r="K230" t="n">
-        <v>-33.33333333333368</v>
+        <v>-31.03448275862092</v>
       </c>
       <c r="L230" t="n">
         <v>7.838999999999997</v>
@@ -12119,7 +12141,7 @@
         <v>8.629999999999992</v>
       </c>
       <c r="K231" t="n">
-        <v>-40.4255319148941</v>
+        <v>-35.48387096774218</v>
       </c>
       <c r="L231" t="n">
         <v>7.823999999999996</v>
@@ -12170,7 +12192,7 @@
         <v>8.709999999999992</v>
       </c>
       <c r="K232" t="n">
-        <v>-16.98113207547197</v>
+        <v>-5.263157894736977</v>
       </c>
       <c r="L232" t="n">
         <v>7.820999999999996</v>
@@ -12221,7 +12243,7 @@
         <v>8.759999999999991</v>
       </c>
       <c r="K233" t="n">
-        <v>-24.13793103448308</v>
+        <v>-21.95121951219517</v>
       </c>
       <c r="L233" t="n">
         <v>7.813999999999996</v>
@@ -12272,7 +12294,7 @@
         <v>8.789999999999992</v>
       </c>
       <c r="K234" t="n">
-        <v>-12.28070175438608</v>
+        <v>-7.317073170731765</v>
       </c>
       <c r="L234" t="n">
         <v>7.807999999999995</v>
@@ -12323,7 +12345,7 @@
         <v>8.819999999999993</v>
       </c>
       <c r="K235" t="n">
-        <v>-20.68965517241387</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L235" t="n">
         <v>7.801999999999995</v>
@@ -12374,7 +12396,7 @@
         <v>8.869999999999994</v>
       </c>
       <c r="K236" t="n">
-        <v>-29.03225806451612</v>
+        <v>-9.523809523809494</v>
       </c>
       <c r="L236" t="n">
         <v>7.795999999999995</v>
@@ -12425,7 +12447,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K237" t="n">
-        <v>-21.87499999999993</v>
+        <v>-2.222222222222161</v>
       </c>
       <c r="L237" t="n">
         <v>7.794999999999995</v>
@@ -12476,7 +12498,7 @@
         <v>8.979999999999995</v>
       </c>
       <c r="K238" t="n">
-        <v>-32.394366197183</v>
+        <v>-10.20408163265295</v>
       </c>
       <c r="L238" t="n">
         <v>7.785999999999994</v>
@@ -12527,7 +12549,7 @@
         <v>9.089999999999995</v>
       </c>
       <c r="K239" t="n">
-        <v>-13.58024691358028</v>
+        <v>-3.846153846153912</v>
       </c>
       <c r="L239" t="n">
         <v>7.791999999999994</v>
@@ -12578,7 +12600,7 @@
         <v>9.149999999999995</v>
       </c>
       <c r="K240" t="n">
-        <v>-19.54022988505744</v>
+        <v>-3.846153846153741</v>
       </c>
       <c r="L240" t="n">
         <v>7.783999999999994</v>
@@ -12629,7 +12651,7 @@
         <v>9.209999999999994</v>
       </c>
       <c r="K241" t="n">
-        <v>-24.73118279569889</v>
+        <v>-31.99999999999974</v>
       </c>
       <c r="L241" t="n">
         <v>7.775999999999994</v>
@@ -12680,7 +12702,7 @@
         <v>9.219999999999994</v>
       </c>
       <c r="K242" t="n">
-        <v>-19.99999999999996</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L242" t="n">
         <v>7.760999999999996</v>
@@ -12731,7 +12753,7 @@
         <v>9.219999999999994</v>
       </c>
       <c r="K243" t="n">
-        <v>-19.1011235955056</v>
+        <v>-30.23255813953475</v>
       </c>
       <c r="L243" t="n">
         <v>7.750999999999996</v>
@@ -12782,7 +12804,7 @@
         <v>9.229999999999993</v>
       </c>
       <c r="K244" t="n">
-        <v>-22.72727272727263</v>
+        <v>-26.82926829268278</v>
       </c>
       <c r="L244" t="n">
         <v>7.736999999999997</v>
@@ -12833,7 +12855,7 @@
         <v>9.229999999999993</v>
       </c>
       <c r="K245" t="n">
-        <v>-19.99999999999996</v>
+        <v>-16.66666666666659</v>
       </c>
       <c r="L245" t="n">
         <v>7.725999999999996</v>
@@ -12884,7 +12906,7 @@
         <v>9.239999999999993</v>
       </c>
       <c r="K246" t="n">
-        <v>-13.58024691358017</v>
+        <v>-23.52941176470603</v>
       </c>
       <c r="L246" t="n">
         <v>7.720999999999997</v>
@@ -12935,7 +12957,7 @@
         <v>9.239999999999993</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.39240506329111</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>7.712999999999997</v>
@@ -12986,7 +13008,7 @@
         <v>9.239999999999993</v>
       </c>
       <c r="K248" t="n">
-        <v>-11.39240506329111</v>
+        <v>-73.33333333333366</v>
       </c>
       <c r="L248" t="n">
         <v>7.712999999999997</v>
@@ -13037,7 +13059,7 @@
         <v>9.239999999999993</v>
       </c>
       <c r="K249" t="n">
-        <v>-6.666666666666628</v>
+        <v>-55.55555555555654</v>
       </c>
       <c r="L249" t="n">
         <v>7.701999999999996</v>
@@ -13088,7 +13110,7 @@
         <v>9.279999999999994</v>
       </c>
       <c r="K250" t="n">
-        <v>-12.6760563380281</v>
+        <v>71.42857142857089</v>
       </c>
       <c r="L250" t="n">
         <v>7.700999999999996</v>
@@ -13139,7 +13161,7 @@
         <v>9.279999999999994</v>
       </c>
       <c r="K251" t="n">
-        <v>-4.615384615384502</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L251" t="n">
         <v>7.705999999999996</v>
@@ -13190,7 +13212,7 @@
         <v>9.289999999999994</v>
       </c>
       <c r="K252" t="n">
-        <v>-17.24137931034471</v>
+        <v>71.42857142857089</v>
       </c>
       <c r="L252" t="n">
         <v>7.710999999999996</v>
@@ -13241,7 +13263,7 @@
         <v>9.289999999999994</v>
       </c>
       <c r="K253" t="n">
-        <v>-9.433962264150859</v>
+        <v>99.99999999999852</v>
       </c>
       <c r="L253" t="n">
         <v>7.715999999999996</v>
@@ -13292,7 +13314,7 @@
         <v>9.289999999999994</v>
       </c>
       <c r="K254" t="n">
-        <v>-15.99999999999996</v>
+        <v>99.99999999999852</v>
       </c>
       <c r="L254" t="n">
         <v>7.721999999999996</v>
@@ -13343,7 +13365,7 @@
         <v>9.309999999999993</v>
       </c>
       <c r="K255" t="n">
-        <v>-6.122448979591885</v>
+        <v>99.99999999999874</v>
       </c>
       <c r="L255" t="n">
         <v>7.729999999999995</v>
@@ -13394,7 +13416,7 @@
         <v>9.309999999999993</v>
       </c>
       <c r="K256" t="n">
-        <v>4.545454545454454</v>
+        <v>99.99999999999874</v>
       </c>
       <c r="L256" t="n">
         <v>7.736999999999995</v>
@@ -13445,7 +13467,7 @@
         <v>9.379999999999992</v>
       </c>
       <c r="K257" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>7.736999999999995</v>
@@ -13496,7 +13518,7 @@
         <v>9.399999999999991</v>
       </c>
       <c r="K258" t="n">
-        <v>4.761904761904701</v>
+        <v>12.49999999999986</v>
       </c>
       <c r="L258" t="n">
         <v>7.738999999999995</v>
@@ -13547,7 +13569,7 @@
         <v>9.419999999999991</v>
       </c>
       <c r="K259" t="n">
-        <v>-21.21212121212125</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>7.742999999999993</v>
@@ -13598,7 +13620,7 @@
         <v>9.44999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>6.666666666666628</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L260" t="n">
         <v>7.745999999999993</v>
@@ -13649,7 +13671,7 @@
         <v>9.45999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>36.00000000000045</v>
+        <v>17.64705882352994</v>
       </c>
       <c r="L261" t="n">
         <v>7.749999999999995</v>
@@ -13700,7 +13722,7 @@
         <v>9.47999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>38.46153846153888</v>
+        <v>26.31578947368467</v>
       </c>
       <c r="L262" t="n">
         <v>7.754999999999994</v>
@@ -13751,7 +13773,7 @@
         <v>9.519999999999989</v>
       </c>
       <c r="K263" t="n">
-        <v>20.00000000000018</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L263" t="n">
         <v>7.755999999999995</v>
@@ -13802,7 +13824,7 @@
         <v>9.519999999999989</v>
       </c>
       <c r="K264" t="n">
-        <v>24.13793103448292</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L264" t="n">
         <v>7.756999999999995</v>
@@ -13853,7 +13875,7 @@
         <v>9.529999999999989</v>
       </c>
       <c r="K265" t="n">
-        <v>20.00000000000018</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L265" t="n">
         <v>7.754999999999995</v>
@@ -13904,7 +13926,7 @@
         <v>9.549999999999988</v>
       </c>
       <c r="K266" t="n">
-        <v>9.677419354838941</v>
+        <v>17.64705882352994</v>
       </c>
       <c r="L266" t="n">
         <v>7.750999999999996</v>
@@ -13955,7 +13977,7 @@
         <v>9.599999999999987</v>
       </c>
       <c r="K267" t="n">
-        <v>22.22222222222261</v>
+        <v>30.00000000000089</v>
       </c>
       <c r="L267" t="n">
         <v>7.758999999999996</v>
@@ -14006,7 +14028,7 @@
         <v>9.599999999999987</v>
       </c>
       <c r="K268" t="n">
-        <v>22.22222222222261</v>
+        <v>22.22222222222272</v>
       </c>
       <c r="L268" t="n">
         <v>7.764999999999996</v>
@@ -14057,7 +14079,7 @@
         <v>9.609999999999987</v>
       </c>
       <c r="K269" t="n">
-        <v>24.32432432432469</v>
+        <v>12.50000000000055</v>
       </c>
       <c r="L269" t="n">
         <v>7.769999999999998</v>
@@ -14108,7 +14130,7 @@
         <v>9.639999999999986</v>
       </c>
       <c r="K270" t="n">
-        <v>5.555555555555555</v>
+        <v>-11.1111111111116</v>
       </c>
       <c r="L270" t="n">
         <v>7.768999999999998</v>
@@ -14159,7 +14181,7 @@
         <v>9.669999999999986</v>
       </c>
       <c r="K271" t="n">
-        <v>-2.564102564102564</v>
+        <v>-36.84210526315837</v>
       </c>
       <c r="L271" t="n">
         <v>7.763999999999998</v>
@@ -14210,7 +14232,7 @@
         <v>9.709999999999987</v>
       </c>
       <c r="K272" t="n">
-        <v>-14.28571428571444</v>
+        <v>-36.84210526315802</v>
       </c>
       <c r="L272" t="n">
         <v>7.752999999999998</v>
@@ -14261,7 +14283,7 @@
         <v>9.739999999999986</v>
       </c>
       <c r="K273" t="n">
-        <v>-6.666666666666837</v>
+        <v>-18.18181818181844</v>
       </c>
       <c r="L273" t="n">
         <v>7.748999999999998</v>
@@ -14312,7 +14334,7 @@
         <v>9.779999999999987</v>
       </c>
       <c r="K274" t="n">
-        <v>-14.28571428571455</v>
+        <v>-28.00000000000031</v>
       </c>
       <c r="L274" t="n">
         <v>7.740999999999998</v>
@@ -14363,7 +14385,7 @@
         <v>9.779999999999987</v>
       </c>
       <c r="K275" t="n">
-        <v>-19.148936170213</v>
+        <v>-21.73913043478304</v>
       </c>
       <c r="L275" t="n">
         <v>7.733999999999997</v>
@@ -14414,7 +14436,7 @@
         <v>9.789999999999988</v>
       </c>
       <c r="K276" t="n">
-        <v>-16.66666666666666</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L276" t="n">
         <v>7.729999999999997</v>
@@ -14465,7 +14487,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K277" t="n">
-        <v>-4.761904761904892</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L277" t="n">
         <v>7.719999999999996</v>
@@ -14516,7 +14538,7 @@
         <v>9.849999999999991</v>
       </c>
       <c r="K278" t="n">
-        <v>-20</v>
+        <v>-66.66666666666568</v>
       </c>
       <c r="L278" t="n">
         <v>7.704999999999996</v>
@@ -14567,7 +14589,7 @@
         <v>9.879999999999992</v>
       </c>
       <c r="K279" t="n">
-        <v>-30.43478260869572</v>
+        <v>-66.66666666666518</v>
       </c>
       <c r="L279" t="n">
         <v>7.685999999999995</v>
@@ -14618,7 +14640,7 @@
         <v>9.879999999999992</v>
       </c>
       <c r="K280" t="n">
-        <v>-39.53488372093008</v>
+        <v>-61.90476190476046</v>
       </c>
       <c r="L280" t="n">
         <v>7.669999999999993</v>
@@ -14669,7 +14691,7 @@
         <v>9.889999999999992</v>
       </c>
       <c r="K281" t="n">
-        <v>-44.18604651162784</v>
+        <v>-55.55555555555429</v>
       </c>
       <c r="L281" t="n">
         <v>7.655999999999993</v>
@@ -14720,7 +14742,7 @@
         <v>9.919999999999991</v>
       </c>
       <c r="K282" t="n">
-        <v>-40.90909090909072</v>
+        <v>-55.5555555555538</v>
       </c>
       <c r="L282" t="n">
         <v>7.648999999999994</v>
@@ -14771,7 +14793,7 @@
         <v>10.00999999999999</v>
       </c>
       <c r="K283" t="n">
-        <v>-10.20408163265298</v>
+        <v>13.04347826086945</v>
       </c>
       <c r="L283" t="n">
         <v>7.647999999999993</v>
@@ -14822,7 +14844,7 @@
         <v>10.08999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>-22.80701754385955</v>
+        <v>-16.12903225806425</v>
       </c>
       <c r="L284" t="n">
         <v>7.642999999999992</v>
@@ -14873,7 +14895,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>-19.29824561403507</v>
+        <v>-16.12903225806463</v>
       </c>
       <c r="L285" t="n">
         <v>7.638999999999993</v>
@@ -14924,7 +14946,7 @@
         <v>10.18999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>12.82051282051298</v>
       </c>
       <c r="L286" t="n">
         <v>7.642999999999994</v>
@@ -14975,7 +14997,7 @@
         <v>10.25999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>-18.18181818181809</v>
+        <v>7.317073170731765</v>
       </c>
       <c r="L287" t="n">
         <v>7.640999999999994</v>
@@ -15026,7 +15048,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>-22.85714285714278</v>
+        <v>4.761904761904892</v>
       </c>
       <c r="L288" t="n">
         <v>7.639999999999995</v>
@@ -15077,7 +15099,7 @@
         <v>10.32999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>-19.44444444444429</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L289" t="n">
         <v>7.644999999999996</v>
@@ -15128,7 +15150,7 @@
         <v>10.34999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>-12.67605633802807</v>
+        <v>17.39130434782614</v>
       </c>
       <c r="L290" t="n">
         <v>7.651999999999997</v>
@@ -15179,7 +15201,7 @@
         <v>10.40999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>-16.21621621621615</v>
+        <v>-2.040816326530575</v>
       </c>
       <c r="L291" t="n">
         <v>7.653999999999996</v>
@@ -15230,7 +15252,7 @@
         <v>10.47999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>-1.298701298701381</v>
+        <v>-6.382978723404324</v>
       </c>
       <c r="L292" t="n">
         <v>7.659999999999997</v>
@@ -15281,7 +15303,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>-11.39240506329106</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>7.651999999999997</v>
@@ -15332,7 +15354,7 @@
         <v>10.58999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>1.234567901234645</v>
+        <v>10.2040816326532</v>
       </c>
       <c r="L294" t="n">
         <v>7.657999999999997</v>
@@ -15383,7 +15405,7 @@
         <v>10.58999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>1.234567901234645</v>
+        <v>-10</v>
       </c>
       <c r="L295" t="n">
         <v>7.662999999999997</v>
@@ -15434,7 +15456,7 @@
         <v>10.58999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>9.090909090909165</v>
       </c>
       <c r="L296" t="n">
         <v>7.658999999999996</v>
@@ -15485,7 +15507,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L297" t="n">
         <v>7.660999999999996</v>
@@ -15536,7 +15558,7 @@
         <v>10.63999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>1.265822784810101</v>
+        <v>-3.225806451613134</v>
       </c>
       <c r="L298" t="n">
         <v>7.662999999999995</v>
@@ -15587,7 +15609,7 @@
         <v>10.67999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>10.00000000000004</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L299" t="n">
         <v>7.665999999999994</v>
@@ -15638,7 +15660,7 @@
         <v>10.67999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>10.00000000000004</v>
+        <v>25.92592592592574</v>
       </c>
       <c r="L300" t="n">
         <v>7.666999999999994</v>
@@ -15689,7 +15711,7 @@
         <v>10.72999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>4.761904761904777</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L301" t="n">
         <v>7.668999999999994</v>
@@ -15740,7 +15762,7 @@
         <v>10.73999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>2.439024390243855</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L302" t="n">
         <v>7.664999999999995</v>
@@ -15791,7 +15813,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>-1.265822784810101</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L303" t="n">
         <v>7.671999999999995</v>
@@ -15842,7 +15864,7 @@
         <v>10.83999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>4.000000000000043</v>
+        <v>-12.00000000000018</v>
       </c>
       <c r="L304" t="n">
         <v>7.668999999999995</v>
@@ -15893,7 +15915,7 @@
         <v>10.88999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>8.860759493670932</v>
+        <v>6.666666666666549</v>
       </c>
       <c r="L305" t="n">
         <v>7.670999999999995</v>
@@ -15944,7 +15966,7 @@
         <v>10.90999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>16.12903225806481</v>
       </c>
       <c r="L306" t="n">
         <v>7.674999999999995</v>
@@ -15995,7 +16017,7 @@
         <v>11.05999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>27.50000000000007</v>
+        <v>57.14285714285744</v>
       </c>
       <c r="L307" t="n">
         <v>7.694999999999996</v>
@@ -16046,7 +16068,7 @@
         <v>11.05999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>34.21052631578954</v>
+        <v>52.63157894736861</v>
       </c>
       <c r="L308" t="n">
         <v>7.718999999999996</v>
@@ -16097,7 +16119,7 @@
         <v>11.11999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>36.7088607594938</v>
+        <v>59.09090909090931</v>
       </c>
       <c r="L309" t="n">
         <v>7.744999999999996</v>
@@ -16148,7 +16170,7 @@
         <v>11.25999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>45.05494505494524</v>
+        <v>84.90566037735891</v>
       </c>
       <c r="L310" t="n">
         <v>7.784999999999997</v>
@@ -16199,7 +16221,7 @@
         <v>11.30999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>46.66666666666664</v>
+        <v>68.42105263157907</v>
       </c>
       <c r="L311" t="n">
         <v>7.824999999999998</v>
@@ -16250,7 +16272,7 @@
         <v>11.32999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>38.82352941176481</v>
+        <v>58.49056603773604</v>
       </c>
       <c r="L312" t="n">
         <v>7.861999999999997</v>
@@ -16301,7 +16323,7 @@
         <v>11.32999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>47.50000000000016</v>
+        <v>71.42857142857159</v>
       </c>
       <c r="L313" t="n">
         <v>7.892999999999998</v>
@@ -16352,7 +16374,7 @@
         <v>11.32999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>43.24324324324336</v>
+        <v>68.1818181818185</v>
       </c>
       <c r="L314" t="n">
         <v>7.927999999999999</v>
@@ -16403,7 +16425,7 @@
         <v>11.37999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>34.17721518987348</v>
+        <v>48.93617021276598</v>
       </c>
       <c r="L315" t="n">
         <v>7.952999999999999</v>
@@ -16454,7 +16476,7 @@
         <v>11.53999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>11.57894736842102</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L316" t="n">
         <v>7.959999999999998</v>
@@ -16505,7 +16527,7 @@
         <v>11.68999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>24.77064220183495</v>
+        <v>11.11111111111114</v>
       </c>
       <c r="L317" t="n">
         <v>7.966999999999999</v>
@@ -16556,7 +16578,7 @@
         <v>11.69999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>30.18867924528308</v>
+        <v>3.448275862068892</v>
       </c>
       <c r="L318" t="n">
         <v>7.974999999999999</v>
@@ -16607,7 +16629,7 @@
         <v>11.82999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>13.04347826086961</v>
+        <v>-43.85964912280699</v>
       </c>
       <c r="L319" t="n">
         <v>7.963999999999999</v>
@@ -16658,7 +16680,7 @@
         <v>11.94999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>21.25984251968508</v>
+        <v>-12.49999999999986</v>
       </c>
       <c r="L320" t="n">
         <v>7.950999999999999</v>
@@ -16709,7 +16731,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>29.68750000000005</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>7.949</v>
@@ -16760,7 +16782,7 @@
         <v>12.06999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>23.30827067669183</v>
+        <v>-8.108108108108073</v>
       </c>
       <c r="L322" t="n">
         <v>7.943</v>
@@ -16811,7 +16833,7 @@
         <v>12.13999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>23.8805970149254</v>
+        <v>1.234567901234544</v>
       </c>
       <c r="L323" t="n">
         <v>7.943999999999998</v>
@@ -16862,7 +16884,7 @@
         <v>12.13999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>27.69230769230771</v>
+        <v>7.894736842105232</v>
       </c>
       <c r="L324" t="n">
         <v>7.944999999999998</v>
@@ -16913,7 +16935,7 @@
         <v>12.14999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>25.39682539682542</v>
+        <v>37.70491803278696</v>
       </c>
       <c r="L325" t="n">
         <v>7.951999999999998</v>
@@ -16964,7 +16986,7 @@
         <v>12.33999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>7.692307692307673</v>
+        <v>-16.92307692307705</v>
       </c>
       <c r="L326" t="n">
         <v>7.955999999999999</v>
@@ -17015,7 +17037,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>8.333333333333353</v>
+        <v>5.000000000000022</v>
       </c>
       <c r="L327" t="n">
         <v>7.960999999999999</v>
@@ -17066,7 +17088,7 @@
         <v>12.50999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>7.586206896551759</v>
+        <v>23.52941176470597</v>
       </c>
       <c r="L328" t="n">
         <v>7.963999999999999</v>
@@ -17117,7 +17139,7 @@
         <v>12.56999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>-0.6896551724138408</v>
+        <v>-3.225806451612991</v>
       </c>
       <c r="L329" t="n">
         <v>7.973999999999999</v>
@@ -17168,7 +17190,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.43283582089552</v>
+        <v>-18.64406779661013</v>
       </c>
       <c r="L330" t="n">
         <v>7.968999999999999</v>
@@ -17219,7 +17241,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-10.0775193798449</v>
+        <v>-9.433962264150923</v>
       </c>
       <c r="L331" t="n">
         <v>7.958</v>
@@ -17270,7 +17292,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>-8.661417322834616</v>
+        <v>-26.08695652173901</v>
       </c>
       <c r="L332" t="n">
         <v>7.953</v>
@@ -17321,7 +17343,7 @@
         <v>12.60999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>-7.812499999999988</v>
+        <v>-23.40425531914887</v>
       </c>
       <c r="L333" t="n">
         <v>7.942</v>
@@ -17372,7 +17394,7 @@
         <v>12.63999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.343511450381638</v>
+        <v>-18.36734693877529</v>
       </c>
       <c r="L334" t="n">
         <v>7.934</v>
@@ -17423,7 +17445,7 @@
         <v>12.65999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L335" t="n">
         <v>7.927</v>
@@ -17474,7 +17496,7 @@
         <v>12.65999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>14.28571428571433</v>
+        <v>-25</v>
       </c>
       <c r="L336" t="n">
         <v>7.938999999999998</v>
@@ -17525,7 +17547,7 @@
         <v>12.68999999999999</v>
       </c>
       <c r="K337" t="n">
-        <v>-2.00000000000005</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>7.931999999999999</v>
@@ -17576,7 +17598,7 @@
         <v>12.70999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>-4.950495049504942</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L338" t="n">
         <v>7.923999999999999</v>
@@ -17627,7 +17649,7 @@
         <v>12.74999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>4.347826086956534</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L339" t="n">
         <v>7.918000000000001</v>
@@ -17678,7 +17700,7 @@
         <v>12.77999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>-6.024096385542159</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>7.918000000000001</v>
@@ -17729,7 +17751,7 @@
         <v>12.77999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>-14.28571428571422</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>7.918000000000001</v>
@@ -17780,7 +17802,7 @@
         <v>12.80999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>-10.81081081081079</v>
+        <v>-19.99999999999973</v>
       </c>
       <c r="L342" t="n">
         <v>7.915000000000001</v>
@@ -17831,7 +17853,7 @@
         <v>12.82999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>-18.84057971014488</v>
+        <v>-26.31578947368441</v>
       </c>
       <c r="L343" t="n">
         <v>7.913000000000001</v>
@@ -17882,7 +17904,7 @@
         <v>12.85999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>-22.2222222222221</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L344" t="n">
         <v>7.905000000000001</v>
@@ -17933,7 +17955,7 @@
         <v>12.86999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>-22.2222222222221</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L345" t="n">
         <v>7.896000000000003</v>
@@ -17984,7 +18006,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>10.71428571428576</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L346" t="n">
         <v>7.890000000000003</v>
@@ -18035,7 +18057,7 @@
         <v>12.90999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>-21.95121951219498</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>7.888000000000003</v>
@@ -18086,7 +18108,7 @@
         <v>12.90999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>-19.99999999999991</v>
+        <v>24.99999999999972</v>
       </c>
       <c r="L348" t="n">
         <v>7.888000000000003</v>
@@ -18137,7 +18159,7 @@
         <v>12.97999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>12.19512195121963</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L349" t="n">
         <v>7.899000000000003</v>
@@ -18239,7 +18261,7 @@
         <v>13.06999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>2.127659574468029</v>
+        <v>15.38461538461541</v>
       </c>
       <c r="L351" t="n">
         <v>7.900000000000001</v>
@@ -18290,7 +18312,7 @@
         <v>13.21999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>25.80645161290313</v>
+        <v>43.58974358974373</v>
       </c>
       <c r="L352" t="n">
         <v>7.919000000000001</v>
@@ -18341,7 +18363,7 @@
         <v>13.27999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>13.43283582089543</v>
+        <v>33.33333333333312</v>
       </c>
       <c r="L353" t="n">
         <v>7.930000000000001</v>
@@ -18392,7 +18414,7 @@
         <v>13.27999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>9.374999999999904</v>
+        <v>31.70731707317056</v>
       </c>
       <c r="L354" t="n">
         <v>7.944000000000001</v>
@@ -18443,7 +18465,7 @@
         <v>13.28999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>7.936507936507876</v>
+        <v>28.20512820512802</v>
       </c>
       <c r="L355" t="n">
         <v>7.958000000000001</v>
@@ -18494,7 +18516,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>6.249999999999982</v>
+        <v>23.07692307692301</v>
       </c>
       <c r="L356" t="n">
         <v>7.968000000000001</v>
@@ -18545,7 +18567,7 @@
         <v>13.32999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>6.25</v>
+        <v>14.2857142857142</v>
       </c>
       <c r="L357" t="n">
         <v>7.974000000000001</v>
@@ -18596,7 +18618,7 @@
         <v>13.33999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>7.981000000000002</v>
@@ -18647,7 +18669,7 @@
         <v>13.34999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>19.99999999999991</v>
+        <v>31.03448275862054</v>
       </c>
       <c r="L359" t="n">
         <v>7.982000000000001</v>
@@ -18698,7 +18720,7 @@
         <v>13.35999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>13.79310344827583</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L360" t="n">
         <v>7.99</v>
@@ -18749,7 +18771,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>19.35483870967726</v>
+        <v>-22.22222222222277</v>
       </c>
       <c r="L361" t="n">
         <v>8.001000000000001</v>
@@ -18800,7 +18822,7 @@
         <v>13.41999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>21.31147540983607</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>7.995</v>
@@ -18851,7 +18873,7 @@
         <v>13.42999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>16.66666666666677</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L363" t="n">
         <v>7.994</v>
@@ -18902,7 +18924,7 @@
         <v>13.43999999999999</v>
       </c>
       <c r="K364" t="n">
-        <v>24.1379310344827</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L364" t="n">
         <v>7.994</v>
@@ -18953,7 +18975,7 @@
         <v>13.45999999999999</v>
       </c>
       <c r="K365" t="n">
-        <v>18.64406779661023</v>
+        <v>-12.49999999999986</v>
       </c>
       <c r="L365" t="n">
         <v>7.991</v>
@@ -19004,7 +19026,7 @@
         <v>13.47999999999999</v>
       </c>
       <c r="K366" t="n">
-        <v>17.24137931034482</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L366" t="n">
         <v>7.991</v>
@@ -19055,7 +19077,7 @@
         <v>13.51999999999999</v>
       </c>
       <c r="K367" t="n">
-        <v>21.31147540983599</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>7.997999999999999</v>
@@ -19106,7 +19128,7 @@
         <v>13.54999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>15.62500000000002</v>
+        <v>10</v>
       </c>
       <c r="L368" t="n">
         <v>8.000999999999999</v>
@@ -19157,7 +19179,7 @@
         <v>13.55999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>3.448275862068913</v>
+        <v>10</v>
       </c>
       <c r="L369" t="n">
         <v>8.001999999999999</v>
@@ -19208,7 +19230,7 @@
         <v>13.55999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>20.00000000000007</v>
+        <v>-12.5</v>
       </c>
       <c r="L370" t="n">
         <v>8.004</v>
@@ -19259,7 +19281,7 @@
         <v>13.57999999999998</v>
       </c>
       <c r="K371" t="n">
-        <v>21.56862745098044</v>
+        <v>12.5</v>
       </c>
       <c r="L371" t="n">
         <v>8.004</v>
@@ -19310,7 +19332,7 @@
         <v>13.57999999999998</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.11111111111149</v>
+        <v>20</v>
       </c>
       <c r="L372" t="n">
         <v>8.005999999999998</v>
@@ -19361,7 +19383,7 @@
         <v>13.58999999999998</v>
       </c>
       <c r="K373" t="n">
-        <v>3.225806451612884</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L373" t="n">
         <v>8.007999999999999</v>
@@ -19412,7 +19434,7 @@
         <v>13.61999999999998</v>
       </c>
       <c r="K374" t="n">
-        <v>11.76470588235288</v>
+        <v>37.5</v>
       </c>
       <c r="L374" t="n">
         <v>8.012</v>
@@ -19463,7 +19485,7 @@
         <v>13.62999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>11.76470588235334</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L375" t="n">
         <v>8.019</v>
@@ -19514,7 +19536,7 @@
         <v>13.66999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>2.702702702702664</v>
+        <v>-19.99999999999953</v>
       </c>
       <c r="L376" t="n">
         <v>8.02</v>
@@ -19565,7 +19587,7 @@
         <v>13.67999999999999</v>
       </c>
       <c r="K377" t="n">
-        <v>8.571428571428696</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L377" t="n">
         <v>8.016</v>
@@ -19616,7 +19638,7 @@
         <v>13.70999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>-2.702702702702904</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L378" t="n">
         <v>8.011999999999999</v>
@@ -19667,7 +19689,7 @@
         <v>13.76999999999999</v>
       </c>
       <c r="K379" t="n">
-        <v>9.523809523809403</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L379" t="n">
         <v>8.014999999999999</v>
@@ -19718,7 +19740,7 @@
         <v>13.84999999999998</v>
       </c>
       <c r="K380" t="n">
-        <v>-6.122448979591951</v>
+        <v>-25.92592592592574</v>
       </c>
       <c r="L380" t="n">
         <v>8.01</v>
@@ -19769,7 +19791,7 @@
         <v>13.84999999999998</v>
       </c>
       <c r="K381" t="n">
-        <v>-15.55555555555557</v>
+        <v>-25.92592592592574</v>
       </c>
       <c r="L381" t="n">
         <v>8.003</v>
@@ -19820,7 +19842,7 @@
         <v>13.84999999999998</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.62790697674425</v>
+        <v>-23.07692307692295</v>
       </c>
       <c r="L382" t="n">
         <v>7.996</v>
@@ -19871,7 +19893,7 @@
         <v>13.90999999999998</v>
       </c>
       <c r="K383" t="n">
-        <v>4.166666666666621</v>
+        <v>-10.34482758620671</v>
       </c>
       <c r="L383" t="n">
         <v>7.996</v>
@@ -19922,7 +19944,7 @@
         <v>13.93999999999998</v>
       </c>
       <c r="K384" t="n">
-        <v>-3.999999999999957</v>
+        <v>-22.58064516129064</v>
       </c>
       <c r="L384" t="n">
         <v>7.99</v>
@@ -19973,7 +19995,7 @@
         <v>13.94999999999998</v>
       </c>
       <c r="K385" t="n">
-        <v>2.04081632653059</v>
+        <v>-7.142857142857098</v>
       </c>
       <c r="L385" t="n">
         <v>7.984</v>
@@ -20024,7 +20046,7 @@
         <v>13.95999999999998</v>
       </c>
       <c r="K386" t="n">
-        <v>-4.166666666666621</v>
+        <v>-7.142857142857098</v>
       </c>
       <c r="L386" t="n">
         <v>7.981</v>
@@ -20075,7 +20097,7 @@
         <v>13.97999999999998</v>
       </c>
       <c r="K387" t="n">
-        <v>-17.39130434782601</v>
+        <v>-3.703703703703679</v>
       </c>
       <c r="L387" t="n">
         <v>7.976999999999999</v>
@@ -20126,7 +20148,7 @@
         <v>14.03999999999998</v>
       </c>
       <c r="K388" t="n">
-        <v>2.040816326530583</v>
+        <v>-3.703703703703679</v>
       </c>
       <c r="L388" t="n">
         <v>7.981999999999999</v>
@@ -20177,7 +20199,7 @@
         <v>14.04999999999998</v>
       </c>
       <c r="K389" t="n">
-        <v>2.040816326530583</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L389" t="n">
         <v>7.98</v>
@@ -20228,7 +20250,7 @@
         <v>14.10999999999998</v>
       </c>
       <c r="K390" t="n">
-        <v>-9.090909090909104</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>7.98</v>
@@ -20279,7 +20301,7 @@
         <v>14.13999999999998</v>
       </c>
       <c r="K391" t="n">
-        <v>-7.142857142857006</v>
+        <v>10.34482758620701</v>
       </c>
       <c r="L391" t="n">
         <v>7.983</v>
@@ -20330,7 +20352,7 @@
         <v>14.13999999999998</v>
       </c>
       <c r="K392" t="n">
-        <v>-7.142857142857006</v>
+        <v>-13.04347826086926</v>
       </c>
       <c r="L392" t="n">
         <v>7.986</v>
@@ -20381,7 +20403,7 @@
         <v>14.13999999999998</v>
       </c>
       <c r="K393" t="n">
-        <v>-5.454545454545348</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>7.983</v>
@@ -20432,7 +20454,7 @@
         <v>14.15999999999998</v>
       </c>
       <c r="K394" t="n">
-        <v>-7.407407407407261</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L394" t="n">
         <v>7.984999999999999</v>
@@ -20483,7 +20505,7 @@
         <v>14.16999999999998</v>
       </c>
       <c r="K395" t="n">
-        <v>-11.11111111111126</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L395" t="n">
         <v>7.984999999999999</v>
@@ -20534,7 +20556,7 @@
         <v>14.23999999999998</v>
       </c>
       <c r="K396" t="n">
-        <v>-15.78947368421059</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L396" t="n">
         <v>7.978999999999999</v>
@@ -20585,7 +20607,7 @@
         <v>14.23999999999998</v>
       </c>
       <c r="K397" t="n">
-        <v>-14.28571428571438</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L397" t="n">
         <v>7.975</v>
@@ -20636,7 +20658,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K398" t="n">
-        <v>1.694915254237413</v>
+        <v>-11.99999999999966</v>
       </c>
       <c r="L398" t="n">
         <v>7.971000000000001</v>
@@ -20687,7 +20709,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K399" t="n">
-        <v>-9.433962264150786</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L399" t="n">
         <v>7.968000000000001</v>
@@ -20738,7 +20760,7 @@
         <v>14.35999999999998</v>
       </c>
       <c r="K400" t="n">
-        <v>-5.882352941176522</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L400" t="n">
         <v>7.965000000000001</v>
@@ -20789,7 +20811,7 @@
         <v>14.35999999999998</v>
       </c>
       <c r="K401" t="n">
-        <v>-5.882352941176522</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L401" t="n">
         <v>7.959000000000001</v>
@@ -20840,7 +20862,7 @@
         <v>14.35999999999998</v>
       </c>
       <c r="K402" t="n">
-        <v>-5.882352941176522</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L402" t="n">
         <v>7.953</v>
@@ -20891,7 +20913,7 @@
         <v>14.36999999999998</v>
       </c>
       <c r="K403" t="n">
-        <v>-21.73913043478249</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L403" t="n">
         <v>7.946</v>
@@ -20942,7 +20964,7 @@
         <v>14.36999999999998</v>
       </c>
       <c r="K404" t="n">
-        <v>-16.27906976744187</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L404" t="n">
         <v>7.936999999999999</v>
@@ -20993,7 +21015,7 @@
         <v>14.36999999999998</v>
       </c>
       <c r="K405" t="n">
-        <v>-19.04761904761899</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L405" t="n">
         <v>7.928999999999999</v>
@@ -21044,7 +21066,7 @@
         <v>14.36999999999998</v>
       </c>
       <c r="K406" t="n">
-        <v>-17.07317073170731</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L406" t="n">
         <v>7.927999999999999</v>
@@ -21095,7 +21117,7 @@
         <v>14.37999999999998</v>
       </c>
       <c r="K407" t="n">
-        <v>-14.99999999999989</v>
+        <v>-100</v>
       </c>
       <c r="L407" t="n">
         <v>7.925999999999999</v>
@@ -21146,7 +21168,7 @@
         <v>14.37999999999998</v>
       </c>
       <c r="K408" t="n">
-        <v>-35.29411764705843</v>
+        <v>-100</v>
       </c>
       <c r="L408" t="n">
         <v>7.917999999999999</v>
@@ -21197,7 +21219,7 @@
         <v>14.37999999999998</v>
       </c>
       <c r="K409" t="n">
-        <v>-33.33333333333297</v>
+        <v>-100</v>
       </c>
       <c r="L409" t="n">
         <v>7.909999999999999</v>
@@ -21248,7 +21270,7 @@
         <v>14.37999999999998</v>
       </c>
       <c r="K410" t="n">
-        <v>-18.51851851851836</v>
+        <v>-100</v>
       </c>
       <c r="L410" t="n">
         <v>7.907999999999999</v>
@@ -21299,7 +21321,7 @@
         <v>14.37999999999998</v>
       </c>
       <c r="K411" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L411" t="n">
         <v>7.906000000000001</v>
@@ -21350,7 +21372,7 @@
         <v>14.44999999999998</v>
       </c>
       <c r="K412" t="n">
-        <v>-3.225806451613134</v>
+        <v>75.00000000000111</v>
       </c>
       <c r="L412" t="n">
         <v>7.911</v>
@@ -21401,7 +21423,7 @@
         <v>14.51999999999998</v>
       </c>
       <c r="K413" t="n">
-        <v>-21.05263157894744</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L413" t="n">
         <v>7.910000000000001</v>
@@ -21452,7 +21474,7 @@
         <v>14.51999999999998</v>
       </c>
       <c r="K414" t="n">
-        <v>-27.77777777777772</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L414" t="n">
         <v>7.909000000000002</v>
@@ -21503,7 +21525,7 @@
         <v>14.51999999999998</v>
       </c>
       <c r="K415" t="n">
-        <v>-25.7142857142857</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L415" t="n">
         <v>7.908000000000003</v>
@@ -21554,7 +21576,7 @@
         <v>14.51999999999998</v>
       </c>
       <c r="K416" t="n">
-        <v>-7.142857142857006</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>7.907000000000004</v>
@@ -21605,7 +21627,7 @@
         <v>14.56999999999998</v>
       </c>
       <c r="K417" t="n">
-        <v>-21.21212121212129</v>
+        <v>-26.31578947368465</v>
       </c>
       <c r="L417" t="n">
         <v>7.902000000000003</v>
@@ -21656,7 +21678,7 @@
         <v>14.56999999999998</v>
       </c>
       <c r="K418" t="n">
-        <v>-48.14814814814851</v>
+        <v>-26.31578947368465</v>
       </c>
       <c r="L418" t="n">
         <v>7.897000000000001</v>
@@ -21707,7 +21729,7 @@
         <v>14.56999999999998</v>
       </c>
       <c r="K419" t="n">
-        <v>-48.14814814814851</v>
+        <v>-26.31578947368465</v>
       </c>
       <c r="L419" t="n">
         <v>7.892</v>
@@ -21758,7 +21780,7 @@
         <v>14.57999999999998</v>
       </c>
       <c r="K420" t="n">
-        <v>-36.36363636363658</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L420" t="n">
         <v>7.886</v>
@@ -21809,7 +21831,7 @@
         <v>14.65999999999998</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>-23.80952380952363</v>
       </c>
       <c r="L421" t="n">
         <v>7.888</v>
@@ -21860,7 +21882,7 @@
         <v>14.72999999999998</v>
       </c>
       <c r="K422" t="n">
-        <v>-18.91891891891904</v>
+        <v>-23.80952380952405</v>
       </c>
       <c r="L422" t="n">
         <v>7.875999999999999</v>
@@ -21911,7 +21933,7 @@
         <v>14.74999999999998</v>
       </c>
       <c r="K423" t="n">
-        <v>-21.05263157894744</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L423" t="n">
         <v>7.868999999999998</v>
@@ -21962,7 +21984,7 @@
         <v>14.83999999999998</v>
       </c>
       <c r="K424" t="n">
-        <v>2.127659574468045</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L424" t="n">
         <v>7.870999999999998</v>
@@ -22013,7 +22035,7 @@
         <v>14.83999999999998</v>
       </c>
       <c r="K425" t="n">
-        <v>2.127659574468045</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L425" t="n">
         <v>7.872999999999998</v>
@@ -22064,7 +22086,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K426" t="n">
-        <v>-23.8095238095239</v>
+        <v>-20.93023255813952</v>
       </c>
       <c r="L426" t="n">
         <v>7.858999999999997</v>
@@ -22115,7 +22137,7 @@
         <v>15.01999999999998</v>
       </c>
       <c r="K427" t="n">
-        <v>-25.00000000000007</v>
+        <v>-24.44444444444436</v>
       </c>
       <c r="L427" t="n">
         <v>7.847999999999997</v>
@@ -22166,7 +22188,7 @@
         <v>15.05999999999998</v>
       </c>
       <c r="K428" t="n">
-        <v>-29.41176470588247</v>
+        <v>-30.61224489795917</v>
       </c>
       <c r="L428" t="n">
         <v>7.832999999999998</v>
@@ -22217,7 +22239,7 @@
         <v>15.06999999999998</v>
       </c>
       <c r="K429" t="n">
-        <v>-27.53623188405812</v>
+        <v>-26.53061224489802</v>
       </c>
       <c r="L429" t="n">
         <v>7.818999999999998</v>
@@ -22268,7 +22290,7 @@
         <v>15.07999999999998</v>
       </c>
       <c r="K430" t="n">
-        <v>-28.5714285714287</v>
+        <v>-52.38095238095255</v>
       </c>
       <c r="L430" t="n">
         <v>7.804999999999998</v>
@@ -22319,7 +22341,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K431" t="n">
-        <v>2.173913043478223</v>
+        <v>12.28070175438608</v>
       </c>
       <c r="L431" t="n">
         <v>7.804999999999998</v>
@@ -22370,7 +22392,7 @@
         <v>15.41999999999998</v>
       </c>
       <c r="K432" t="n">
-        <v>-17.5257731958763</v>
+        <v>-4.477611940298557</v>
       </c>
       <c r="L432" t="n">
         <v>7.799999999999999</v>
@@ -22421,7 +22443,7 @@
         <v>15.42999999999998</v>
       </c>
       <c r="K433" t="n">
-        <v>-9.89010989010999</v>
+        <v>-18.64406779661028</v>
       </c>
       <c r="L433" t="n">
         <v>7.797999999999999</v>
@@ -22472,7 +22494,7 @@
         <v>15.47999999999998</v>
       </c>
       <c r="K434" t="n">
-        <v>-14.58333333333343</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L434" t="n">
         <v>7.781999999999999</v>
@@ -22523,7 +22545,7 @@
         <v>15.48999999999998</v>
       </c>
       <c r="K435" t="n">
-        <v>-15.46391752577328</v>
+        <v>-2.040816326530583</v>
       </c>
       <c r="L435" t="n">
         <v>7.764999999999999</v>
@@ -22574,7 +22596,7 @@
         <v>15.48999999999998</v>
       </c>
       <c r="K436" t="n">
-        <v>-15.46391752577328</v>
+        <v>2.127659574468053</v>
       </c>
       <c r="L436" t="n">
         <v>7.763999999999998</v>
@@ -22625,7 +22647,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K437" t="n">
-        <v>0.9708737864078347</v>
+        <v>29.6296296296297</v>
       </c>
       <c r="L437" t="n">
         <v>7.775999999999999</v>
@@ -22676,7 +22698,7 @@
         <v>15.66999999999998</v>
       </c>
       <c r="K438" t="n">
-        <v>-5.454545454545429</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L438" t="n">
         <v>7.784999999999999</v>
@@ -22727,7 +22749,7 @@
         <v>15.72999999999998</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>23.07692307692304</v>
       </c>
       <c r="L439" t="n">
         <v>7.798999999999999</v>
@@ -22778,7 +22800,7 @@
         <v>15.76999999999998</v>
       </c>
       <c r="K440" t="n">
-        <v>-2.521008403361374</v>
+        <v>-23.40425531914906</v>
       </c>
       <c r="L440" t="n">
         <v>7.81</v>
@@ -22829,7 +22851,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K441" t="n">
-        <v>-7.017543859649147</v>
+        <v>10.52631578947372</v>
       </c>
       <c r="L441" t="n">
         <v>7.802</v>
@@ -22880,7 +22902,7 @@
         <v>15.88999999999998</v>
       </c>
       <c r="K442" t="n">
-        <v>-8.620689655172409</v>
+        <v>-13.04347826086951</v>
       </c>
       <c r="L442" t="n">
         <v>7.797</v>
@@ -22931,7 +22953,7 @@
         <v>15.91999999999998</v>
       </c>
       <c r="K443" t="n">
-        <v>-9.401709401709443</v>
+        <v>-9.090909090909074</v>
       </c>
       <c r="L443" t="n">
         <v>7.787999999999999</v>
@@ -22982,7 +23004,7 @@
         <v>15.93999999999998</v>
       </c>
       <c r="K444" t="n">
-        <v>-20.00000000000001</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L444" t="n">
         <v>7.781999999999999</v>
@@ -23033,7 +23055,7 @@
         <v>15.94999999999998</v>
       </c>
       <c r="K445" t="n">
-        <v>-18.91891891891895</v>
+        <v>-8.695652173913034</v>
       </c>
       <c r="L445" t="n">
         <v>7.777999999999999</v>
@@ -23084,7 +23106,7 @@
         <v>15.95999999999998</v>
       </c>
       <c r="K446" t="n">
-        <v>-6.249999999999977</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L446" t="n">
         <v>7.772999999999999</v>
@@ -23135,7 +23157,7 @@
         <v>15.95999999999998</v>
       </c>
       <c r="K447" t="n">
-        <v>-4.255319148936184</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L447" t="n">
         <v>7.757</v>
@@ -23186,7 +23208,7 @@
         <v>15.99999999999998</v>
       </c>
       <c r="K448" t="n">
-        <v>4.255319148936184</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L448" t="n">
         <v>7.751999999999998</v>
@@ -23237,7 +23259,7 @@
         <v>16.03999999999998</v>
       </c>
       <c r="K449" t="n">
-        <v>7.216494845360875</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L449" t="n">
         <v>7.744999999999999</v>
@@ -23288,7 +23310,7 @@
         <v>16.14999999999998</v>
       </c>
       <c r="K450" t="n">
-        <v>17.7570093457944</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L450" t="n">
         <v>7.752999999999998</v>
@@ -23339,7 +23361,7 @@
         <v>16.18999999999998</v>
       </c>
       <c r="K451" t="n">
-        <v>1.123595505617957</v>
+        <v>60.00000000000048</v>
       </c>
       <c r="L451" t="n">
         <v>7.761999999999998</v>
@@ -23390,7 +23412,7 @@
         <v>16.21999999999998</v>
       </c>
       <c r="K452" t="n">
-        <v>12.50000000000011</v>
+        <v>60.00000000000077</v>
       </c>
       <c r="L452" t="n">
         <v>7.776999999999998</v>
@@ -23441,7 +23463,7 @@
         <v>16.21999999999998</v>
       </c>
       <c r="K453" t="n">
-        <v>11.39240506329127</v>
+        <v>71.42857142857211</v>
       </c>
       <c r="L453" t="n">
         <v>7.794999999999999</v>
@@ -23492,7 +23514,7 @@
         <v>16.26999999999998</v>
       </c>
       <c r="K454" t="n">
-        <v>11.39240506329113</v>
+        <v>43.75000000000011</v>
       </c>
       <c r="L454" t="n">
         <v>7.809999999999998</v>
@@ -23543,7 +23565,7 @@
         <v>16.27999999999998</v>
       </c>
       <c r="K455" t="n">
-        <v>11.39240506329111</v>
+        <v>43.74999999999986</v>
       </c>
       <c r="L455" t="n">
         <v>7.822999999999999</v>
@@ -23594,7 +23616,7 @@
         <v>16.32999999999998</v>
       </c>
       <c r="K456" t="n">
-        <v>16.6666666666666</v>
+        <v>51.35135135135108</v>
       </c>
       <c r="L456" t="n">
         <v>7.841999999999999</v>
@@ -23645,7 +23667,7 @@
         <v>16.37999999999998</v>
       </c>
       <c r="K457" t="n">
-        <v>-2.564102564102619</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L457" t="n">
         <v>7.855999999999999</v>
@@ -23696,7 +23718,7 @@
         <v>16.39999999999998</v>
       </c>
       <c r="K458" t="n">
-        <v>9.589041095890444</v>
+        <v>22.22222222222206</v>
       </c>
       <c r="L458" t="n">
         <v>7.867999999999999</v>
@@ -23747,7 +23769,7 @@
         <v>16.43999999999998</v>
       </c>
       <c r="K459" t="n">
-        <v>-4.225352112675961</v>
+        <v>-24.13793103448233</v>
       </c>
       <c r="L459" t="n">
         <v>7.872</v>
@@ -23798,7 +23820,7 @@
         <v>16.45999999999998</v>
       </c>
       <c r="K460" t="n">
-        <v>-1.449275362318807</v>
+        <v>-48.14814814814755</v>
       </c>
       <c r="L460" t="n">
         <v>7.863</v>
@@ -23849,7 +23871,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K461" t="n">
-        <v>-11.42857142857145</v>
+        <v>-50</v>
       </c>
       <c r="L461" t="n">
         <v>7.846000000000001</v>
@@ -23900,7 +23922,7 @@
         <v>16.55999999999998</v>
       </c>
       <c r="K462" t="n">
-        <v>10.44776119402987</v>
+        <v>-23.52941176470567</v>
       </c>
       <c r="L462" t="n">
         <v>7.837999999999999</v>
@@ -23951,7 +23973,7 @@
         <v>16.61999999999998</v>
       </c>
       <c r="K463" t="n">
-        <v>5.714285714285696</v>
+        <v>-25.71428571428531</v>
       </c>
       <c r="L463" t="n">
         <v>7.824</v>
@@ -24002,7 +24024,7 @@
         <v>16.65999999999998</v>
       </c>
       <c r="K464" t="n">
-        <v>2.777777777777709</v>
+        <v>-31.57894736842087</v>
       </c>
       <c r="L464" t="n">
         <v>7.811</v>
@@ -24053,7 +24075,7 @@
         <v>16.73999999999998</v>
       </c>
       <c r="K465" t="n">
-        <v>11.39240506329111</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L465" t="n">
         <v>7.806999999999999</v>
@@ -24104,7 +24126,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K466" t="n">
-        <v>4.761904761904767</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L466" t="n">
         <v>7.791999999999999</v>
@@ -24155,7 +24177,7 @@
         <v>16.81999999999998</v>
       </c>
       <c r="K467" t="n">
-        <v>2.325581395348789</v>
+        <v>-33.33333333333361</v>
       </c>
       <c r="L467" t="n">
         <v>7.779999999999998</v>
@@ -24206,7 +24228,7 @@
         <v>16.88999999999998</v>
       </c>
       <c r="K468" t="n">
-        <v>5.617977528089864</v>
+        <v>-6.666666666666732</v>
       </c>
       <c r="L468" t="n">
         <v>7.772999999999999</v>
@@ -24257,7 +24279,7 @@
         <v>16.91999999999998</v>
       </c>
       <c r="K469" t="n">
-        <v>-2.272727272727319</v>
+        <v>-8.695652173913034</v>
       </c>
       <c r="L469" t="n">
         <v>7.766999999999999</v>
@@ -24308,7 +24330,7 @@
         <v>16.91999999999998</v>
       </c>
       <c r="K470" t="n">
-        <v>-16.8831168831168</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>7.763</v>
@@ -24359,7 +24381,7 @@
         <v>16.91999999999998</v>
       </c>
       <c r="K471" t="n">
-        <v>-23.28767123287658</v>
+        <v>-16.66666666666683</v>
       </c>
       <c r="L471" t="n">
         <v>7.763</v>
@@ -24410,7 +24432,7 @@
         <v>16.92999999999998</v>
       </c>
       <c r="K472" t="n">
-        <v>-21.12676056338031</v>
+        <v>-3.225806451612884</v>
       </c>
       <c r="L472" t="n">
         <v>7.756</v>
@@ -24461,7 +24483,7 @@
         <v>16.92999999999998</v>
       </c>
       <c r="K473" t="n">
-        <v>-21.12676056338031</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L473" t="n">
         <v>7.755</v>
@@ -24512,7 +24534,7 @@
         <v>16.97999999999998</v>
       </c>
       <c r="K474" t="n">
-        <v>-7.042253521126727</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>7.763</v>
@@ -24563,7 +24585,7 @@
         <v>16.97999999999998</v>
       </c>
       <c r="K475" t="n">
-        <v>-5.714285714285725</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L475" t="n">
         <v>7.763</v>
@@ -24614,7 +24636,7 @@
         <v>16.97999999999998</v>
       </c>
       <c r="K476" t="n">
-        <v>-13.84615384615386</v>
+        <v>50</v>
       </c>
       <c r="L476" t="n">
         <v>7.769</v>
@@ -24665,7 +24687,7 @@
         <v>16.98999999999998</v>
       </c>
       <c r="K477" t="n">
-        <v>-4.918032786885291</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L477" t="n">
         <v>7.778</v>
@@ -24716,7 +24738,7 @@
         <v>16.99999999999998</v>
       </c>
       <c r="K478" t="n">
-        <v>-10.00000000000012</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L478" t="n">
         <v>7.778999999999999</v>
@@ -24767,7 +24789,7 @@
         <v>16.99999999999998</v>
       </c>
       <c r="K479" t="n">
-        <v>-3.571428571428662</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L479" t="n">
         <v>7.782999999999999</v>
@@ -24818,7 +24840,7 @@
         <v>16.99999999999998</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L480" t="n">
         <v>7.786999999999997</v>
@@ -24869,7 +24891,7 @@
         <v>17.00999999999998</v>
       </c>
       <c r="K481" t="n">
-        <v>5.882352941176542</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L481" t="n">
         <v>7.789999999999997</v>
@@ -24920,7 +24942,7 @@
         <v>17.04999999999998</v>
       </c>
       <c r="K482" t="n">
-        <v>-14.28571428571449</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>7.789999999999997</v>
@@ -24971,7 +24993,7 @@
         <v>17.04999999999998</v>
       </c>
       <c r="K483" t="n">
-        <v>-2.325581395348828</v>
+        <v>-71.4285714285745</v>
       </c>
       <c r="L483" t="n">
         <v>7.789999999999997</v>
@@ -25022,7 +25044,7 @@
         <v>17.07999999999998</v>
       </c>
       <c r="K484" t="n">
-        <v>14.28571428571459</v>
+        <v>-20</v>
       </c>
       <c r="L484" t="n">
         <v>7.787999999999998</v>
@@ -25073,7 +25095,7 @@
         <v>17.07999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-5.88235294117641</v>
+        <v>-20</v>
       </c>
       <c r="L485" t="n">
         <v>7.785999999999999</v>
@@ -25124,7 +25146,7 @@
         <v>17.10999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>3.225806451612848</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L486" t="n">
         <v>7.780999999999999</v>
@@ -25175,7 +25197,7 @@
         <v>17.10999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>10.34482758620701</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L487" t="n">
         <v>7.774999999999999</v>
@@ -25226,7 +25248,7 @@
         <v>17.11999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>-21.73913043478283</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L488" t="n">
         <v>7.768999999999998</v>
@@ -25277,7 +25299,7 @@
         <v>17.14999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>-21.73913043478283</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L489" t="n">
         <v>7.759999999999998</v>
@@ -25328,7 +25350,7 @@
         <v>17.15999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>-16.66666666666704</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L490" t="n">
         <v>7.751999999999998</v>
@@ -25379,7 +25401,7 @@
         <v>17.16999999999997</v>
       </c>
       <c r="K491" t="n">
-        <v>-20.0000000000005</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L491" t="n">
         <v>7.743999999999997</v>
@@ -25430,7 +25452,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K492" t="n">
-        <v>-3.703703703703679</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L492" t="n">
         <v>7.742999999999997</v>
@@ -25481,7 +25503,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K493" t="n">
-        <v>-3.703703703703679</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L493" t="n">
         <v>7.741999999999996</v>
@@ -25532,7 +25554,7 @@
         <v>17.22999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>-36.00000000000045</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L494" t="n">
         <v>7.734999999999995</v>
@@ -25583,7 +25605,7 @@
         <v>17.26999999999997</v>
       </c>
       <c r="K495" t="n">
-        <v>-17.24137931034503</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>7.731999999999995</v>
@@ -25634,7 +25656,7 @@
         <v>17.30999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>-3.030303030303014</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L496" t="n">
         <v>7.735999999999995</v>
@@ -25685,7 +25707,7 @@
         <v>17.33999999999997</v>
       </c>
       <c r="K497" t="n">
-        <v>2.857142857143097</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L497" t="n">
         <v>7.742999999999995</v>
@@ -25736,7 +25758,7 @@
         <v>17.35999999999997</v>
       </c>
       <c r="K498" t="n">
-        <v>11.11111111111125</v>
+        <v>61.90476190476265</v>
       </c>
       <c r="L498" t="n">
         <v>7.752999999999996</v>
@@ -25787,7 +25809,7 @@
         <v>17.35999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>11.11111111111125</v>
+        <v>60.00000000000026</v>
       </c>
       <c r="L499" t="n">
         <v>7.765999999999996</v>
@@ -25838,7 +25860,7 @@
         <v>17.39999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>20.00000000000027</v>
+        <v>73.9130434782607</v>
       </c>
       <c r="L500" t="n">
         <v>7.781999999999996</v>
@@ -25889,7 +25911,7 @@
         <v>17.39999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>23.07692307692322</v>
+        <v>70.00000000000009</v>
       </c>
       <c r="L501" t="n">
         <v>7.798999999999997</v>
@@ -25940,7 +25962,7 @@
         <v>17.41999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>40.54054054054092</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L502" t="n">
         <v>7.814999999999998</v>
@@ -25991,7 +26013,7 @@
         <v>17.46999999999997</v>
       </c>
       <c r="K503" t="n">
-        <v>23.80952380952383</v>
+        <v>58.33333333333358</v>
       </c>
       <c r="L503" t="n">
         <v>7.825999999999998</v>
@@ -26042,7 +26064,7 @@
         <v>17.46999999999997</v>
       </c>
       <c r="K504" t="n">
-        <v>17.94871794871793</v>
+        <v>50</v>
       </c>
       <c r="L504" t="n">
         <v>7.839999999999998</v>
@@ -26093,7 +26115,7 @@
         <v>17.50999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>25.5813953488373</v>
+        <v>50</v>
       </c>
       <c r="L505" t="n">
         <v>7.853999999999997</v>
@@ -26144,7 +26166,7 @@
         <v>17.53999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>39.53488372093057</v>
+        <v>50</v>
       </c>
       <c r="L506" t="n">
         <v>7.866999999999997</v>
@@ -26195,7 +26217,7 @@
         <v>17.55999999999997</v>
       </c>
       <c r="K507" t="n">
-        <v>42.22222222222271</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L507" t="n">
         <v>7.878999999999996</v>
@@ -26246,7 +26268,7 @@
         <v>17.62999999999997</v>
       </c>
       <c r="K508" t="n">
-        <v>52.94117647058836</v>
+        <v>62.96296296296303</v>
       </c>
       <c r="L508" t="n">
         <v>7.895999999999996</v>
@@ -26297,7 +26319,7 @@
         <v>17.63999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>59.18367346938837</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L509" t="n">
         <v>7.911999999999996</v>
@@ -26348,7 +26370,7 @@
         <v>17.63999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>58.33333333333377</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L510" t="n">
         <v>7.923999999999997</v>
@@ -26399,7 +26421,7 @@
         <v>17.64999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>62.50000000000037</v>
+        <v>47.82608695652214</v>
       </c>
       <c r="L511" t="n">
         <v>7.936999999999998</v>
@@ -26450,7 +26472,7 @@
         <v>17.67999999999997</v>
       </c>
       <c r="K512" t="n">
-        <v>62.50000000000019</v>
+        <v>90.47619047619139</v>
       </c>
       <c r="L512" t="n">
         <v>7.950999999999996</v>
@@ -26501,7 +26523,7 @@
         <v>17.68999999999997</v>
       </c>
       <c r="K513" t="n">
-        <v>63.26530612244928</v>
+        <v>90.90909090909186</v>
       </c>
       <c r="L513" t="n">
         <v>7.970999999999997</v>
@@ -26552,7 +26574,7 @@
         <v>17.74999999999997</v>
       </c>
       <c r="K514" t="n">
-        <v>76.9230769230774</v>
+        <v>91.66666666666717</v>
       </c>
       <c r="L514" t="n">
         <v>7.996999999999997</v>
@@ -26603,7 +26625,7 @@
         <v>17.80999999999997</v>
       </c>
       <c r="K515" t="n">
-        <v>55.55555555555613</v>
+        <v>48.14814814814915</v>
       </c>
       <c r="L515" t="n">
         <v>8.012999999999996</v>
@@ -26654,7 +26676,7 @@
         <v>17.80999999999997</v>
       </c>
       <c r="K516" t="n">
-        <v>52.0000000000005</v>
+        <v>44.00000000000075</v>
       </c>
       <c r="L516" t="n">
         <v>8.025999999999996</v>
@@ -26705,7 +26727,7 @@
         <v>17.84999999999997</v>
       </c>
       <c r="K517" t="n">
-        <v>52.94117647058872</v>
+        <v>36.36363636363717</v>
       </c>
       <c r="L517" t="n">
         <v>8.040999999999997</v>
@@ -26756,7 +26778,7 @@
         <v>17.88999999999997</v>
       </c>
       <c r="K518" t="n">
-        <v>39.62264150943457</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L518" t="n">
         <v>8.044999999999996</v>
@@ -26807,7 +26829,7 @@
         <v>17.91999999999997</v>
       </c>
       <c r="K519" t="n">
-        <v>42.85714285714354</v>
+        <v>28.57142857142921</v>
       </c>
       <c r="L519" t="n">
         <v>8.052999999999995</v>
@@ -26858,7 +26880,7 @@
         <v>17.92999999999996</v>
       </c>
       <c r="K520" t="n">
-        <v>39.62264150943467</v>
+        <v>28.57142857142921</v>
       </c>
       <c r="L520" t="n">
         <v>8.061999999999996</v>
@@ -26909,7 +26931,7 @@
         <v>17.92999999999996</v>
       </c>
       <c r="K521" t="n">
-        <v>39.62264150943467</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L521" t="n">
         <v>8.069999999999997</v>
@@ -26960,7 +26982,7 @@
         <v>17.94999999999996</v>
       </c>
       <c r="K522" t="n">
-        <v>32.07547169811377</v>
+        <v>7.692307692307796</v>
       </c>
       <c r="L522" t="n">
         <v>8.072999999999997</v>
@@ -27011,7 +27033,7 @@
         <v>17.98999999999997</v>
       </c>
       <c r="K523" t="n">
-        <v>34.61538461538506</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L523" t="n">
         <v>8.070999999999996</v>
@@ -27062,7 +27084,7 @@
         <v>18.01999999999997</v>
       </c>
       <c r="K524" t="n">
-        <v>38.18181818181878</v>
+        <v>4.761904761904721</v>
       </c>
       <c r="L524" t="n">
         <v>8.065999999999997</v>
@@ -27113,7 +27135,7 @@
         <v>18.10999999999997</v>
       </c>
       <c r="K525" t="n">
-        <v>13.33333333333347</v>
+        <v>-26.66666666666724</v>
       </c>
       <c r="L525" t="n">
         <v>8.057999999999996</v>
@@ -27164,7 +27186,7 @@
         <v>18.11999999999997</v>
       </c>
       <c r="K526" t="n">
-        <v>10.34482758620708</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L526" t="n">
         <v>8.050999999999998</v>
@@ -27215,7 +27237,7 @@
         <v>18.17999999999997</v>
       </c>
       <c r="K527" t="n">
-        <v>16.12903225806447</v>
+        <v>-3.448275862069515</v>
       </c>
       <c r="L527" t="n">
         <v>8.045999999999998</v>
@@ -27266,7 +27288,7 @@
         <v>18.18999999999997</v>
       </c>
       <c r="K528" t="n">
-        <v>7.14285714285737</v>
+        <v>-11.11111111111074</v>
       </c>
       <c r="L528" t="n">
         <v>8.045999999999998</v>
@@ -27317,7 +27339,7 @@
         <v>18.20999999999997</v>
       </c>
       <c r="K529" t="n">
-        <v>12.28070175438608</v>
+        <v>-7.142857142856871</v>
       </c>
       <c r="L529" t="n">
         <v>8.044999999999998</v>
@@ -27368,7 +27390,7 @@
         <v>18.26999999999997</v>
       </c>
       <c r="K530" t="n">
-        <v>1.587301587301565</v>
+        <v>-23.52941176470567</v>
       </c>
       <c r="L530" t="n">
         <v>8.036999999999997</v>
@@ -27419,7 +27441,7 @@
         <v>18.30999999999997</v>
       </c>
       <c r="K531" t="n">
-        <v>6.060606060606232</v>
+        <v>-5.555555555555391</v>
       </c>
       <c r="L531" t="n">
         <v>8.032999999999998</v>
@@ -27470,7 +27492,7 @@
         <v>18.31999999999997</v>
       </c>
       <c r="K532" t="n">
-        <v>0</v>
+        <v>3.030303030302949</v>
       </c>
       <c r="L532" t="n">
         <v>8.029999999999998</v>
@@ -27521,7 +27543,7 @@
         <v>18.31999999999997</v>
       </c>
       <c r="K533" t="n">
-        <v>-1.587301587301847</v>
+        <v>-6.666666666667101</v>
       </c>
       <c r="L533" t="n">
         <v>8.030999999999997</v>
@@ -27572,7 +27594,7 @@
         <v>18.34999999999997</v>
       </c>
       <c r="K534" t="n">
-        <v>-16.66666666666677</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L534" t="n">
         <v>8.025999999999998</v>
@@ -27623,7 +27645,7 @@
         <v>18.37999999999997</v>
       </c>
       <c r="K535" t="n">
-        <v>-1.754385964912565</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L535" t="n">
         <v>8.032999999999998</v>
@@ -27674,7 +27696,7 @@
         <v>18.40999999999997</v>
       </c>
       <c r="K536" t="n">
-        <v>-6.666666666666845</v>
+        <v>-13.04347826086926</v>
       </c>
       <c r="L536" t="n">
         <v>8.035999999999998</v>
@@ -27725,7 +27747,7 @@
         <v>18.41999999999997</v>
       </c>
       <c r="K537" t="n">
-        <v>-12.28070175438608</v>
+        <v>-13.04347826087024</v>
       </c>
       <c r="L537" t="n">
         <v>8.033999999999997</v>
@@ -27776,7 +27798,7 @@
         <v>18.41999999999997</v>
       </c>
       <c r="K538" t="n">
-        <v>-5.660377358490806</v>
+        <v>-23.80952380952445</v>
       </c>
       <c r="L538" t="n">
         <v>8.030999999999997</v>
@@ -27827,7 +27849,7 @@
         <v>18.41999999999997</v>
       </c>
       <c r="K539" t="n">
-        <v>-12.0000000000001</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L539" t="n">
         <v>8.025999999999996</v>
@@ -27878,7 +27900,7 @@
         <v>18.41999999999997</v>
       </c>
       <c r="K540" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272845</v>
       </c>
       <c r="L540" t="n">
         <v>8.026999999999996</v>
@@ -27929,7 +27951,7 @@
         <v>18.42999999999996</v>
       </c>
       <c r="K541" t="n">
-        <v>-16.00000000000001</v>
+        <v>-27.27272727272771</v>
       </c>
       <c r="L541" t="n">
         <v>8.022999999999996</v>
@@ -27980,7 +28002,7 @@
         <v>18.44999999999996</v>
       </c>
       <c r="K542" t="n">
-        <v>-16.00000000000001</v>
+        <v>-38.46153846153899</v>
       </c>
       <c r="L542" t="n">
         <v>8.017999999999995</v>
@@ -28031,7 +28053,7 @@
         <v>18.46999999999996</v>
       </c>
       <c r="K543" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L543" t="n">
         <v>8.010999999999996</v>
@@ -28082,7 +28104,7 @@
         <v>18.46999999999996</v>
       </c>
       <c r="K544" t="n">
-        <v>-20.00000000000036</v>
+        <v>-77.7777777777803</v>
       </c>
       <c r="L544" t="n">
         <v>8.006999999999994</v>
@@ -28133,7 +28155,7 @@
         <v>18.47999999999996</v>
       </c>
       <c r="K545" t="n">
-        <v>-2.70270270270269</v>
+        <v>-71.42857142857814</v>
       </c>
       <c r="L545" t="n">
         <v>7.998999999999995</v>
@@ -28184,7 +28206,7 @@
         <v>18.52999999999996</v>
       </c>
       <c r="K546" t="n">
-        <v>-17.07317073170768</v>
+        <v>-100.0000000000032</v>
       </c>
       <c r="L546" t="n">
         <v>7.988999999999995</v>
@@ -28235,7 +28257,7 @@
         <v>18.55999999999996</v>
       </c>
       <c r="K547" t="n">
-        <v>-26.3157894736842</v>
+        <v>-57.14285714285777</v>
       </c>
       <c r="L547" t="n">
         <v>7.980999999999995</v>
@@ -28286,7 +28308,7 @@
         <v>18.55999999999996</v>
       </c>
       <c r="K548" t="n">
-        <v>-29.72972972973031</v>
+        <v>-57.14285714285777</v>
       </c>
       <c r="L548" t="n">
         <v>7.972999999999995</v>
@@ -28337,7 +28359,7 @@
         <v>18.55999999999996</v>
       </c>
       <c r="K549" t="n">
-        <v>-37.14285714285771</v>
+        <v>-57.14285714285777</v>
       </c>
       <c r="L549" t="n">
         <v>7.964999999999995</v>
@@ -28388,7 +28410,7 @@
         <v>18.58999999999996</v>
       </c>
       <c r="K550" t="n">
-        <v>-31.25000000000021</v>
+        <v>-62.49999999999972</v>
       </c>
       <c r="L550" t="n">
         <v>7.953999999999995</v>
@@ -28439,7 +28461,7 @@
         <v>18.59999999999997</v>
       </c>
       <c r="K551" t="n">
-        <v>-51.72413793103475</v>
+        <v>-59.99999999999905</v>
       </c>
       <c r="L551" t="n">
         <v>7.942999999999995</v>
@@ -28490,7 +28512,7 @@
         <v>18.59999999999997</v>
       </c>
       <c r="K552" t="n">
-        <v>-50</v>
+        <v>-53.84615384615232</v>
       </c>
       <c r="L552" t="n">
         <v>7.933999999999996</v>
@@ -28541,7 +28563,7 @@
         <v>18.60999999999996</v>
       </c>
       <c r="K553" t="n">
-        <v>-44.82758620689689</v>
+        <v>-42.85714285714241</v>
       </c>
       <c r="L553" t="n">
         <v>7.927999999999995</v>
@@ -28592,7 +28614,7 @@
         <v>18.62999999999996</v>
       </c>
       <c r="K554" t="n">
-        <v>-42.85714285714327</v>
+        <v>-46.6666666666662</v>
       </c>
       <c r="L554" t="n">
         <v>7.919999999999996</v>
@@ -28643,7 +28665,7 @@
         <v>18.73999999999996</v>
       </c>
       <c r="K555" t="n">
-        <v>-72.22222222222274</v>
+        <v>-61.90476190476161</v>
       </c>
       <c r="L555" t="n">
         <v>7.901999999999997</v>
@@ -28694,7 +28716,7 @@
         <v>18.73999999999996</v>
       </c>
       <c r="K556" t="n">
-        <v>-69.69696969697067</v>
+        <v>-88.88888888888911</v>
       </c>
       <c r="L556" t="n">
         <v>7.888999999999998</v>
@@ -28745,7 +28767,7 @@
         <v>18.74999999999996</v>
       </c>
       <c r="K557" t="n">
-        <v>-69.69696969696992</v>
+        <v>-78.94736842105229</v>
       </c>
       <c r="L557" t="n">
         <v>7.873999999999998</v>
@@ -28796,7 +28818,7 @@
         <v>18.81999999999996</v>
       </c>
       <c r="K558" t="n">
-        <v>-75.00000000000023</v>
+        <v>-84.61538461538434</v>
       </c>
       <c r="L558" t="n">
         <v>7.851999999999999</v>
@@ -28847,7 +28869,7 @@
         <v>18.88999999999997</v>
       </c>
       <c r="K559" t="n">
-        <v>-48.93617021276598</v>
+        <v>-39.99999999999994</v>
       </c>
       <c r="L559" t="n">
         <v>7.836999999999999</v>
@@ -28898,7 +28920,7 @@
         <v>18.91999999999997</v>
       </c>
       <c r="K560" t="n">
-        <v>-51.99999999999996</v>
+        <v>-43.75000000000014</v>
       </c>
       <c r="L560" t="n">
         <v>7.822</v>
@@ -28949,7 +28971,7 @@
         <v>18.93999999999997</v>
       </c>
       <c r="K561" t="n">
-        <v>-45.09803921568605</v>
+        <v>-35.29411764705887</v>
       </c>
       <c r="L561" t="n">
         <v>7.81</v>
@@ -29000,7 +29022,7 @@
         <v>19.01999999999997</v>
       </c>
       <c r="K562" t="n">
-        <v>-22.80701754385948</v>
+        <v>-12.19512195121936</v>
       </c>
       <c r="L562" t="n">
         <v>7.805999999999999</v>
@@ -29051,7 +29073,7 @@
         <v>19.01999999999997</v>
       </c>
       <c r="K563" t="n">
-        <v>-19.99999999999974</v>
+        <v>-7.692307692307447</v>
       </c>
       <c r="L563" t="n">
         <v>7.800999999999999</v>
@@ -29102,7 +29124,7 @@
         <v>19.01999999999997</v>
       </c>
       <c r="K564" t="n">
-        <v>-19.99999999999974</v>
+        <v>28.57142857142812</v>
       </c>
       <c r="L564" t="n">
         <v>7.797999999999999</v>
@@ -29153,7 +29175,7 @@
         <v>19.10999999999997</v>
       </c>
       <c r="K565" t="n">
-        <v>-30.15873015872993</v>
+        <v>-2.702702702702852</v>
       </c>
       <c r="L565" t="n">
         <v>7.796999999999999</v>
@@ -29204,7 +29226,7 @@
         <v>19.10999999999997</v>
       </c>
       <c r="K566" t="n">
-        <v>-24.13793103448263</v>
+        <v>-5.555555555555638</v>
       </c>
       <c r="L566" t="n">
         <v>7.795999999999998</v>
@@ -29255,7 +29277,7 @@
         <v>19.12999999999997</v>
       </c>
       <c r="K567" t="n">
-        <v>-26.3157894736841</v>
+        <v>22.58064516129025</v>
       </c>
       <c r="L567" t="n">
         <v>7.795999999999998</v>
@@ -29306,7 +29328,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K568" t="n">
-        <v>-12.49999999999993</v>
+        <v>22.58064516129025</v>
       </c>
       <c r="L568" t="n">
         <v>7.809999999999998</v>
@@ -29357,7 +29379,7 @@
         <v>19.20999999999997</v>
       </c>
       <c r="K569" t="n">
-        <v>-10.76923076923078</v>
+        <v>37.93103448275884</v>
       </c>
       <c r="L569" t="n">
         <v>7.817999999999998</v>
@@ -29408,7 +29430,7 @@
         <v>19.27999999999997</v>
       </c>
       <c r="K570" t="n">
-        <v>4.34782608695655</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L570" t="n">
         <v>7.835999999999997</v>
@@ -29459,7 +29481,7 @@
         <v>19.34999999999997</v>
       </c>
       <c r="K571" t="n">
-        <v>-4.000000000000034</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L571" t="n">
         <v>7.844999999999997</v>
@@ -29510,7 +29532,7 @@
         <v>19.38999999999997</v>
       </c>
       <c r="K572" t="n">
-        <v>1.265822784810101</v>
+        <v>13.51351351351356</v>
       </c>
       <c r="L572" t="n">
         <v>7.849999999999997</v>
@@ -29561,7 +29583,7 @@
         <v>19.38999999999997</v>
       </c>
       <c r="K573" t="n">
-        <v>0</v>
+        <v>13.51351351351356</v>
       </c>
       <c r="L573" t="n">
         <v>7.854999999999997</v>
@@ -29612,7 +29634,7 @@
         <v>19.38999999999997</v>
       </c>
       <c r="K574" t="n">
-        <v>2.631578947368476</v>
+        <v>50.00000000000063</v>
       </c>
       <c r="L574" t="n">
         <v>7.859999999999997</v>
@@ -29663,7 +29685,7 @@
         <v>19.38999999999997</v>
       </c>
       <c r="K575" t="n">
-        <v>19.99999999999992</v>
+        <v>50.00000000000063</v>
       </c>
       <c r="L575" t="n">
         <v>7.873999999999997</v>
@@ -29714,7 +29736,7 @@
         <v>19.38999999999997</v>
       </c>
       <c r="K576" t="n">
-        <v>19.99999999999992</v>
+        <v>46.15384615384655</v>
       </c>
       <c r="L576" t="n">
         <v>7.887999999999996</v>
@@ -29765,7 +29787,7 @@
         <v>19.38999999999997</v>
       </c>
       <c r="K577" t="n">
-        <v>18.75</v>
+        <v>26.31578947368443</v>
       </c>
       <c r="L577" t="n">
         <v>7.899999999999996</v>
@@ -29816,7 +29838,7 @@
         <v>19.41999999999997</v>
       </c>
       <c r="K578" t="n">
-        <v>26.66666666666663</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L578" t="n">
         <v>7.901999999999996</v>
@@ -29867,7 +29889,7 @@
         <v>19.41999999999997</v>
       </c>
       <c r="K579" t="n">
-        <v>16.98113207547163</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L579" t="n">
         <v>7.902999999999994</v>
@@ -29918,7 +29940,7 @@
         <v>19.41999999999997</v>
       </c>
       <c r="K580" t="n">
-        <v>24.00000000000002</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L580" t="n">
         <v>7.896999999999994</v>
@@ -29969,7 +29991,7 @@
         <v>19.42999999999996</v>
       </c>
       <c r="K581" t="n">
-        <v>18.36734693877554</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L581" t="n">
         <v>7.896999999999994</v>
@@ -30020,7 +30042,7 @@
         <v>19.46999999999996</v>
       </c>
       <c r="K582" t="n">
-        <v>-6.666666666666784</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L582" t="n">
         <v>7.888999999999994</v>
@@ -30071,7 +30093,7 @@
         <v>19.49999999999996</v>
       </c>
       <c r="K583" t="n">
-        <v>-12.50000000000019</v>
+        <v>-100.0000000000008</v>
       </c>
       <c r="L583" t="n">
         <v>7.877999999999995</v>
@@ -30122,7 +30144,7 @@
         <v>19.52999999999997</v>
       </c>
       <c r="K584" t="n">
-        <v>-17.64705882352963</v>
+        <v>-100</v>
       </c>
       <c r="L584" t="n">
         <v>7.863999999999995</v>
@@ -30173,7 +30195,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K585" t="n">
-        <v>14.28571428571439</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L585" t="n">
         <v>7.856999999999995</v>
@@ -30224,7 +30246,7 @@
         <v>19.60999999999996</v>
       </c>
       <c r="K586" t="n">
-        <v>12.00000000000018</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L586" t="n">
         <v>7.848999999999995</v>
@@ -30275,7 +30297,7 @@
         <v>19.61999999999996</v>
       </c>
       <c r="K587" t="n">
-        <v>6.122448979591951</v>
+        <v>-30.00000000000044</v>
       </c>
       <c r="L587" t="n">
         <v>7.839999999999995</v>
@@ -30326,7 +30348,7 @@
         <v>19.64999999999996</v>
       </c>
       <c r="K588" t="n">
-        <v>-2.222222222222393</v>
+        <v>-13.04347826086985</v>
       </c>
       <c r="L588" t="n">
         <v>7.836999999999994</v>
@@ -30377,7 +30399,7 @@
         <v>19.65999999999996</v>
       </c>
       <c r="K589" t="n">
-        <v>-6.666666666666784</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L589" t="n">
         <v>7.832999999999996</v>
@@ -30428,7 +30450,7 @@
         <v>19.71999999999996</v>
       </c>
       <c r="K590" t="n">
-        <v>-36.36363636363688</v>
+        <v>-31.03448275862111</v>
       </c>
       <c r="L590" t="n">
         <v>7.822999999999996</v>
@@ -30479,7 +30501,7 @@
         <v>19.80999999999996</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>11.76470588235308</v>
       </c>
       <c r="L591" t="n">
         <v>7.822999999999996</v>
@@ -30530,7 +30552,7 @@
         <v>19.82999999999996</v>
       </c>
       <c r="K592" t="n">
-        <v>-4.545454545454711</v>
+        <v>27.27272727272766</v>
       </c>
       <c r="L592" t="n">
         <v>7.828999999999996</v>
@@ -30581,7 +30603,7 @@
         <v>19.84999999999996</v>
       </c>
       <c r="K593" t="n">
-        <v>0</v>
+        <v>43.75000000000111</v>
       </c>
       <c r="L593" t="n">
         <v>7.839999999999996</v>
@@ -30632,7 +30654,7 @@
         <v>19.93999999999996</v>
       </c>
       <c r="K594" t="n">
-        <v>-16.36363636363653</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L594" t="n">
         <v>7.844999999999997</v>
@@ -30683,7 +30705,7 @@
         <v>20.00999999999996</v>
       </c>
       <c r="K595" t="n">
-        <v>-3.225806451613009</v>
+        <v>15.00000000000009</v>
       </c>
       <c r="L595" t="n">
         <v>7.849999999999997</v>
@@ -30734,7 +30756,7 @@
         <v>20.01999999999996</v>
       </c>
       <c r="K596" t="n">
-        <v>-4.761904761904836</v>
+        <v>14.99999999999996</v>
       </c>
       <c r="L596" t="n">
         <v>7.854999999999997</v>
@@ -30785,7 +30807,7 @@
         <v>20.09999999999996</v>
       </c>
       <c r="K597" t="n">
-        <v>-15.49295774647906</v>
+        <v>-11.11111111111118</v>
       </c>
       <c r="L597" t="n">
         <v>7.852999999999997</v>
@@ -30836,7 +30858,7 @@
         <v>20.18999999999996</v>
       </c>
       <c r="K598" t="n">
-        <v>1.298701298701284</v>
+        <v>9.433962264150953</v>
       </c>
       <c r="L598" t="n">
         <v>7.856999999999998</v>
@@ -30887,7 +30909,7 @@
         <v>20.20999999999996</v>
       </c>
       <c r="K599" t="n">
-        <v>-1.265822784810112</v>
+        <v>18.36734693877554</v>
       </c>
       <c r="L599" t="n">
         <v>7.859999999999998</v>
@@ -30938,7 +30960,7 @@
         <v>20.20999999999996</v>
       </c>
       <c r="K600" t="n">
-        <v>-1.265822784810112</v>
+        <v>0</v>
       </c>
       <c r="L600" t="n">
         <v>7.868999999999998</v>
@@ -30989,7 +31011,7 @@
         <v>20.21999999999996</v>
       </c>
       <c r="K601" t="n">
-        <v>-1.265822784810112</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L601" t="n">
         <v>7.867999999999998</v>
@@ -31040,7 +31062,7 @@
         <v>20.21999999999996</v>
       </c>
       <c r="K602" t="n">
-        <v>4.000000000000071</v>
+        <v>-13.51351351351356</v>
       </c>
       <c r="L602" t="n">
         <v>7.864999999999998</v>
@@ -31091,7 +31113,7 @@
         <v>20.22999999999995</v>
       </c>
       <c r="K603" t="n">
-        <v>9.589041095890584</v>
+        <v>17.24137931034503</v>
       </c>
       <c r="L603" t="n">
         <v>7.860999999999999</v>
@@ -31142,7 +31164,7 @@
         <v>20.26999999999995</v>
       </c>
       <c r="K604" t="n">
-        <v>8.10810810810831</v>
+        <v>-23.07692307692342</v>
       </c>
       <c r="L604" t="n">
         <v>7.861999999999997</v>
@@ -31193,7 +31215,7 @@
         <v>20.27999999999995</v>
       </c>
       <c r="K605" t="n">
-        <v>-2.941176470588235</v>
+        <v>-23.07692307692373</v>
       </c>
       <c r="L605" t="n">
         <v>7.854999999999997</v>
@@ -31244,7 +31266,7 @@
         <v>20.31999999999995</v>
       </c>
       <c r="K606" t="n">
-        <v>4.225352112676171</v>
+        <v>27.27272727272852</v>
       </c>
       <c r="L606" t="n">
         <v>7.852999999999997</v>
@@ -31295,7 +31317,7 @@
         <v>20.34999999999995</v>
       </c>
       <c r="K607" t="n">
-        <v>1.36986301369862</v>
+        <v>-37.50000000000139</v>
       </c>
       <c r="L607" t="n">
         <v>7.855999999999997</v>
@@ -31346,7 +31368,7 @@
         <v>20.34999999999995</v>
       </c>
       <c r="K608" t="n">
-        <v>-2.857142857142843</v>
+        <v>-28.57142857142993</v>
       </c>
       <c r="L608" t="n">
         <v>7.849999999999997</v>
@@ -31397,7 +31419,7 @@
         <v>20.36999999999995</v>
       </c>
       <c r="K609" t="n">
-        <v>1.408450704225342</v>
+        <v>-12.50000000000083</v>
       </c>
       <c r="L609" t="n">
         <v>7.847999999999996</v>
@@ -31448,7 +31470,7 @@
         <v>20.38999999999995</v>
       </c>
       <c r="K610" t="n">
-        <v>7.462686567164252</v>
+        <v>-17.64705882353012</v>
       </c>
       <c r="L610" t="n">
         <v>7.843999999999996</v>
@@ -31499,7 +31521,7 @@
         <v>20.38999999999995</v>
       </c>
       <c r="K611" t="n">
-        <v>-6.896551724138042</v>
+        <v>-17.64705882353012</v>
       </c>
       <c r="L611" t="n">
         <v>7.840999999999996</v>
@@ -31550,7 +31572,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K612" t="n">
-        <v>-12.28070175438608</v>
+        <v>-29.41176470588318</v>
       </c>
       <c r="L612" t="n">
         <v>7.836999999999996</v>
@@ -31601,7 +31623,7 @@
         <v>20.41999999999995</v>
       </c>
       <c r="K613" t="n">
-        <v>-19.29824561403549</v>
+        <v>-20.00000000000083</v>
       </c>
       <c r="L613" t="n">
         <v>7.829999999999996</v>
@@ -31652,7 +31674,7 @@
         <v>20.43999999999995</v>
       </c>
       <c r="K614" t="n">
-        <v>-8.000000000000178</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L614" t="n">
         <v>7.824999999999996</v>
@@ -31703,7 +31725,7 @@
         <v>20.49999999999995</v>
       </c>
       <c r="K615" t="n">
-        <v>-34.69387755102101</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L615" t="n">
         <v>7.814999999999995</v>
@@ -31754,7 +31776,7 @@
         <v>20.58999999999995</v>
       </c>
       <c r="K616" t="n">
-        <v>-12.28070175438624</v>
+        <v>-8.333333333333579</v>
       </c>
       <c r="L616" t="n">
         <v>7.809999999999995</v>
@@ -31805,7 +31827,7 @@
         <v>20.64999999999995</v>
       </c>
       <c r="K617" t="n">
-        <v>-9.090909090909223</v>
+        <v>-26.66666666666694</v>
       </c>
       <c r="L617" t="n">
         <v>7.801999999999995</v>
@@ -31856,7 +31878,7 @@
         <v>20.70999999999995</v>
       </c>
       <c r="K618" t="n">
-        <v>-15.38461538461573</v>
+        <v>-11.76470588235308</v>
       </c>
       <c r="L618" t="n">
         <v>7.799999999999995</v>
@@ -31907,7 +31929,7 @@
         <v>20.79999999999995</v>
       </c>
       <c r="K619" t="n">
-        <v>-25.42372881355985</v>
+        <v>-26.82926829268323</v>
       </c>
       <c r="L619" t="n">
         <v>7.786999999999996</v>
@@ -31958,7 +31980,7 @@
         <v>20.79999999999995</v>
       </c>
       <c r="K620" t="n">
-        <v>-25.42372881355985</v>
+        <v>-26.82926829268323</v>
       </c>
       <c r="L620" t="n">
         <v>7.775999999999996</v>
@@ -32009,7 +32031,7 @@
         <v>20.83999999999995</v>
       </c>
       <c r="K621" t="n">
-        <v>-16.12903225806485</v>
+        <v>-13.63636363636382</v>
       </c>
       <c r="L621" t="n">
         <v>7.768999999999997</v>
@@ -32060,7 +32082,7 @@
         <v>20.91999999999994</v>
       </c>
       <c r="K622" t="n">
-        <v>-25.71428571428622</v>
+        <v>-24.00000000000019</v>
       </c>
       <c r="L622" t="n">
         <v>7.754999999999998</v>
@@ -32111,7 +32133,7 @@
         <v>20.92999999999994</v>
       </c>
       <c r="K623" t="n">
-        <v>-28.57142857142906</v>
+        <v>-22.44897959183703</v>
       </c>
       <c r="L623" t="n">
         <v>7.741999999999999</v>
@@ -32162,7 +32184,7 @@
         <v>21.02999999999994</v>
       </c>
       <c r="K624" t="n">
-        <v>-7.894736842105424</v>
+        <v>9.433962264151017</v>
       </c>
       <c r="L624" t="n">
         <v>7.740999999999998</v>
@@ -32213,7 +32235,7 @@
         <v>21.03999999999994</v>
       </c>
       <c r="K625" t="n">
-        <v>-7.894736842105424</v>
+        <v>-11.11111111111127</v>
       </c>
       <c r="L625" t="n">
         <v>7.744999999999999</v>
@@ -32264,7 +32286,7 @@
         <v>21.16999999999994</v>
       </c>
       <c r="K626" t="n">
-        <v>-27.05882352941211</v>
+        <v>-23.07692307692343</v>
       </c>
       <c r="L626" t="n">
         <v>7.726999999999999</v>
@@ -32315,7 +32337,7 @@
         <v>21.25999999999994</v>
       </c>
       <c r="K627" t="n">
-        <v>-12.08791208791226</v>
+        <v>-16.36363636363653</v>
       </c>
       <c r="L627" t="n">
         <v>7.723999999999998</v>
@@ -32366,7 +32388,7 @@
         <v>21.32999999999994</v>
       </c>
       <c r="K628" t="n">
-        <v>-18.36734693877567</v>
+        <v>-13.20754716981136</v>
       </c>
       <c r="L628" t="n">
         <v>7.707999999999998</v>
@@ -32417,7 +32439,7 @@
         <v>21.37999999999994</v>
       </c>
       <c r="K629" t="n">
-        <v>-14.85148514851493</v>
+        <v>-3.448275862068923</v>
       </c>
       <c r="L629" t="n">
         <v>7.705999999999999</v>
@@ -32468,7 +32490,7 @@
         <v>21.38999999999994</v>
       </c>
       <c r="K630" t="n">
-        <v>-14.00000000000007</v>
+        <v>-12.72727272727268</v>
       </c>
       <c r="L630" t="n">
         <v>7.702999999999999</v>
@@ -32519,7 +32541,7 @@
         <v>21.60999999999994</v>
       </c>
       <c r="K631" t="n">
-        <v>6.557377049180378</v>
+        <v>33.33333333333351</v>
       </c>
       <c r="L631" t="n">
         <v>7.717999999999998</v>
@@ -32570,7 +32592,7 @@
         <v>21.63999999999994</v>
       </c>
       <c r="K632" t="n">
-        <v>4.838709677419343</v>
+        <v>29.57746478873236</v>
       </c>
       <c r="L632" t="n">
         <v>7.737999999999997</v>
@@ -32621,7 +32643,7 @@
         <v>21.66999999999994</v>
       </c>
       <c r="K633" t="n">
-        <v>3.999999999999997</v>
+        <v>12.5</v>
       </c>
       <c r="L633" t="n">
         <v>7.755999999999996</v>
@@ -32672,7 +32694,7 @@
         <v>21.75999999999994</v>
       </c>
       <c r="K634" t="n">
-        <v>-1.515151515151554</v>
+        <v>0</v>
       </c>
       <c r="L634" t="n">
         <v>7.754999999999997</v>
@@ -32723,7 +32745,7 @@
         <v>21.82999999999995</v>
       </c>
       <c r="K635" t="n">
-        <v>8.270676691729379</v>
+        <v>30.30303030303016</v>
       </c>
       <c r="L635" t="n">
         <v>7.761999999999996</v>
@@ -32774,7 +32796,7 @@
         <v>21.82999999999995</v>
       </c>
       <c r="K636" t="n">
-        <v>1.612903225806496</v>
+        <v>19.29824561403501</v>
       </c>
       <c r="L636" t="n">
         <v>7.781999999999996</v>
@@ -32825,7 +32847,7 @@
         <v>21.83999999999995</v>
       </c>
       <c r="K637" t="n">
-        <v>5.882352941176506</v>
+        <v>33.33333333333299</v>
       </c>
       <c r="L637" t="n">
         <v>7.791999999999996</v>
@@ -32876,7 +32898,7 @@
         <v>21.83999999999995</v>
       </c>
       <c r="K638" t="n">
-        <v>0.8849557522124499</v>
+        <v>26.0869565217389</v>
       </c>
       <c r="L638" t="n">
         <v>7.808999999999995</v>
@@ -32927,7 +32949,7 @@
         <v>21.83999999999995</v>
       </c>
       <c r="K639" t="n">
-        <v>9.615384615384674</v>
+        <v>28.88888888888868</v>
       </c>
       <c r="L639" t="n">
         <v>7.820999999999994</v>
@@ -32978,7 +33000,7 @@
         <v>21.83999999999995</v>
       </c>
       <c r="K640" t="n">
-        <v>9.615384615384674</v>
+        <v>-39.13043478260796</v>
       </c>
       <c r="L640" t="n">
         <v>7.833999999999994</v>
@@ -33029,7 +33051,7 @@
         <v>21.87999999999995</v>
       </c>
       <c r="K641" t="n">
-        <v>9.615384615384674</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L641" t="n">
         <v>7.828999999999995</v>
@@ -33080,7 +33102,7 @@
         <v>21.88999999999995</v>
       </c>
       <c r="K642" t="n">
-        <v>17.52577319587624</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>7.825999999999995</v>
@@ -33131,7 +33153,7 @@
         <v>21.94999999999995</v>
       </c>
       <c r="K643" t="n">
-        <v>11.76470588235292</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L643" t="n">
         <v>7.819999999999996</v>
@@ -33182,7 +33204,7 @@
         <v>21.95999999999994</v>
       </c>
       <c r="K644" t="n">
-        <v>3.225806451612931</v>
+        <v>-23.07692307692345</v>
       </c>
       <c r="L644" t="n">
         <v>7.823999999999995</v>
@@ -33233,7 +33255,7 @@
         <v>21.96999999999994</v>
       </c>
       <c r="K645" t="n">
-        <v>3.225806451612931</v>
+        <v>-28.57142857142921</v>
       </c>
       <c r="L645" t="n">
         <v>7.819999999999996</v>
@@ -33284,7 +33306,7 @@
         <v>21.99999999999994</v>
       </c>
       <c r="K646" t="n">
-        <v>22.89156626506024</v>
+        <v>0</v>
       </c>
       <c r="L646" t="n">
         <v>7.818999999999996</v>
@@ -33335,7 +33357,7 @@
         <v>21.99999999999994</v>
       </c>
       <c r="K647" t="n">
-        <v>13.51351351351355</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>7.818999999999997</v>
@@ -33386,7 +33408,7 @@
         <v>21.99999999999994</v>
       </c>
       <c r="K648" t="n">
-        <v>25.37313432835813</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>7.818999999999997</v>
@@ -33437,7 +33459,7 @@
         <v>21.99999999999994</v>
       </c>
       <c r="K649" t="n">
-        <v>19.35483870967741</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>7.818999999999997</v>
@@ -33488,7 +33510,7 @@
         <v>22.01999999999994</v>
       </c>
       <c r="K650" t="n">
-        <v>17.4603174603174</v>
+        <v>-42.85714285714413</v>
       </c>
       <c r="L650" t="n">
         <v>7.816999999999996</v>
@@ -33539,7 +33561,7 @@
         <v>22.01999999999994</v>
       </c>
       <c r="K651" t="n">
-        <v>-26.829268292683</v>
+        <v>-38.46153846153967</v>
       </c>
       <c r="L651" t="n">
         <v>7.810999999999996</v>
@@ -33590,7 +33612,7 @@
         <v>22.01999999999994</v>
       </c>
       <c r="K652" t="n">
-        <v>-21.05263157894744</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L652" t="n">
         <v>7.805999999999996</v>
@@ -33641,7 +33663,7 @@
         <v>22.01999999999994</v>
       </c>
       <c r="K653" t="n">
-        <v>-14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L653" t="n">
         <v>7.806999999999995</v>
@@ -33692,7 +33714,7 @@
         <v>22.01999999999994</v>
       </c>
       <c r="K654" t="n">
-        <v>15.38461538461552</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L654" t="n">
         <v>7.806999999999995</v>
@@ -33743,7 +33765,7 @@
         <v>22.05999999999994</v>
       </c>
       <c r="K655" t="n">
-        <v>4.347826086956489</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L655" t="n">
         <v>7.811999999999995</v>
@@ -33794,7 +33816,7 @@
         <v>22.09999999999994</v>
       </c>
       <c r="K656" t="n">
-        <v>-11.11111111111137</v>
+        <v>-20.00000000000089</v>
       </c>
       <c r="L656" t="n">
         <v>7.809999999999993</v>
@@ -33896,7 +33918,7 @@
         <v>22.15999999999994</v>
       </c>
       <c r="K658" t="n">
-        <v>-12.50000000000028</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L658" t="n">
         <v>7.805999999999995</v>
@@ -33947,7 +33969,7 @@
         <v>22.16999999999994</v>
       </c>
       <c r="K659" t="n">
-        <v>-15.15151515151561</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L659" t="n">
         <v>7.800999999999993</v>
@@ -33998,7 +34020,7 @@
         <v>22.16999999999994</v>
       </c>
       <c r="K660" t="n">
-        <v>-15.15151515151561</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L660" t="n">
         <v>7.797999999999993</v>
@@ -34049,7 +34071,7 @@
         <v>22.17999999999994</v>
       </c>
       <c r="K661" t="n">
-        <v>-33.33333333333383</v>
+        <v>-25</v>
       </c>
       <c r="L661" t="n">
         <v>7.793999999999994</v>
@@ -34100,7 +34122,7 @@
         <v>22.17999999999994</v>
       </c>
       <c r="K662" t="n">
-        <v>-31.03448275862111</v>
+        <v>-25</v>
       </c>
       <c r="L662" t="n">
         <v>7.789999999999995</v>
@@ -34151,7 +34173,7 @@
         <v>22.19999999999994</v>
       </c>
       <c r="K663" t="n">
-        <v>-20.00000000000021</v>
+        <v>-33.33333333333317</v>
       </c>
       <c r="L663" t="n">
         <v>7.783999999999994</v>
@@ -34202,7 +34224,7 @@
         <v>22.19999999999994</v>
       </c>
       <c r="K664" t="n">
-        <v>-25</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L664" t="n">
         <v>7.777999999999994</v>
@@ -34253,7 +34275,7 @@
         <v>22.19999999999994</v>
       </c>
       <c r="K665" t="n">
-        <v>-21.73913043478249</v>
+        <v>-59.99999999999876</v>
       </c>
       <c r="L665" t="n">
         <v>7.767999999999994</v>
@@ -34304,7 +34326,7 @@
         <v>22.20999999999994</v>
       </c>
       <c r="K666" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777514</v>
       </c>
       <c r="L666" t="n">
         <v>7.762999999999994</v>
@@ -34355,7 +34377,7 @@
         <v>22.20999999999994</v>
       </c>
       <c r="K667" t="n">
-        <v>-33.33333333333333</v>
+        <v>-59.99999999999538</v>
       </c>
       <c r="L667" t="n">
         <v>7.755999999999995</v>
@@ -34406,7 +34428,7 @@
         <v>22.24999999999994</v>
       </c>
       <c r="K668" t="n">
-        <v>-44.00000000000013</v>
+        <v>-74.99999999999778</v>
       </c>
       <c r="L668" t="n">
         <v>7.748999999999993</v>
@@ -34457,7 +34479,7 @@
         <v>22.27999999999994</v>
       </c>
       <c r="K669" t="n">
-        <v>-50</v>
+        <v>-81.81818181817947</v>
       </c>
       <c r="L669" t="n">
         <v>7.739999999999993</v>
@@ -34508,7 +34530,7 @@
         <v>22.28999999999995</v>
       </c>
       <c r="K670" t="n">
-        <v>-40.74074074074006</v>
+        <v>-63.63636363636136</v>
       </c>
       <c r="L670" t="n">
         <v>7.731999999999994</v>
@@ -34559,7 +34581,7 @@
         <v>22.39999999999995</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>18.181818181818</v>
       </c>
       <c r="L671" t="n">
         <v>7.735999999999993</v>
@@ -34610,7 +34632,7 @@
         <v>22.40999999999995</v>
       </c>
       <c r="K672" t="n">
-        <v>2.564102564102483</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L672" t="n">
         <v>7.740999999999993</v>
@@ -34661,7 +34683,7 @@
         <v>22.44999999999995</v>
       </c>
       <c r="K673" t="n">
-        <v>-6.976744186046517</v>
+        <v>11.99999999999957</v>
       </c>
       <c r="L673" t="n">
         <v>7.743999999999993</v>
@@ -34712,7 +34734,7 @@
         <v>22.44999999999995</v>
       </c>
       <c r="K674" t="n">
-        <v>-6.976744186046517</v>
+        <v>11.99999999999957</v>
       </c>
       <c r="L674" t="n">
         <v>7.746999999999993</v>
@@ -34763,7 +34785,7 @@
         <v>22.50999999999994</v>
       </c>
       <c r="K675" t="n">
-        <v>-28.88888888888868</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L675" t="n">
         <v>7.743999999999993</v>
@@ -34814,7 +34836,7 @@
         <v>22.55999999999995</v>
       </c>
       <c r="K676" t="n">
-        <v>-8.695652173912968</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L676" t="n">
         <v>7.744999999999993</v>
@@ -34865,7 +34887,7 @@
         <v>22.56999999999994</v>
       </c>
       <c r="K677" t="n">
-        <v>-11.1111111111112</v>
+        <v>18.74999999999986</v>
       </c>
       <c r="L677" t="n">
         <v>7.746999999999993</v>
@@ -34916,7 +34938,7 @@
         <v>22.58999999999994</v>
       </c>
       <c r="K678" t="n">
-        <v>2.32558139534877</v>
+        <v>35.48387096774218</v>
       </c>
       <c r="L678" t="n">
         <v>7.754999999999994</v>
@@ -34967,7 +34989,7 @@
         <v>22.60999999999994</v>
       </c>
       <c r="K679" t="n">
-        <v>9.090909090909074</v>
+        <v>37.50000000000014</v>
       </c>
       <c r="L679" t="n">
         <v>7.767999999999995</v>
@@ -35018,7 +35040,7 @@
         <v>22.63999999999994</v>
       </c>
       <c r="K680" t="n">
-        <v>2.127659574468218</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L680" t="n">
         <v>7.776999999999996</v>
@@ -35069,7 +35091,7 @@
         <v>22.63999999999994</v>
       </c>
       <c r="K681" t="n">
-        <v>4.347826086956614</v>
+        <v>-13.04347826086947</v>
       </c>
       <c r="L681" t="n">
         <v>7.774999999999996</v>
@@ -35120,7 +35142,7 @@
         <v>22.69999999999995</v>
       </c>
       <c r="K682" t="n">
-        <v>-7.692307692307653</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L682" t="n">
         <v>7.765999999999996</v>
@@ -35171,7 +35193,7 @@
         <v>22.75999999999995</v>
       </c>
       <c r="K683" t="n">
-        <v>7.142857142857075</v>
+        <v>3.225806451613098</v>
       </c>
       <c r="L683" t="n">
         <v>7.766999999999996</v>
@@ -35222,7 +35244,7 @@
         <v>22.76999999999995</v>
       </c>
       <c r="K684" t="n">
-        <v>8.771929824561314</v>
+        <v>30.76923076923061</v>
       </c>
       <c r="L684" t="n">
         <v>7.768999999999997</v>
@@ -35273,7 +35295,7 @@
         <v>22.77999999999994</v>
       </c>
       <c r="K685" t="n">
-        <v>6.896551724137916</v>
+        <v>9.090909090909348</v>
       </c>
       <c r="L685" t="n">
         <v>7.775999999999998</v>
@@ -35324,7 +35346,7 @@
         <v>22.78999999999995</v>
       </c>
       <c r="K686" t="n">
-        <v>3.448275862068881</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>7.776999999999997</v>
@@ -35375,7 +35397,7 @@
         <v>22.79999999999995</v>
       </c>
       <c r="K687" t="n">
-        <v>5.084745762711878</v>
+        <v>-4.76190476190456</v>
       </c>
       <c r="L687" t="n">
         <v>7.777999999999997</v>
@@ -35426,7 +35448,7 @@
         <v>22.82999999999995</v>
       </c>
       <c r="K688" t="n">
-        <v>6.896551724137873</v>
+        <v>-27.27272727272635</v>
       </c>
       <c r="L688" t="n">
         <v>7.773999999999996</v>
@@ -35477,7 +35499,7 @@
         <v>22.85999999999995</v>
       </c>
       <c r="K689" t="n">
-        <v>17.24137931034476</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>7.770999999999996</v>
@@ -35528,7 +35550,7 @@
         <v>22.88999999999995</v>
       </c>
       <c r="K690" t="n">
-        <v>9.999999999999853</v>
+        <v>-11.99999999999976</v>
       </c>
       <c r="L690" t="n">
         <v>7.767999999999996</v>
@@ -35585,7 +35607,7 @@
         <v>22.91999999999995</v>
       </c>
       <c r="K691" t="n">
-        <v>-3.846153846153714</v>
+        <v>27.27272727272676</v>
       </c>
       <c r="L691" t="n">
         <v>7.767999999999996</v>
@@ -35644,7 +35666,7 @@
         <v>22.92999999999995</v>
       </c>
       <c r="K692" t="n">
-        <v>-3.846153846153741</v>
+        <v>5.882352941176286</v>
       </c>
       <c r="L692" t="n">
         <v>7.774999999999997</v>
@@ -35707,7 +35729,7 @@
         <v>22.97999999999995</v>
       </c>
       <c r="K693" t="n">
-        <v>13.20754716981126</v>
+        <v>23.80952380952322</v>
       </c>
       <c r="L693" t="n">
         <v>7.780999999999997</v>
@@ -35770,7 +35792,7 @@
         <v>23.03999999999995</v>
       </c>
       <c r="K694" t="n">
-        <v>1.694915254237393</v>
+        <v>0</v>
       </c>
       <c r="L694" t="n">
         <v>7.779999999999997</v>
@@ -35833,7 +35855,7 @@
         <v>23.04999999999995</v>
       </c>
       <c r="K695" t="n">
-        <v>14.81481481481475</v>
+        <v>7.692307692307823</v>
       </c>
       <c r="L695" t="n">
         <v>7.780999999999997</v>
@@ -35896,7 +35918,7 @@
         <v>23.11999999999995</v>
       </c>
       <c r="K696" t="n">
-        <v>17.85714285714288</v>
+        <v>25</v>
       </c>
       <c r="L696" t="n">
         <v>7.789999999999997</v>
@@ -35959,7 +35981,7 @@
         <v>23.16999999999995</v>
       </c>
       <c r="K697" t="n">
-        <v>23.33333333333323</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L697" t="n">
         <v>7.802999999999997</v>
@@ -36022,7 +36044,7 @@
         <v>23.20999999999995</v>
       </c>
       <c r="K698" t="n">
-        <v>25.80645161290306</v>
+        <v>48.57142857142885</v>
       </c>
       <c r="L698" t="n">
         <v>7.822999999999998</v>
@@ -36085,7 +36107,7 @@
         <v>23.20999999999995</v>
       </c>
       <c r="K699" t="n">
-        <v>23.33333333333323</v>
+        <v>62.5000000000007</v>
       </c>
       <c r="L699" t="n">
         <v>7.839999999999998</v>
@@ -36146,7 +36168,7 @@
         <v>23.23999999999995</v>
       </c>
       <c r="K700" t="n">
-        <v>23.33333333333309</v>
+        <v>43.75000000000035</v>
       </c>
       <c r="L700" t="n">
         <v>7.856999999999998</v>
@@ -36209,7 +36231,7 @@
         <v>23.28999999999995</v>
       </c>
       <c r="K701" t="n">
-        <v>13.8461538461537</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L701" t="n">
         <v>7.865999999999998</v>
@@ -36266,7 +36288,7 @@
         <v>23.28999999999995</v>
       </c>
       <c r="K702" t="n">
-        <v>25.42372881355924</v>
+        <v>9.677419354838831</v>
       </c>
       <c r="L702" t="n">
         <v>7.873999999999998</v>
@@ -36325,7 +36347,7 @@
         <v>23.35999999999995</v>
       </c>
       <c r="K703" t="n">
-        <v>3.333333333333254</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L703" t="n">
         <v>7.869999999999997</v>
@@ -36384,7 +36406,7 @@
         <v>23.35999999999995</v>
       </c>
       <c r="K704" t="n">
-        <v>1.694915254237242</v>
+        <v>3.225806451612811</v>
       </c>
       <c r="L704" t="n">
         <v>7.871999999999997</v>
@@ -36441,7 +36463,7 @@
         <v>23.39999999999995</v>
       </c>
       <c r="K705" t="n">
-        <v>9.677419354838577</v>
+        <v>-7.142857142857278</v>
       </c>
       <c r="L705" t="n">
         <v>7.876999999999997</v>
@@ -36498,7 +36520,7 @@
         <v>23.47999999999995</v>
       </c>
       <c r="K706" t="n">
-        <v>21.73913043478262</v>
+        <v>3.225806451612848</v>
       </c>
       <c r="L706" t="n">
         <v>7.882999999999997</v>
@@ -36557,7 +36579,7 @@
         <v>23.57999999999995</v>
       </c>
       <c r="K707" t="n">
-        <v>5.128205128205125</v>
+        <v>-35.13513513513501</v>
       </c>
       <c r="L707" t="n">
         <v>7.873999999999998</v>
@@ -36616,7 +36638,7 @@
         <v>23.59999999999995</v>
       </c>
       <c r="K708" t="n">
-        <v>6.493506493506473</v>
+        <v>-38.4615384615385</v>
       </c>
       <c r="L708" t="n">
         <v>7.858999999999997</v>
@@ -36673,7 +36695,7 @@
         <v>23.64999999999995</v>
       </c>
       <c r="K709" t="n">
-        <v>8.86075949367082</v>
+        <v>-17.07317073170738</v>
       </c>
       <c r="L709" t="n">
         <v>7.848999999999997</v>
@@ -36724,7 +36746,7 @@
         <v>23.65999999999995</v>
       </c>
       <c r="K710" t="n">
-        <v>11.68831168831173</v>
+        <v>-8.108108108108231</v>
       </c>
       <c r="L710" t="n">
         <v>7.840999999999997</v>
@@ -36775,7 +36797,7 @@
         <v>23.67999999999995</v>
       </c>
       <c r="K711" t="n">
-        <v>5.263157894736885</v>
+        <v>-12.82051282051287</v>
       </c>
       <c r="L711" t="n">
         <v>7.835999999999996</v>
@@ -36826,7 +36848,7 @@
         <v>23.74999999999995</v>
       </c>
       <c r="K712" t="n">
-        <v>12.19512195121952</v>
+        <v>23.07692307692322</v>
       </c>
       <c r="L712" t="n">
         <v>7.837999999999996</v>
@@ -36877,7 +36899,7 @@
         <v>23.74999999999995</v>
       </c>
       <c r="K713" t="n">
-        <v>6.493506493506504</v>
+        <v>23.07692307692322</v>
       </c>
       <c r="L713" t="n">
         <v>7.846999999999996</v>
@@ -36928,7 +36950,7 @@
         <v>23.74999999999995</v>
       </c>
       <c r="K714" t="n">
-        <v>15.49295774647885</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L714" t="n">
         <v>7.855999999999996</v>
@@ -36979,7 +37001,7 @@
         <v>23.75999999999995</v>
       </c>
       <c r="K715" t="n">
-        <v>12.67605633802813</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L715" t="n">
         <v>7.859999999999995</v>
@@ -37030,7 +37052,7 @@
         <v>23.82999999999995</v>
       </c>
       <c r="K716" t="n">
-        <v>-7.042253521126852</v>
+        <v>-4.00000000000027</v>
       </c>
       <c r="L716" t="n">
         <v>7.848999999999995</v>
@@ -37081,7 +37103,7 @@
         <v>23.87999999999995</v>
       </c>
       <c r="K717" t="n">
-        <v>-7.042253521126727</v>
+        <v>21.42857142857152</v>
       </c>
       <c r="L717" t="n">
         <v>7.852999999999994</v>
@@ -37132,7 +37154,7 @@
         <v>23.87999999999995</v>
       </c>
       <c r="K718" t="n">
-        <v>-13.43283582089547</v>
+        <v>4.347826086956808</v>
       </c>
       <c r="L718" t="n">
         <v>7.858999999999995</v>
@@ -37183,7 +37205,7 @@
         <v>23.96999999999995</v>
       </c>
       <c r="K719" t="n">
-        <v>0</v>
+        <v>35.48387096774178</v>
       </c>
       <c r="L719" t="n">
         <v>7.868999999999995</v>
@@ -37234,7 +37256,7 @@
         <v>23.98999999999995</v>
       </c>
       <c r="K720" t="n">
-        <v>1.333333333333305</v>
+        <v>35.4838709677415</v>
       </c>
       <c r="L720" t="n">
         <v>7.877999999999995</v>
@@ -37285,7 +37307,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K721" t="n">
-        <v>9.859154929577493</v>
+        <v>20</v>
       </c>
       <c r="L721" t="n">
         <v>7.889999999999995</v>
@@ -37336,7 +37358,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K722" t="n">
-        <v>9.859154929577493</v>
+        <v>20</v>
       </c>
       <c r="L722" t="n">
         <v>7.894999999999994</v>
@@ -37387,7 +37409,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K723" t="n">
-        <v>21.87500000000007</v>
+        <v>20</v>
       </c>
       <c r="L723" t="n">
         <v>7.899999999999994</v>
@@ -37438,7 +37460,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K724" t="n">
-        <v>21.87500000000007</v>
+        <v>25</v>
       </c>
       <c r="L724" t="n">
         <v>7.904999999999994</v>
@@ -37489,7 +37511,7 @@
         <v>23.99999999999995</v>
       </c>
       <c r="K725" t="n">
-        <v>16.66666666666671</v>
+        <v>76.47058823529382</v>
       </c>
       <c r="L725" t="n">
         <v>7.910999999999994</v>
@@ -37540,7 +37562,7 @@
         <v>24.08999999999995</v>
       </c>
       <c r="K726" t="n">
-        <v>-11.47540983606556</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L726" t="n">
         <v>7.914999999999994</v>
@@ -37591,7 +37613,7 @@
         <v>24.08999999999995</v>
       </c>
       <c r="K727" t="n">
-        <v>5.882352941176327</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L727" t="n">
         <v>7.913999999999993</v>
@@ -37642,7 +37664,7 @@
         <v>24.08999999999995</v>
       </c>
       <c r="K728" t="n">
-        <v>10.20408163265298</v>
+        <v>-83.33333333333309</v>
       </c>
       <c r="L728" t="n">
         <v>7.912999999999992</v>
@@ -37693,7 +37715,7 @@
         <v>24.08999999999995</v>
       </c>
       <c r="K729" t="n">
-        <v>0</v>
+        <v>-79.99999999999893</v>
       </c>
       <c r="L729" t="n">
         <v>7.902999999999992</v>
@@ -37744,7 +37766,7 @@
         <v>24.13999999999995</v>
       </c>
       <c r="K730" t="n">
-        <v>-8.333333333333272</v>
+        <v>-100</v>
       </c>
       <c r="L730" t="n">
         <v>7.889999999999992</v>
@@ -37795,7 +37817,7 @@
         <v>24.13999999999995</v>
       </c>
       <c r="K731" t="n">
-        <v>-4.347826086956581</v>
+        <v>-100</v>
       </c>
       <c r="L731" t="n">
         <v>7.875999999999992</v>
@@ -37846,7 +37868,7 @@
         <v>24.19999999999995</v>
       </c>
       <c r="K732" t="n">
-        <v>-6.666666666666429</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L732" t="n">
         <v>7.867999999999992</v>
@@ -37897,7 +37919,7 @@
         <v>24.27999999999995</v>
       </c>
       <c r="K733" t="n">
-        <v>-20.75471698113179</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L733" t="n">
         <v>7.851999999999992</v>
@@ -37948,7 +37970,7 @@
         <v>24.29999999999995</v>
       </c>
       <c r="K734" t="n">
-        <v>-23.63636363636343</v>
+        <v>-60.00000000000006</v>
       </c>
       <c r="L734" t="n">
         <v>7.833999999999993</v>
@@ -37999,7 +38021,7 @@
         <v>24.34999999999995</v>
       </c>
       <c r="K735" t="n">
-        <v>-11.864406779661</v>
+        <v>-15.38461538461531</v>
       </c>
       <c r="L735" t="n">
         <v>7.820999999999994</v>
@@ -38050,7 +38072,7 @@
         <v>24.34999999999995</v>
       </c>
       <c r="K736" t="n">
-        <v>0</v>
+        <v>-15.38461538461531</v>
       </c>
       <c r="L736" t="n">
         <v>7.816999999999995</v>
@@ -38101,7 +38123,7 @@
         <v>24.35999999999995</v>
       </c>
       <c r="K737" t="n">
-        <v>-8.333333333333272</v>
+        <v>-11.11111111111074</v>
       </c>
       <c r="L737" t="n">
         <v>7.813999999999996</v>
@@ -38152,7 +38174,7 @@
         <v>24.36999999999995</v>
       </c>
       <c r="K738" t="n">
-        <v>-6.122448979591819</v>
+        <v>-7.142857142856871</v>
       </c>
       <c r="L738" t="n">
         <v>7.811999999999996</v>
@@ -38203,7 +38225,7 @@
         <v>24.39999999999996</v>
       </c>
       <c r="K739" t="n">
-        <v>-20.93023255813917</v>
+        <v>23.07692307692281</v>
       </c>
       <c r="L739" t="n">
         <v>7.812999999999997</v>
@@ -38254,7 +38276,7 @@
         <v>24.39999999999996</v>
       </c>
       <c r="K740" t="n">
-        <v>-17.07317073170687</v>
+        <v>23.07692307692281</v>
       </c>
       <c r="L740" t="n">
         <v>7.818999999999997</v>
@@ -38305,7 +38327,7 @@
         <v>24.42999999999996</v>
       </c>
       <c r="K741" t="n">
-        <v>-11.62790697674417</v>
+        <v>13.04347826086906</v>
       </c>
       <c r="L741" t="n">
         <v>7.827999999999998</v>
@@ -38356,7 +38378,7 @@
         <v>24.44999999999996</v>
       </c>
       <c r="K742" t="n">
-        <v>-6.666666666666628</v>
+        <v>76.47058823529169</v>
       </c>
       <c r="L742" t="n">
         <v>7.832999999999997</v>
@@ -38407,7 +38429,7 @@
         <v>24.46999999999996</v>
       </c>
       <c r="K743" t="n">
-        <v>-10.63829787234044</v>
+        <v>76.47058823529169</v>
       </c>
       <c r="L743" t="n">
         <v>7.843999999999997</v>
@@ -38458,7 +38480,7 @@
         <v>24.48999999999996</v>
       </c>
       <c r="K744" t="n">
-        <v>-6.122448979591819</v>
+        <v>71.42857142856971</v>
       </c>
       <c r="L744" t="n">
         <v>7.858999999999996</v>
@@ -38509,7 +38531,7 @@
         <v>24.48999999999996</v>
       </c>
       <c r="K745" t="n">
-        <v>-6.122448979591819</v>
+        <v>71.42857142856971</v>
       </c>
       <c r="L745" t="n">
         <v>7.868999999999995</v>
@@ -38560,7 +38582,7 @@
         <v>24.49999999999996</v>
       </c>
       <c r="K746" t="n">
-        <v>12.19512195121947</v>
+        <v>57.1428571428555</v>
       </c>
       <c r="L746" t="n">
         <v>7.877999999999996</v>
@@ -38611,7 +38633,7 @@
         <v>24.50999999999996</v>
       </c>
       <c r="K747" t="n">
-        <v>9.523809523809334</v>
+        <v>42.85714285714132</v>
       </c>
       <c r="L747" t="n">
         <v>7.884999999999996</v>
@@ -38662,7 +38684,7 @@
         <v>24.55999999999996</v>
       </c>
       <c r="K748" t="n">
-        <v>-2.127659574467997</v>
+        <v>-12.5</v>
       </c>
       <c r="L748" t="n">
         <v>7.885999999999997</v>
@@ -38713,7 +38735,7 @@
         <v>24.60999999999996</v>
       </c>
       <c r="K749" t="n">
-        <v>-11.53846153846124</v>
+        <v>-33.33333333333277</v>
       </c>
       <c r="L749" t="n">
         <v>7.878999999999998</v>
@@ -38764,7 +38786,7 @@
         <v>24.61999999999996</v>
       </c>
       <c r="K750" t="n">
-        <v>-4.166666666666482</v>
+        <v>-57.89473684210349</v>
       </c>
       <c r="L750" t="n">
         <v>7.870999999999998</v>
@@ -38815,7 +38837,7 @@
         <v>24.62999999999996</v>
       </c>
       <c r="K751" t="n">
-        <v>-2.040816326530531</v>
+        <v>-66.66666666666552</v>
       </c>
       <c r="L751" t="n">
         <v>7.860999999999999</v>
@@ -38866,7 +38888,7 @@
         <v>24.62999999999996</v>
       </c>
       <c r="K752" t="n">
-        <v>-16.27906976744167</v>
+        <v>-62.49999999999834</v>
       </c>
       <c r="L752" t="n">
         <v>7.848999999999999</v>
@@ -38917,7 +38939,7 @@
         <v>24.64999999999996</v>
       </c>
       <c r="K753" t="n">
-        <v>8.108108108107757</v>
+        <v>-62.49999999999889</v>
       </c>
       <c r="L753" t="n">
         <v>7.840999999999999</v>
@@ -38968,7 +38990,7 @@
         <v>24.65999999999996</v>
       </c>
       <c r="K754" t="n">
-        <v>16.66666666666634</v>
+        <v>-52.94117647058651</v>
       </c>
       <c r="L754" t="n">
         <v>7.831999999999999</v>
@@ -39019,7 +39041,7 @@
         <v>24.70999999999996</v>
       </c>
       <c r="K755" t="n">
-        <v>16.66666666666634</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L755" t="n">
         <v>7.828</v>
@@ -39070,7 +39092,7 @@
         <v>24.73999999999996</v>
       </c>
       <c r="K756" t="n">
-        <v>23.0769230769226</v>
+        <v>4.34782608695674</v>
       </c>
       <c r="L756" t="n">
         <v>7.828</v>
@@ -39121,7 +39143,7 @@
         <v>24.80999999999996</v>
       </c>
       <c r="K757" t="n">
-        <v>2.222222222222126</v>
+        <v>-3.999999999999858</v>
       </c>
       <c r="L757" t="n">
         <v>7.822</v>
@@ -39172,7 +39194,7 @@
         <v>24.84999999999996</v>
       </c>
       <c r="K758" t="n">
-        <v>8.33333333333321</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L758" t="n">
         <v>7.825</v>
@@ -39223,7 +39245,7 @@
         <v>24.84999999999996</v>
       </c>
       <c r="K759" t="n">
-        <v>2.222222222222143</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L759" t="n">
         <v>7.833</v>
@@ -39274,7 +39296,7 @@
         <v>24.86999999999996</v>
       </c>
       <c r="K760" t="n">
-        <v>-2.127659574468201</v>
+        <v>24.99999999999963</v>
       </c>
       <c r="L760" t="n">
         <v>7.839999999999999</v>
@@ -39325,7 +39347,7 @@
         <v>24.87999999999996</v>
       </c>
       <c r="K761" t="n">
-        <v>-11.111111111111</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L761" t="n">
         <v>7.844999999999999</v>
@@ -39376,7 +39398,7 @@
         <v>24.87999999999996</v>
       </c>
       <c r="K762" t="n">
-        <v>-16.2790697674418</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L762" t="n">
         <v>7.849999999999999</v>
@@ -39427,7 +39449,7 @@
         <v>24.91999999999996</v>
       </c>
       <c r="K763" t="n">
-        <v>-19.99999999999984</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L763" t="n">
         <v>7.848999999999998</v>
@@ -39478,7 +39500,7 @@
         <v>24.91999999999996</v>
       </c>
       <c r="K764" t="n">
-        <v>-25.58139534883709</v>
+        <v>-33.3333333333339</v>
       </c>
       <c r="L764" t="n">
         <v>7.846999999999997</v>
@@ -39529,7 +39551,7 @@
         <v>24.93999999999996</v>
       </c>
       <c r="K765" t="n">
-        <v>-28.88888888888868</v>
+        <v>-60.00000000000133</v>
       </c>
       <c r="L765" t="n">
         <v>7.837999999999997</v>
@@ -39580,7 +39602,7 @@
         <v>24.93999999999996</v>
       </c>
       <c r="K766" t="n">
-        <v>-27.27272727272722</v>
+        <v>-38.46153846153967</v>
       </c>
       <c r="L766" t="n">
         <v>7.825999999999996</v>
@@ -39631,7 +39653,7 @@
         <v>24.95999999999996</v>
       </c>
       <c r="K767" t="n">
-        <v>-28.88888888888891</v>
+        <v>-100.000000000004</v>
       </c>
       <c r="L767" t="n">
         <v>7.818999999999997</v>
@@ -39682,7 +39704,7 @@
         <v>25.01999999999996</v>
       </c>
       <c r="K768" t="n">
-        <v>-4.347826086956421</v>
+        <v>-29.41176470588257</v>
       </c>
       <c r="L768" t="n">
         <v>7.813999999999996</v>
@@ -39733,7 +39755,7 @@
         <v>25.08999999999996</v>
       </c>
       <c r="K769" t="n">
-        <v>-8.333333333333332</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L769" t="n">
         <v>7.801999999999995</v>
@@ -39784,7 +39806,7 @@
         <v>25.09999999999996</v>
       </c>
       <c r="K770" t="n">
-        <v>-4.16666666666679</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L770" t="n">
         <v>7.792999999999997</v>
@@ -39835,7 +39857,7 @@
         <v>25.09999999999996</v>
       </c>
       <c r="K771" t="n">
-        <v>-6.382978723404324</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L771" t="n">
         <v>7.784999999999997</v>
@@ -39886,7 +39908,7 @@
         <v>25.10999999999996</v>
       </c>
       <c r="K772" t="n">
-        <v>-8.333333333333396</v>
+        <v>-26.31578947368443</v>
       </c>
       <c r="L772" t="n">
         <v>7.775999999999996</v>
@@ -39937,7 +39959,7 @@
         <v>25.10999999999996</v>
       </c>
       <c r="K773" t="n">
-        <v>-13.04347826086956</v>
+        <v>-26.31578947368443</v>
       </c>
       <c r="L773" t="n">
         <v>7.770999999999996</v>
@@ -39988,7 +40010,7 @@
         <v>25.10999999999996</v>
       </c>
       <c r="K774" t="n">
-        <v>-15.55555555555577</v>
+        <v>-17.64705882352975</v>
       </c>
       <c r="L774" t="n">
         <v>7.765999999999996</v>
@@ -40039,7 +40061,7 @@
         <v>25.15999999999996</v>
       </c>
       <c r="K775" t="n">
-        <v>-15.55555555555577</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L775" t="n">
         <v>7.767999999999996</v>
@@ -40090,7 +40112,7 @@
         <v>25.20999999999996</v>
       </c>
       <c r="K776" t="n">
-        <v>-31.91489361702167</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L776" t="n">
         <v>7.764999999999996</v>
@@ -40141,7 +40163,7 @@
         <v>25.20999999999996</v>
       </c>
       <c r="K777" t="n">
-        <v>-20.00000000000027</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L777" t="n">
         <v>7.763999999999996</v>
@@ -40192,7 +40214,7 @@
         <v>25.27999999999996</v>
       </c>
       <c r="K778" t="n">
-        <v>-44.18604651162839</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L778" t="n">
         <v>7.749999999999997</v>
@@ -40243,7 +40265,7 @@
         <v>25.28999999999996</v>
       </c>
       <c r="K779" t="n">
-        <v>-40.90909090909106</v>
+        <v>-36.84210526315733</v>
       </c>
       <c r="L779" t="n">
         <v>7.743999999999997</v>
@@ -40294,7 +40316,7 @@
         <v>25.32999999999996</v>
       </c>
       <c r="K780" t="n">
-        <v>-26.08695652173911</v>
+        <v>-13.04347826086926</v>
       </c>
       <c r="L780" t="n">
         <v>7.740999999999997</v>
@@ -40345,7 +40367,7 @@
         <v>25.36999999999996</v>
       </c>
       <c r="K781" t="n">
-        <v>-14.28571428571439</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L781" t="n">
         <v>7.741999999999996</v>
@@ -40396,7 +40418,7 @@
         <v>25.39999999999996</v>
       </c>
       <c r="K782" t="n">
-        <v>-7.692307692307705</v>
+        <v>17.24137931034461</v>
       </c>
       <c r="L782" t="n">
         <v>7.746999999999995</v>
@@ -40447,7 +40469,7 @@
         <v>25.40999999999996</v>
       </c>
       <c r="K783" t="n">
-        <v>2.04081632653056</v>
+        <v>19.99999999999958</v>
       </c>
       <c r="L783" t="n">
         <v>7.752999999999996</v>
@@ -40549,7 +40571,7 @@
         <v>25.46999999999996</v>
       </c>
       <c r="K785" t="n">
-        <v>-5.660377358490601</v>
+        <v>0</v>
       </c>
       <c r="L785" t="n">
         <v>7.752999999999996</v>
@@ -40600,7 +40622,7 @@
         <v>25.48999999999996</v>
       </c>
       <c r="K786" t="n">
-        <v>-1.818181818181938</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L786" t="n">
         <v>7.754999999999995</v>
@@ -40651,7 +40673,7 @@
         <v>25.48999999999996</v>
       </c>
       <c r="K787" t="n">
-        <v>1.886792452830145</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L787" t="n">
         <v>7.756999999999995</v>
@@ -40702,7 +40724,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K788" t="n">
-        <v>-8.333333333333332</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L788" t="n">
         <v>7.766999999999996</v>
@@ -40753,7 +40775,7 @@
         <v>25.50999999999996</v>
       </c>
       <c r="K789" t="n">
-        <v>4.761904761904641</v>
+        <v>22.22222222222134</v>
       </c>
       <c r="L789" t="n">
         <v>7.774999999999996</v>
@@ -40804,7 +40826,7 @@
         <v>25.51999999999996</v>
       </c>
       <c r="K790" t="n">
-        <v>0</v>
+        <v>-6.666666666666429</v>
       </c>
       <c r="L790" t="n">
         <v>7.777999999999996</v>
@@ -40855,7 +40877,7 @@
         <v>25.51999999999996</v>
       </c>
       <c r="K791" t="n">
-        <v>0</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L791" t="n">
         <v>7.776999999999997</v>
@@ -40906,7 +40928,7 @@
         <v>25.51999999999996</v>
       </c>
       <c r="K792" t="n">
-        <v>2.439024390243829</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L792" t="n">
         <v>7.772999999999998</v>
@@ -40957,7 +40979,7 @@
         <v>25.52999999999996</v>
       </c>
       <c r="K793" t="n">
-        <v>0</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L793" t="n">
         <v>7.766999999999998</v>
@@ -41008,7 +41030,7 @@
         <v>25.61999999999996</v>
       </c>
       <c r="K794" t="n">
-        <v>-17.64705882352933</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L794" t="n">
         <v>7.752999999999997</v>
@@ -41059,7 +41081,7 @@
         <v>25.71999999999996</v>
       </c>
       <c r="K795" t="n">
-        <v>-7.142857142857166</v>
+        <v>-4.347826086956489</v>
       </c>
       <c r="L795" t="n">
         <v>7.753999999999998</v>
@@ -41110,7 +41132,7 @@
         <v>25.80999999999996</v>
       </c>
       <c r="K796" t="n">
-        <v>-13.33333333333339</v>
+        <v>-31.25000000000021</v>
       </c>
       <c r="L796" t="n">
         <v>7.743999999999998</v>
@@ -41161,7 +41183,7 @@
         <v>25.80999999999996</v>
       </c>
       <c r="K797" t="n">
-        <v>-13.33333333333339</v>
+        <v>-35.48387096774259</v>
       </c>
       <c r="L797" t="n">
         <v>7.733999999999999</v>
@@ -41212,7 +41234,7 @@
         <v>25.84999999999996</v>
       </c>
       <c r="K798" t="n">
-        <v>5.263157894736916</v>
+        <v>-17.64705882352967</v>
       </c>
       <c r="L798" t="n">
         <v>7.726999999999999</v>
@@ -41263,7 +41285,7 @@
         <v>25.85999999999996</v>
       </c>
       <c r="K799" t="n">
-        <v>1.754385964912253</v>
+        <v>-17.64705882352949</v>
       </c>
       <c r="L799" t="n">
         <v>7.719999999999999</v>
@@ -41314,7 +41336,7 @@
         <v>25.85999999999996</v>
       </c>
       <c r="K800" t="n">
-        <v>-5.660377358490639</v>
+        <v>-17.64705882352949</v>
       </c>
       <c r="L800" t="n">
         <v>7.713999999999999</v>
@@ -41365,7 +41387,7 @@
         <v>25.87999999999996</v>
       </c>
       <c r="K801" t="n">
-        <v>-17.64705882352945</v>
+        <v>-22.22222222222249</v>
       </c>
       <c r="L801" t="n">
         <v>7.705999999999999</v>
@@ -41416,7 +41438,7 @@
         <v>25.88999999999996</v>
       </c>
       <c r="K802" t="n">
-        <v>-26.53061224489802</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L802" t="n">
         <v>7.696999999999998</v>
@@ -41467,7 +41489,7 @@
         <v>25.91999999999996</v>
       </c>
       <c r="K803" t="n">
-        <v>-21.56862745098037</v>
+        <v>13.33333333333331</v>
       </c>
       <c r="L803" t="n">
         <v>7.691999999999998</v>
@@ -41518,7 +41540,7 @@
         <v>25.94999999999996</v>
       </c>
       <c r="K804" t="n">
-        <v>-13.20754716981118</v>
+        <v>-13.04347826086906</v>
       </c>
       <c r="L804" t="n">
         <v>7.699</v>
@@ -41569,7 +41591,7 @@
         <v>25.94999999999996</v>
       </c>
       <c r="K805" t="n">
-        <v>-4.166666666666574</v>
+        <v>42.85714285714195</v>
       </c>
       <c r="L805" t="n">
         <v>7.696</v>
@@ -41620,7 +41642,7 @@
         <v>25.96999999999996</v>
       </c>
       <c r="K806" t="n">
-        <v>-12.49999999999991</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L806" t="n">
         <v>7.699999999999998</v>
@@ -41671,7 +41693,7 @@
         <v>25.96999999999996</v>
       </c>
       <c r="K807" t="n">
-        <v>-12.49999999999991</v>
+        <v>0</v>
       </c>
       <c r="L807" t="n">
         <v>7.703999999999998</v>
@@ -41722,7 +41744,7 @@
         <v>25.99999999999996</v>
       </c>
       <c r="K808" t="n">
-        <v>-20.00000000000011</v>
+        <v>-14.2857142857142</v>
       </c>
       <c r="L808" t="n">
         <v>7.700999999999998</v>
@@ -41773,7 +41795,7 @@
         <v>26.02999999999996</v>
       </c>
       <c r="K809" t="n">
-        <v>-23.0769230769231</v>
+        <v>-29.41176470588195</v>
       </c>
       <c r="L809" t="n">
         <v>7.695999999999998</v>
@@ -41824,7 +41846,7 @@
         <v>26.02999999999996</v>
       </c>
       <c r="K810" t="n">
-        <v>-21.56862745098037</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L810" t="n">
         <v>7.690999999999998</v>
@@ -41875,7 +41897,7 @@
         <v>26.09999999999996</v>
       </c>
       <c r="K811" t="n">
-        <v>-6.896551724137957</v>
+        <v>23.80952380952363</v>
       </c>
       <c r="L811" t="n">
         <v>7.694999999999999</v>
@@ -41926,7 +41948,7 @@
         <v>26.14999999999996</v>
       </c>
       <c r="K812" t="n">
-        <v>-14.28571428571428</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L812" t="n">
         <v>7.694999999999999</v>
@@ -41977,7 +41999,7 @@
         <v>26.14999999999996</v>
       </c>
       <c r="K813" t="n">
-        <v>-12.9032258064516</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L813" t="n">
         <v>7.691999999999998</v>
@@ -42028,7 +42050,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K814" t="n">
-        <v>10.3448275862068</v>
+        <v>-4.00000000000027</v>
       </c>
       <c r="L814" t="n">
         <v>7.690999999999998</v>
@@ -42079,7 +42101,7 @@
         <v>26.23999999999996</v>
       </c>
       <c r="K815" t="n">
-        <v>-15.38461538461531</v>
+        <v>-11.11111111111122</v>
       </c>
       <c r="L815" t="n">
         <v>7.685999999999997</v>
@@ -42130,7 +42152,7 @@
         <v>26.23999999999996</v>
       </c>
       <c r="K816" t="n">
-        <v>2.32558139534877</v>
+        <v>-11.11111111111122</v>
       </c>
       <c r="L816" t="n">
         <v>7.682999999999997</v>
@@ -42181,7 +42203,7 @@
         <v>26.24999999999996</v>
       </c>
       <c r="K817" t="n">
-        <v>4.5454545454546</v>
+        <v>4.00000000000027</v>
       </c>
       <c r="L817" t="n">
         <v>7.680999999999997</v>
@@ -42232,7 +42254,7 @@
         <v>26.27999999999996</v>
       </c>
       <c r="K818" t="n">
-        <v>-11.62790697674396</v>
+        <v>3.999999999999858</v>
       </c>
       <c r="L818" t="n">
         <v>7.678999999999997</v>
@@ -42283,7 +42305,7 @@
         <v>26.27999999999996</v>
       </c>
       <c r="K819" t="n">
-        <v>-9.523809523809414</v>
+        <v>3.999999999999858</v>
       </c>
       <c r="L819" t="n">
         <v>7.679999999999995</v>
@@ -42334,7 +42356,7 @@
         <v>26.28999999999996</v>
       </c>
       <c r="K820" t="n">
-        <v>-11.62790697674396</v>
+        <v>-36.84210526315664</v>
       </c>
       <c r="L820" t="n">
         <v>7.679999999999995</v>
@@ -42385,7 +42407,7 @@
         <v>26.28999999999996</v>
       </c>
       <c r="K821" t="n">
-        <v>-7.317073170731422</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L821" t="n">
         <v>7.672999999999996</v>
@@ -42436,7 +42458,7 @@
         <v>26.31999999999996</v>
       </c>
       <c r="K822" t="n">
-        <v>-11.62790697674396</v>
+        <v>-29.41176470588134</v>
       </c>
       <c r="L822" t="n">
         <v>7.667999999999997</v>
@@ -42487,7 +42509,7 @@
         <v>26.37999999999997</v>
       </c>
       <c r="K823" t="n">
-        <v>-30.43478260869525</v>
+        <v>-88.8888888888856</v>
       </c>
       <c r="L823" t="n">
         <v>7.656999999999996</v>
@@ -42538,7 +42560,7 @@
         <v>26.38999999999997</v>
       </c>
       <c r="K824" t="n">
-        <v>-40.90909090909059</v>
+        <v>-86.66666666666332</v>
       </c>
       <c r="L824" t="n">
         <v>7.639999999999996</v>
@@ -42589,7 +42611,7 @@
         <v>26.45999999999997</v>
       </c>
       <c r="K825" t="n">
-        <v>-49.01960784313676</v>
+        <v>-90.90909090908812</v>
       </c>
       <c r="L825" t="n">
         <v>7.619999999999996</v>
@@ -42640,7 +42662,7 @@
         <v>26.51999999999997</v>
       </c>
       <c r="K826" t="n">
-        <v>-52.72727272727199</v>
+        <v>-99.9999999999977</v>
       </c>
       <c r="L826" t="n">
         <v>7.593999999999997</v>
@@ -42691,7 +42713,7 @@
         <v>26.51999999999997</v>
       </c>
       <c r="K827" t="n">
-        <v>-52.72727272727199</v>
+        <v>-99.99999999999778</v>
       </c>
       <c r="L827" t="n">
         <v>7.566999999999998</v>
@@ -42742,7 +42764,7 @@
         <v>26.56999999999997</v>
       </c>
       <c r="K828" t="n">
-        <v>-54.38596491227992</v>
+        <v>-99.99999999999785</v>
       </c>
       <c r="L828" t="n">
         <v>7.537999999999998</v>
@@ -42793,7 +42815,7 @@
         <v>26.57999999999997</v>
       </c>
       <c r="K829" t="n">
-        <v>-52.72727272727165</v>
+        <v>-99.99999999999785</v>
       </c>
       <c r="L829" t="n">
         <v>7.507999999999998</v>
@@ -42844,7 +42866,7 @@
         <v>26.67999999999997</v>
       </c>
       <c r="K830" t="n">
-        <v>-59.99999999999891</v>
+        <v>-99.99999999999818</v>
       </c>
       <c r="L830" t="n">
         <v>7.468999999999999</v>
@@ -42895,7 +42917,7 @@
         <v>26.83999999999997</v>
       </c>
       <c r="K831" t="n">
-        <v>-83.78378378378237</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L831" t="n">
         <v>7.413999999999997</v>
@@ -42946,7 +42968,7 @@
         <v>26.87999999999997</v>
       </c>
       <c r="K832" t="n">
-        <v>-72.60273972602633</v>
+        <v>-83.99999999999939</v>
       </c>
       <c r="L832" t="n">
         <v>7.365999999999997</v>
@@ -42997,7 +43019,7 @@
         <v>26.95999999999997</v>
       </c>
       <c r="K833" t="n">
-        <v>-55.55555555555469</v>
+        <v>-57.89473684210452</v>
       </c>
       <c r="L833" t="n">
         <v>7.331999999999996</v>
@@ -43048,7 +43070,7 @@
         <v>27.00999999999997</v>
       </c>
       <c r="K834" t="n">
-        <v>-55.55555555555469</v>
+        <v>-38.1818181818178</v>
       </c>
       <c r="L834" t="n">
         <v>7.303999999999997</v>
@@ -43099,7 +43121,7 @@
         <v>27.07999999999997</v>
       </c>
       <c r="K835" t="n">
-        <v>-57.14285714285613</v>
+        <v>-39.28571428571384</v>
       </c>
       <c r="L835" t="n">
         <v>7.275999999999996</v>
@@ -43150,7 +43172,7 @@
         <v>27.07999999999997</v>
       </c>
       <c r="K836" t="n">
-        <v>-57.14285714285613</v>
+        <v>-39.28571428571384</v>
       </c>
       <c r="L836" t="n">
         <v>7.253999999999996</v>
@@ -43201,7 +43223,7 @@
         <v>27.08999999999997</v>
       </c>
       <c r="K837" t="n">
-        <v>-57.14285714285624</v>
+        <v>-30.7692307692304</v>
       </c>
       <c r="L837" t="n">
         <v>7.232999999999995</v>
@@ -43252,7 +43274,7 @@
         <v>27.13999999999998</v>
       </c>
       <c r="K838" t="n">
-        <v>-58.13953488372001</v>
+        <v>-35.71428571428537</v>
       </c>
       <c r="L838" t="n">
         <v>7.211999999999994</v>
@@ -43303,7 +43325,7 @@
         <v>27.25999999999998</v>
       </c>
       <c r="K839" t="n">
-        <v>-63.26530612244805</v>
+        <v>-37.93103448275822</v>
       </c>
       <c r="L839" t="n">
         <v>7.179999999999995</v>
@@ -43354,7 +43376,7 @@
         <v>27.36999999999998</v>
       </c>
       <c r="K840" t="n">
-        <v>-46.29629629629576</v>
+        <v>9.433962264150994</v>
       </c>
       <c r="L840" t="n">
         <v>7.168999999999995</v>
@@ -43405,7 +43427,7 @@
         <v>27.37999999999997</v>
       </c>
       <c r="K841" t="n">
-        <v>-44.95412844036656</v>
+        <v>4.000000000000064</v>
       </c>
       <c r="L841" t="n">
         <v>7.174999999999995</v>
@@ -43456,7 +43478,7 @@
         <v>27.41999999999997</v>
       </c>
       <c r="K842" t="n">
-        <v>-38.18181818181788</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L842" t="n">
         <v>7.180999999999996</v>
@@ -43507,7 +43529,7 @@
         <v>27.43999999999997</v>
       </c>
       <c r="K843" t="n">
-        <v>-32.07547169811302</v>
+        <v>-11.62790697674415</v>
       </c>
       <c r="L843" t="n">
         <v>7.180999999999996</v>
@@ -43558,7 +43580,7 @@
         <v>27.50999999999997</v>
       </c>
       <c r="K844" t="n">
-        <v>-23.21428571428553</v>
+        <v>20.93023255813952</v>
       </c>
       <c r="L844" t="n">
         <v>7.182999999999997</v>
@@ -43609,7 +43631,7 @@
         <v>27.63999999999997</v>
       </c>
       <c r="K845" t="n">
-        <v>-5.084745762711878</v>
+        <v>39.28571428571433</v>
       </c>
       <c r="L845" t="n">
         <v>7.204999999999997</v>
@@ -43660,7 +43682,7 @@
         <v>27.70999999999997</v>
       </c>
       <c r="K846" t="n">
-        <v>-5.88235294117647</v>
+        <v>22.58064516129036</v>
       </c>
       <c r="L846" t="n">
         <v>7.219999999999996</v>
@@ -43711,7 +43733,7 @@
         <v>27.78999999999997</v>
       </c>
       <c r="K847" t="n">
-        <v>0.7874015748031309</v>
+        <v>41.53846153846179</v>
       </c>
       <c r="L847" t="n">
         <v>7.241999999999997</v>
@@ -43762,7 +43784,7 @@
         <v>27.81999999999997</v>
       </c>
       <c r="K848" t="n">
-        <v>7.199999999999967</v>
+        <v>75.00000000000064</v>
       </c>
       <c r="L848" t="n">
         <v>7.271999999999997</v>
@@ -43813,7 +43835,7 @@
         <v>27.82999999999997</v>
       </c>
       <c r="K849" t="n">
-        <v>8.799999999999955</v>
+        <v>69.56521739130517</v>
       </c>
       <c r="L849" t="n">
         <v>7.314999999999996</v>
@@ -43864,7 +43886,7 @@
         <v>27.90999999999997</v>
       </c>
       <c r="K850" t="n">
-        <v>10.56910569105693</v>
+        <v>43.39622641509474</v>
       </c>
       <c r="L850" t="n">
         <v>7.338999999999996</v>
@@ -43915,7 +43937,7 @@
         <v>27.92999999999997</v>
       </c>
       <c r="K851" t="n">
-        <v>28.4403669724772</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L851" t="n">
         <v>7.363999999999995</v>
@@ -43966,7 +43988,7 @@
         <v>27.94999999999997</v>
       </c>
       <c r="K852" t="n">
-        <v>23.36448598130848</v>
+        <v>33.33333333333368</v>
       </c>
       <c r="L852" t="n">
         <v>7.382999999999996</v>
@@ -44017,7 +44039,7 @@
         <v>28.11999999999997</v>
       </c>
       <c r="K853" t="n">
-        <v>0</v>
+        <v>-11.4754098360657</v>
       </c>
       <c r="L853" t="n">
         <v>7.382999999999996</v>
@@ -44068,7 +44090,7 @@
         <v>28.17999999999997</v>
       </c>
       <c r="K854" t="n">
-        <v>0.8547008547009137</v>
+        <v>-25.92592592592591</v>
       </c>
       <c r="L854" t="n">
         <v>7.381999999999995</v>
@@ -44119,7 +44141,7 @@
         <v>28.21999999999997</v>
       </c>
       <c r="K855" t="n">
-        <v>10.52631578947372</v>
+        <v>-5.882352941176368</v>
       </c>
       <c r="L855" t="n">
         <v>7.371999999999995</v>
@@ -44170,7 +44192,7 @@
         <v>28.28999999999997</v>
       </c>
       <c r="K856" t="n">
-        <v>15.70247933884297</v>
+        <v>-8.000000000000007</v>
       </c>
       <c r="L856" t="n">
         <v>7.375999999999996</v>
@@ -44221,7 +44243,7 @@
         <v>28.33999999999997</v>
       </c>
       <c r="K857" t="n">
-        <v>18.40000000000009</v>
+        <v>-3.846153846153767</v>
       </c>
       <c r="L857" t="n">
         <v>7.376999999999995</v>
@@ -44272,7 +44294,7 @@
         <v>28.43999999999997</v>
       </c>
       <c r="K858" t="n">
-        <v>29.23076923076936</v>
+        <v>11.47540983606563</v>
       </c>
       <c r="L858" t="n">
         <v>7.384999999999996</v>
@@ -44323,7 +44345,7 @@
         <v>28.47999999999997</v>
       </c>
       <c r="K859" t="n">
-        <v>44.26229508196752</v>
+        <v>33.33333333333339</v>
       </c>
       <c r="L859" t="n">
         <v>7.395999999999996</v>
@@ -44374,7 +44396,7 @@
         <v>28.51999999999997</v>
       </c>
       <c r="K860" t="n">
-        <v>40.86956521739158</v>
+        <v>35.59322033898306</v>
       </c>
       <c r="L860" t="n">
         <v>7.418999999999997</v>
@@ -44425,7 +44447,7 @@
         <v>28.52999999999997</v>
       </c>
       <c r="K861" t="n">
-        <v>40.86956521739158</v>
+        <v>41.37931034482774</v>
       </c>
       <c r="L861" t="n">
         <v>7.440999999999997</v>
@@ -44476,7 +44498,7 @@
         <v>28.59999999999997</v>
       </c>
       <c r="K862" t="n">
-        <v>30.50847457627133</v>
+        <v>70.83333333333377</v>
       </c>
       <c r="L862" t="n">
         <v>7.457999999999997</v>
@@ -44527,7 +44549,7 @@
         <v>28.68999999999997</v>
       </c>
       <c r="K863" t="n">
-        <v>34.40000000000024</v>
+        <v>72.54901960784395</v>
       </c>
       <c r="L863" t="n">
         <v>7.500999999999998</v>
@@ -44578,7 +44600,7 @@
         <v>28.80999999999997</v>
       </c>
       <c r="K864" t="n">
-        <v>18.46153846153857</v>
+        <v>35.59322033898327</v>
       </c>
       <c r="L864" t="n">
         <v>7.525999999999998</v>
@@ -44629,7 +44651,7 @@
         <v>28.95999999999997</v>
       </c>
       <c r="K865" t="n">
-        <v>-3.030303030303049</v>
+        <v>-1.492537313432816</v>
       </c>
       <c r="L865" t="n">
         <v>7.531999999999996</v>
@@ -44680,7 +44702,7 @@
         <v>28.98999999999997</v>
       </c>
       <c r="K866" t="n">
-        <v>0</v>
+        <v>-13.84615384615407</v>
       </c>
       <c r="L866" t="n">
         <v>7.527999999999996</v>
@@ -44731,7 +44753,7 @@
         <v>29.08999999999997</v>
       </c>
       <c r="K867" t="n">
-        <v>1.538461538461577</v>
+        <v>-13.84615384615386</v>
       </c>
       <c r="L867" t="n">
         <v>7.528999999999996</v>
@@ -44782,7 +44804,7 @@
         <v>29.12999999999997</v>
       </c>
       <c r="K868" t="n">
-        <v>-3.816793893129772</v>
+        <v>-26.1538461538462</v>
       </c>
       <c r="L868" t="n">
         <v>7.515999999999996</v>
@@ -44833,7 +44855,7 @@
         <v>29.17999999999997</v>
       </c>
       <c r="K869" t="n">
-        <v>-0.7407407407407262</v>
+        <v>-24.24242424242426</v>
       </c>
       <c r="L869" t="n">
         <v>7.503999999999995</v>
@@ -44884,7 +44906,7 @@
         <v>29.21999999999997</v>
       </c>
       <c r="K870" t="n">
-        <v>2.290076335877884</v>
+        <v>-30.43478260869559</v>
       </c>
       <c r="L870" t="n">
         <v>7.483999999999995</v>
@@ -44935,7 +44957,7 @@
         <v>29.25999999999997</v>
       </c>
       <c r="K871" t="n">
-        <v>-2.255639097744383</v>
+        <v>-27.27272727272723</v>
       </c>
       <c r="L871" t="n">
         <v>7.458999999999994</v>
@@ -44986,7 +45008,7 @@
         <v>29.25999999999997</v>
       </c>
       <c r="K872" t="n">
-        <v>-0.7633587786259386</v>
+        <v>-47.36842105263164</v>
       </c>
       <c r="L872" t="n">
         <v>7.440999999999994</v>
@@ -45037,7 +45059,7 @@
         <v>29.31999999999996</v>
       </c>
       <c r="K873" t="n">
-        <v>18.33333333333345</v>
+        <v>-17.64705882352945</v>
       </c>
       <c r="L873" t="n">
         <v>7.419999999999993</v>
@@ -45088,7 +45110,7 @@
         <v>29.35999999999996</v>
       </c>
       <c r="K874" t="n">
-        <v>10.1694915254238</v>
+        <v>5.000000000000133</v>
       </c>
       <c r="L874" t="n">
         <v>7.406999999999994</v>
@@ -45139,7 +45161,7 @@
         <v>29.40999999999996</v>
       </c>
       <c r="K875" t="n">
-        <v>10.9243697478992</v>
+        <v>23.80952380952404</v>
       </c>
       <c r="L875" t="n">
         <v>7.413999999999994</v>
@@ -45190,7 +45212,7 @@
         <v>29.46999999999996</v>
       </c>
       <c r="K876" t="n">
-        <v>0</v>
+        <v>-15.78947368421085</v>
       </c>
       <c r="L876" t="n">
         <v>7.417999999999995</v>
@@ -45241,7 +45263,7 @@
         <v>29.46999999999996</v>
       </c>
       <c r="K877" t="n">
-        <v>-4.424778761062041</v>
+        <v>-5.88235294117667</v>
       </c>
       <c r="L877" t="n">
         <v>7.411999999999995</v>
@@ -45292,7 +45314,7 @@
         <v>29.46999999999996</v>
       </c>
       <c r="K878" t="n">
-        <v>-14.56310679611662</v>
+        <v>-24.13793103448322</v>
       </c>
       <c r="L878" t="n">
         <v>7.409999999999995</v>
@@ -45343,7 +45365,7 @@
         <v>29.47999999999996</v>
       </c>
       <c r="K879" t="n">
-        <v>-20.00000000000016</v>
+        <v>-15.38461538461573</v>
       </c>
       <c r="L879" t="n">
         <v>7.401999999999996</v>
@@ -45394,7 +45416,7 @@
         <v>29.48999999999996</v>
       </c>
       <c r="K880" t="n">
-        <v>-25.77319587628888</v>
+        <v>-4.347826086956555</v>
       </c>
       <c r="L880" t="n">
         <v>7.396999999999996</v>
@@ -45445,7 +45467,7 @@
         <v>29.55999999999996</v>
       </c>
       <c r="K881" t="n">
-        <v>-18.44660194174763</v>
+        <v>20.00000000000059</v>
       </c>
       <c r="L881" t="n">
         <v>7.402999999999996</v>
@@ -45496,7 +45518,7 @@
         <v>29.59999999999996</v>
       </c>
       <c r="K882" t="n">
-        <v>-16.00000000000004</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L882" t="n">
         <v>7.404999999999997</v>
@@ -45547,7 +45569,7 @@
         <v>29.64999999999996</v>
       </c>
       <c r="K883" t="n">
-        <v>-31.25000000000028</v>
+        <v>-17.24137931034533</v>
       </c>
       <c r="L883" t="n">
         <v>7.395999999999996</v>
@@ -45598,7 +45620,7 @@
         <v>29.67999999999996</v>
       </c>
       <c r="K884" t="n">
-        <v>-17.24137931034499</v>
+        <v>-25.92592592592641</v>
       </c>
       <c r="L884" t="n">
         <v>7.393999999999996</v>
@@ -45649,7 +45671,7 @@
         <v>29.67999999999996</v>
       </c>
       <c r="K885" t="n">
-        <v>0</v>
+        <v>-4.761904761904721</v>
       </c>
       <c r="L885" t="n">
         <v>7.386999999999995</v>
@@ -45700,7 +45722,7 @@
         <v>29.69999999999996</v>
       </c>
       <c r="K886" t="n">
-        <v>1.408450704225459</v>
+        <v>-13.04347826086947</v>
       </c>
       <c r="L886" t="n">
         <v>7.383999999999995</v>
@@ -45751,7 +45773,7 @@
         <v>29.71999999999996</v>
       </c>
       <c r="K887" t="n">
-        <v>-11.1111111111113</v>
+        <v>-3.999999999999972</v>
       </c>
       <c r="L887" t="n">
         <v>7.382999999999994</v>
@@ -45802,7 +45824,7 @@
         <v>29.76999999999996</v>
       </c>
       <c r="K888" t="n">
-        <v>3.124999999999965</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L888" t="n">
         <v>7.386999999999993</v>
@@ -45853,7 +45875,7 @@
         <v>29.86999999999996</v>
       </c>
       <c r="K889" t="n">
-        <v>10.14492753623201</v>
+        <v>42.10526315789449</v>
       </c>
       <c r="L889" t="n">
         <v>7.401999999999994</v>
@@ -45904,7 +45926,7 @@
         <v>29.94999999999996</v>
       </c>
       <c r="K890" t="n">
-        <v>4.109589041095962</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L890" t="n">
         <v>7.409999999999994</v>
@@ -45955,7 +45977,7 @@
         <v>30.01999999999996</v>
       </c>
       <c r="K891" t="n">
-        <v>18.42105263157904</v>
+        <v>28.57142857142827</v>
       </c>
       <c r="L891" t="n">
         <v>7.417999999999994</v>
@@ -46006,7 +46028,7 @@
         <v>30.02999999999996</v>
       </c>
       <c r="K892" t="n">
-        <v>19.48051948051963</v>
+        <v>47.36842105263142</v>
       </c>
       <c r="L892" t="n">
         <v>7.430999999999993</v>
@@ -46057,7 +46079,7 @@
         <v>30.03999999999996</v>
       </c>
       <c r="K893" t="n">
-        <v>11.11111111111101</v>
+        <v>38.88888888888848</v>
       </c>
       <c r="L893" t="n">
         <v>7.447999999999993</v>
@@ -46108,7 +46130,7 @@
         <v>30.04999999999997</v>
       </c>
       <c r="K894" t="n">
-        <v>18.84057971014488</v>
+        <v>40.54054054054014</v>
       </c>
       <c r="L894" t="n">
         <v>7.462999999999994</v>
@@ -46159,7 +46181,7 @@
         <v>30.04999999999997</v>
       </c>
       <c r="K895" t="n">
-        <v>12.5</v>
+        <v>48.57142857142786</v>
       </c>
       <c r="L895" t="n">
         <v>7.477999999999994</v>
@@ -46210,7 +46232,7 @@
         <v>30.06999999999996</v>
       </c>
       <c r="K896" t="n">
-        <v>19.99999999999997</v>
+        <v>37.14285714285658</v>
       </c>
       <c r="L896" t="n">
         <v>7.492999999999995</v>
@@ -46261,7 +46283,7 @@
         <v>30.09999999999997</v>
       </c>
       <c r="K897" t="n">
-        <v>23.80952380952377</v>
+        <v>33.33333333333289</v>
       </c>
       <c r="L897" t="n">
         <v>7.508999999999996</v>
@@ -46312,7 +46334,7 @@
         <v>30.11999999999997</v>
       </c>
       <c r="K898" t="n">
-        <v>26.15384615384605</v>
+        <v>11.99999999999957</v>
       </c>
       <c r="L898" t="n">
         <v>7.521999999999997</v>
@@ -46363,7 +46385,7 @@
         <v>30.12999999999997</v>
       </c>
       <c r="K899" t="n">
-        <v>29.23076923076903</v>
+        <v>66.6666666666642</v>
       </c>
       <c r="L899" t="n">
         <v>7.525999999999996</v>
@@ -46414,7 +46436,7 @@
         <v>30.13999999999997</v>
       </c>
       <c r="K900" t="n">
-        <v>29.23076923076874</v>
+        <v>33.33333333333111</v>
       </c>
       <c r="L900" t="n">
         <v>7.536999999999996</v>
@@ -46465,7 +46487,7 @@
         <v>30.18999999999997</v>
       </c>
       <c r="K901" t="n">
-        <v>11.11111111111085</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L901" t="n">
         <v>7.535999999999997</v>
@@ -46516,7 +46538,7 @@
         <v>30.25999999999997</v>
       </c>
       <c r="K902" t="n">
-        <v>27.27272727272678</v>
+        <v>27.27272727272676</v>
       </c>
       <c r="L902" t="n">
         <v>7.540999999999997</v>
@@ -46567,7 +46589,7 @@
         <v>30.34999999999997</v>
       </c>
       <c r="K903" t="n">
-        <v>19.99999999999979</v>
+        <v>-13.33333333333316</v>
       </c>
       <c r="L903" t="n">
         <v>7.537999999999997</v>
@@ -46618,7 +46640,7 @@
         <v>30.43999999999997</v>
       </c>
       <c r="K904" t="n">
-        <v>26.31578947368393</v>
+        <v>12.82051282051264</v>
       </c>
       <c r="L904" t="n">
         <v>7.542999999999997</v>
@@ -46669,7 +46691,7 @@
         <v>30.44999999999997</v>
       </c>
       <c r="K905" t="n">
-        <v>24.67532467532451</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L905" t="n">
         <v>7.546999999999997</v>
@@ -46720,7 +46742,7 @@
         <v>30.52999999999997</v>
       </c>
       <c r="K906" t="n">
-        <v>15.66265060240952</v>
+        <v>-11.62790697674415</v>
       </c>
       <c r="L906" t="n">
         <v>7.544999999999996</v>
@@ -46771,7 +46793,7 @@
         <v>30.58999999999997</v>
       </c>
       <c r="K907" t="n">
-        <v>5.747126436781535</v>
+        <v>-27.65957446808494</v>
       </c>
       <c r="L907" t="n">
         <v>7.533999999999996</v>

--- a/BackTest/2019-10-14 BackTest HYC.xlsx
+++ b/BackTest/2019-10-14 BackTest HYC.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
@@ -18339,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
@@ -29676,20 +29676,14 @@
         <v>7.612666666666667</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -29717,20 +29711,14 @@
         <v>7.604</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L838" t="inlineStr"/>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -29758,20 +29746,14 @@
         <v>7.593166666666667</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>7.19</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L839" t="inlineStr"/>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -29799,20 +29781,14 @@
         <v>7.5835</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>7.03</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -29840,20 +29816,14 @@
         <v>7.573333333333334</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>7.19</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L841" t="inlineStr"/>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -29881,20 +29851,14 @@
         <v>7.563333333333333</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L842" t="inlineStr"/>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -29922,20 +29886,14 @@
         <v>7.553500000000001</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -29963,20 +29921,14 @@
         <v>7.545000000000001</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30015,7 +29967,7 @@
       <c r="K845" t="inlineStr"/>
       <c r="L845" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M845" t="n">
@@ -30086,14 +30038,12 @@
         <v>7.526833333333335</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="inlineStr">
         <is>
@@ -30127,14 +30077,12 @@
         <v>7.521500000000002</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>7.42</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="inlineStr">
         <is>
@@ -30168,14 +30116,12 @@
         <v>7.516500000000003</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>7.41</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
       <c r="L849" t="inlineStr">
         <is>
@@ -30209,14 +30155,12 @@
         <v>7.510333333333336</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>7.43</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="inlineStr">
         <is>
@@ -30250,14 +30194,12 @@
         <v>7.504500000000004</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>7.39</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
       <c r="L851" t="inlineStr">
         <is>
@@ -30291,14 +30233,12 @@
         <v>7.498333333333337</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>7.4</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
       <c r="L852" t="inlineStr">
         <is>
@@ -30332,14 +30272,12 @@
         <v>7.489500000000004</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>7.38</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="inlineStr">
         <is>
@@ -30373,14 +30311,12 @@
         <v>7.48316666666667</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>7.23</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
       <c r="L854" t="inlineStr">
         <is>
@@ -30414,14 +30350,12 @@
         <v>7.475833333333337</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
       <c r="L855" t="inlineStr">
         <is>
@@ -30455,14 +30389,12 @@
         <v>7.47116666666667</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>7.37</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
       <c r="L856" t="inlineStr">
         <is>
@@ -30496,14 +30428,12 @@
         <v>7.467333333333335</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>7.39</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
       <c r="L857" t="inlineStr">
         <is>
@@ -30537,14 +30467,12 @@
         <v>7.464500000000003</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="n">
         <v>0</v>
       </c>
-      <c r="J858" t="n">
-        <v>7.45</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
       <c r="L858" t="inlineStr">
         <is>
@@ -30578,14 +30506,12 @@
         <v>7.462500000000003</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>0</v>
       </c>
-      <c r="J859" t="n">
-        <v>7.53</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
@@ -31633,14 +31559,12 @@
         <v>7.363333333333332</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
       </c>
-      <c r="J886" t="n">
-        <v>7.38</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
       <c r="L886" t="inlineStr">
         <is>

--- a/BackTest/2019-10-14 BackTest HYC.xlsx
+++ b/BackTest/2019-10-14 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
         <v>696774.7211376978</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1534737.715237698</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>955041.6458376975</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>15049.06943769753</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-315757.1260623024</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>577634.8901849196</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-600663.3167565966</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1086784.144361675</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1785205.477040204</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4688820.332669063</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5402141.125677178</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>4303640.129177177</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5707407.239677178</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>6168390.046777178</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>4862347.346077178</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5168678.330277178</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3078622.321377178</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4413468.735862543</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3842677.690762543</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2128364.580262543</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2171562.074162543</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1331135.202562543</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1270049.789962543</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1105155.794562543</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>596196.3949625433</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1125364.206262543</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>944108.1386625434</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>817287.6959608893</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>901750.0266156164</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1656979.900815616</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1653711.712615616</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1183719.150815616</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>950074.3944156163</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>211700.9314156162</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1580494.511115616</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>980442.8471156162</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1189515.347015616</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1358693.580815616</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>880236.6456156163</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1011089.010515616</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1871046.558815616</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1200431.523315616</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1493766.190915616</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2293432.822615616</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2157731.668515617</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1622562.467815617</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1122816.694715617</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1299680.434847091</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>486310.1720470908</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>431804.0020470908</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>122329.4809470908</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1203934.603752909</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2545933.583252909</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3938030.807052909</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3503825.312252909</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4221638.065852909</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4209541.85025291</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4209541.85025291</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4102283.695752909</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4192667.00265291</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4777523.79475291</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4777513.79475291</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4840428.47825291</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5028776.75165291</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5313332.586452911</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-5700630.181652911</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-5623606.207952911</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5623606.207952911</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6095009.695352911</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5805125.283452911</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5822537.094552911</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5821294.419452911</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4886877.78193712</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-5071483.51883712</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1175668.541163777</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1329933.787463777</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-2382118.446490145</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2382118.446490145</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2382118.446490145</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2382140.556990145</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-2985791.016790145</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-2965468.194444272</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-2781992.186376984</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-2737528.236376984</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-2737528.236376984</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2737616.680776983</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2696889.529976984</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2823228.755076983</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-2695017.807076983</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2740810.763276983</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2816418.661494336</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2805906.770894336</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2805906.770894336</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2805906.770894336</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2804292.395894336</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2835603.076594336</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-3493251.254494336</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-3493251.254494336</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-3468042.482594336</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3468042.482594336</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-3513875.438894336</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-3513875.438894336</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-3513875.438894336</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-4199883.269494336</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-5169257.807107292</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-2485123.004807292</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1613865.468317534</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-109874.679112562</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>1187565.813087438</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-290716.7529767251</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-290716.7529767251</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>434116.9326602779</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>368788.125560278</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>449344.475460278</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>793138.313360278</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>793138.313360278</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>717518.911760278</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-290366.0715397219</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>331704.197060278</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>331674.197060278</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>342646.697060278</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>342656.697060278</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>363788.067160278</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>344200.196860278</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>344210.196860278</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>48160.76876027801</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>75721.359260278</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-86969.04303972199</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-136167.789939722</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-136167.789939722</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-184885.568439722</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-233378.077339722</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-31852.00043972203</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-31852.00043972203</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-31852.00043972203</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-32073.00043972203</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-295391.717639722</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-295391.717639722</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-289949.272639722</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-314553.971139722</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-968637.4922397221</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-968637.4922397221</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-836217.804639722</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-1298876.506139722</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-829601.1750397219</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-922429.4475397218</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-669102.1386397218</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-579677.6728397218</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-579677.6728397218</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-579677.6728397218</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-938179.5090397218</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-938179.5090397218</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-872524.5559397218</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-650640.3766397218</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-605249.7462397218</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-3809052.99223062</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-4009787.44993062</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-4009787.44993062</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-4653723.17293062</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-3551078.63063062</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29953,11 +29953,17 @@
         <v>-21503018.27473062</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +29992,17 @@
         <v>-21506057.27473062</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>7.21</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30031,17 @@
         <v>-22494614.45653062</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>7.16</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +30070,17 @@
         <v>-22195917.82923062</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>7.04</v>
+      </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30085,15 +30109,17 @@
         <v>-20431958.66593062</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>7.15</v>
       </c>
-      <c r="J900" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,17 +30148,15 @@
         <v>-20092385.83733062</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>7.16</v>
       </c>
-      <c r="J901" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L901" t="n">
@@ -30163,17 +30187,15 @@
         <v>-19754458.76703062</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>7.2</v>
       </c>
-      <c r="J902" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L902" t="n">
@@ -30204,14 +30226,10 @@
         <v>-19625739.76569454</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
-      </c>
-      <c r="I903" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="J903" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30248,9 +30266,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30287,9 +30303,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30326,9 +30340,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30365,9 +30377,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30404,9 +30414,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30443,9 +30451,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30482,9 +30488,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30521,9 +30525,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30560,9 +30562,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30599,9 +30599,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30638,9 +30636,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30677,9 +30673,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30716,9 +30710,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30755,9 +30747,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30794,9 +30784,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30833,9 +30821,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30872,9 +30858,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30911,9 +30895,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30950,9 +30932,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30989,9 +30969,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31028,9 +31006,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31067,9 +31043,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31106,9 +31080,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31145,9 +31117,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31184,9 +31154,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31223,9 +31191,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31262,9 +31228,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31301,9 +31265,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31340,9 +31302,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31379,9 +31339,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31418,9 +31376,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31457,9 +31413,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31496,9 +31450,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31535,9 +31487,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31574,9 +31524,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31613,9 +31561,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31652,9 +31598,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31691,9 +31635,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31730,9 +31672,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31769,9 +31709,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31808,9 +31746,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31847,9 +31783,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31886,9 +31820,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31925,9 +31857,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31964,9 +31894,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32003,9 +31931,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32042,9 +31968,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32081,9 +32005,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32120,9 +32042,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32159,9 +32079,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32198,9 +32116,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32237,9 +32153,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32251,6 +32165,6 @@
       <c r="M955" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest HYC.xlsx
+++ b/BackTest/2019-10-14 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>6506311.739221615</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6022505.485728109</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5533922.630628109</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5534052.630628109</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>696774.7211376978</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1534737.715237698</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>15049.06943769753</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-315757.1260623024</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>577634.8901849196</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-600663.3167565966</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1086784.144361675</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1785205.477040204</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5402141.125677178</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>4303640.129177177</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5707407.239677178</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>6168390.046777178</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>4862347.346077178</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5168678.330277178</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3078622.321377178</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4413468.735862543</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3842677.690762543</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2128364.580262543</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2171562.074162543</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1331135.202562543</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1270049.789962543</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1105155.794562543</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>596196.3949625433</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1125364.206262543</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>944108.1386625434</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>817287.6959608893</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>901750.0266156164</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1653711.712615616</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1183719.150815616</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>950074.3944156163</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>211700.9314156162</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1189515.347015616</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1358693.580815616</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>880236.6456156163</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1011089.010515616</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1871046.558815616</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1200431.523315616</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1493766.190915616</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2293432.822615616</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2157731.668515617</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1622562.467815617</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1122816.694715617</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1299680.434847091</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>486310.1720470908</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>431804.0020470908</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>122329.4809470908</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1203934.603752909</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2545933.583252909</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3938030.807052909</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3503825.312252909</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4221638.065852909</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4209541.85025291</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4209541.85025291</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4102283.695752909</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4192667.00265291</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4777523.79475291</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4777513.79475291</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4840428.47825291</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5028776.75165291</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5313332.586452911</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-5700630.181652911</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-5623606.207952911</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5623606.207952911</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-5857744.212452911</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6095009.695352911</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5805125.283452911</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5822537.094552911</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5821294.419452911</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-2737616.680776983</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-2696889.529976984</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2823228.755076983</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-2695017.807076983</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2740810.763276983</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2816418.661494336</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2805906.770894336</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2805906.770894336</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2805906.770894336</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2804292.395894336</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2835603.076594336</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-3493251.254494336</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-3493251.254494336</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-3468042.482594336</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3468042.482594336</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-3513875.438894336</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-3513875.438894336</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-3513875.438894336</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-3597236.303894336</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-4199883.269494336</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>344200.196860278</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>344210.196860278</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>48160.76876027801</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>75731.359260278</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>75721.359260278</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-86969.04303972199</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-136167.789939722</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-136167.789939722</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-184885.568439722</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-233378.077339722</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-31852.00043972203</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-31852.00043972203</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-31852.00043972203</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-32073.00043972203</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-295391.717639722</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-295391.717639722</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-289949.272639722</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-314553.971139722</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-968637.4922397221</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-968637.4922397221</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-836217.804639722</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-1298876.506139722</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-829601.1750397219</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-922429.4475397218</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-669102.1386397218</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-579677.6728397218</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-579677.6728397218</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-579677.6728397218</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-938179.5090397218</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-938179.5090397218</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-872524.5559397218</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-650640.3766397218</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-605249.7462397218</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -29821,10 +29821,14 @@
         <v>-22064392.11303062</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="J892" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
@@ -29854,11 +29858,19 @@
         <v>-21320149.35133062</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J893" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29887,11 +29899,19 @@
         <v>-22293968.41443062</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J894" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +29940,19 @@
         <v>-22293968.41443062</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J895" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29958,10 +29986,12 @@
       <c r="I896" t="n">
         <v>7.2</v>
       </c>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L896" t="n">
@@ -29992,12 +30022,12 @@
         <v>-21506057.27473062</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="J897" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30036,7 +30066,9 @@
       <c r="I898" t="n">
         <v>7.16</v>
       </c>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30075,7 +30107,9 @@
       <c r="I899" t="n">
         <v>7.04</v>
       </c>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30114,7 +30148,9 @@
       <c r="I900" t="n">
         <v>7.15</v>
       </c>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30153,7 +30189,9 @@
       <c r="I901" t="n">
         <v>7.16</v>
       </c>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30192,7 +30230,9 @@
       <c r="I902" t="n">
         <v>7.2</v>
       </c>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30226,10 +30266,14 @@
         <v>-19625739.76569454</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J903" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30263,10 +30307,14 @@
         <v>-18426736.70443062</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="J904" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30303,7 +30351,9 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30340,7 +30390,9 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30377,7 +30429,9 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30414,7 +30468,9 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30451,7 +30507,9 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30488,7 +30546,9 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30525,7 +30585,9 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30562,7 +30624,9 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30599,7 +30663,9 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30636,7 +30702,9 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30673,7 +30741,9 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30710,7 +30780,9 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30747,7 +30819,9 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30784,7 +30858,9 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30821,7 +30897,9 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30858,7 +30936,9 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30895,7 +30975,9 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30932,7 +31014,9 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30969,7 +31053,9 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31006,7 +31092,9 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31043,7 +31131,9 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31080,7 +31170,9 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31117,7 +31209,9 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31154,7 +31248,9 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31191,7 +31287,9 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31228,7 +31326,9 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31265,7 +31365,9 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31302,7 +31404,9 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31339,7 +31443,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31376,7 +31482,9 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31413,7 +31521,9 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31450,7 +31560,9 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31487,7 +31599,9 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31524,7 +31638,9 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31561,7 +31677,9 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31598,7 +31716,9 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31635,7 +31755,9 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31672,7 +31794,9 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31709,7 +31833,9 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31743,10 +31869,14 @@
         <v>-20966690.05933618</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J944" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31780,10 +31910,14 @@
         <v>-21026746.18316628</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J945" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31817,10 +31951,14 @@
         <v>-20934538.10716628</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J946" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31854,10 +31992,14 @@
         <v>-20891693.19176628</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J947" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31891,10 +32033,14 @@
         <v>-20819115.32116628</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="J948" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31931,7 +32077,9 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31968,7 +32116,9 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32005,7 +32155,9 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32042,7 +32194,9 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32079,7 +32233,9 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32116,7 +32272,9 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32153,7 +32311,9 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32165,6 +32325,6 @@
       <c r="M955" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest HYC.xlsx
+++ b/BackTest/2019-10-14 BackTest HYC.xlsx
@@ -484,7 +484,7 @@
         <v>6506311.739221615</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6022505.485728109</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5533922.630628109</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5534052.630628109</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>955041.6458376975</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4688820.332669063</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5402141.125677178</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>4303640.129177177</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5707407.239677178</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>6168390.046777178</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>5648098.963477178</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>4862347.346077178</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5168678.330277178</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3078622.321377178</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3602705.689077178</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4413468.735862543</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3842677.690762543</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2128364.580262543</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1331135.202562543</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1105155.794562543</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>596196.3949625433</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1125364.206262543</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>944108.1386625434</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>817287.6959608893</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>901750.0266156164</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2109603.730615616</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1653711.712615616</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1183719.150815616</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>950074.3944156163</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>204090.6458156162</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>211700.9314156162</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1580494.511115616</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1369734.823715616</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1585442.587615616</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>980442.8471156162</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1189515.347015616</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>717518.911760278</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -29821,14 +29821,10 @@
         <v>-22064392.11303062</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="J892" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
@@ -29858,2233 +29854,1907 @@
         <v>-21320149.35133062</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
         <v>7.22</v>
       </c>
-      <c r="J893" t="n">
+      <c r="C894" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D894" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="E894" t="n">
         <v>7.14</v>
       </c>
-      <c r="K893" t="inlineStr">
+      <c r="F894" t="n">
+        <v>973819.0631</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-22293968.41443062</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C895" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D895" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E895" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F895" t="n">
+        <v>249152.6451</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-22293968.41443062</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C896" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="D896" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E896" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F896" t="n">
+        <v>790950.1397000001</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-21503018.27473062</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C897" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D897" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E897" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F897" t="n">
+        <v>3039</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-21506057.27473062</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C898" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D898" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E898" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F898" t="n">
+        <v>988557.1818</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-22494614.45653062</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C899" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D899" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E899" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F899" t="n">
+        <v>298696.6273</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-22195917.82923062</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C900" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D900" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E900" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1763959.1633</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-20431958.66593062</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C901" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D901" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E901" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F901" t="n">
+        <v>339572.8286</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-20092385.83733062</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C902" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D902" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E902" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F902" t="n">
+        <v>337927.0703</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-19754458.76703062</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C903" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="D903" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E903" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F903" t="n">
+        <v>128719.001336076</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-19625739.76569454</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="C904" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D904" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E904" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1199003.061263924</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-18426736.70443062</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C905" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D905" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E905" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F905" t="n">
+        <v>551930.1478</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-18978666.85223062</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="n">
+        <v>1</v>
+      </c>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C906" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D906" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E906" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F906" t="n">
+        <v>44717.6767</v>
+      </c>
+      <c r="G906" t="n">
+        <v>-18933949.17553062</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="n">
+        <v>1</v>
+      </c>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C907" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="D907" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E907" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F907" t="n">
+        <v>46098.5743</v>
+      </c>
+      <c r="G907" t="n">
+        <v>-18887850.60123062</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="n">
+        <v>1</v>
+      </c>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C908" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D908" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E908" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F908" t="n">
+        <v>119917.986</v>
+      </c>
+      <c r="G908" t="n">
+        <v>-18767932.61523062</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="n">
+        <v>1</v>
+      </c>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C909" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D909" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E909" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F909" t="n">
+        <v>454287.5314</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-19222220.14663061</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C910" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D910" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E910" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F910" t="n">
+        <v>133393.1586</v>
+      </c>
+      <c r="G910" t="n">
+        <v>-19088826.98803062</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="n">
+        <v>1</v>
+      </c>
+      <c r="M910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C911" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D911" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E911" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F911" t="n">
+        <v>529225.7291</v>
+      </c>
+      <c r="G911" t="n">
+        <v>-19618052.71713062</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C912" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D912" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E912" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F912" t="n">
+        <v>2032722.4652</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-21650775.18233062</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C913" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="D913" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E913" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F913" t="n">
+        <v>48868.8221</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-21601906.36023062</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C914" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="D914" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="E914" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F914" t="n">
+        <v>99190.0022</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-21502716.35803062</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C915" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D915" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E915" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F915" t="n">
+        <v>44054.95</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-21458661.40803062</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C916" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D916" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E916" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F916" t="n">
+        <v>99053.4399</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-21359607.96813062</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C917" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D917" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E917" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F917" t="n">
+        <v>689231.405</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-20670376.56313062</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C918" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D918" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E918" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F918" t="n">
+        <v>822418.414332418</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-19847958.1487982</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="C919" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D919" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E919" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F919" t="n">
+        <v>718130.1284</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-19129828.0203982</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C920" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D920" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E920" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F920" t="n">
+        <v>95904.8952</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-19033923.1251982</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C921" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D921" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E921" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="F921" t="n">
+        <v>213590.016</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-19247513.1411982</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C922" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D922" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E922" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F922" t="n">
+        <v>184703.352072287</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-19062809.78912591</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="C923" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D923" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E923" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F923" t="n">
+        <v>51138.809</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-19113948.59812591</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C924" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D924" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E924" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F924" t="n">
+        <v>942257.5646</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-20056206.16272591</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C925" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D925" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E925" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F925" t="n">
+        <v>666743.2653</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-20722949.42802591</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C926" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D926" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E926" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F926" t="n">
+        <v>55111.6219</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-20667837.80612591</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C927" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D927" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E927" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F927" t="n">
+        <v>232481.8164</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-20900319.6225259</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C928" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="D928" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E928" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F928" t="n">
+        <v>33.512</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-20900286.11052591</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C929" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D929" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E929" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F929" t="n">
+        <v>5342.703</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-20905628.81352591</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="n">
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C930" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D930" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E930" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F930" t="n">
+        <v>284730.6683</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-21190359.48182591</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="n">
+        <v>1</v>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C931" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D931" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E931" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F931" t="n">
+        <v>248035.5698</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-21190359.48182591</v>
+      </c>
+      <c r="H931" t="n">
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="n">
+        <v>1</v>
+      </c>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C932" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D932" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E932" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F932" t="n">
+        <v>722503.295420911</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-20467856.186405</v>
+      </c>
+      <c r="H932" t="n">
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="n">
+        <v>1</v>
+      </c>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C933" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D933" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E933" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F933" t="n">
+        <v>35688.8425</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-20503545.028905</v>
+      </c>
+      <c r="H933" t="n">
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="n">
+        <v>1</v>
+      </c>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C934" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D934" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E934" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F934" t="n">
+        <v>141802.0804</v>
+      </c>
+      <c r="G934" t="n">
+        <v>-20361742.948505</v>
+      </c>
+      <c r="H934" t="n">
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="n">
+        <v>1</v>
+      </c>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C935" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D935" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E935" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F935" t="n">
+        <v>299414.7496</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-20661157.698105</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="n">
+        <v>1</v>
+      </c>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C936" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D936" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E936" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F936" t="n">
+        <v>21</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-20661157.698105</v>
+      </c>
+      <c r="H936" t="n">
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="n">
+        <v>1</v>
+      </c>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C937" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D937" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E937" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F937" t="n">
+        <v>410271.0462</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-20661157.698105</v>
+      </c>
+      <c r="H937" t="n">
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="n">
+        <v>1</v>
+      </c>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C938" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D938" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E938" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F938" t="n">
+        <v>29974.875</v>
+      </c>
+      <c r="G938" t="n">
+        <v>-20691132.573105</v>
+      </c>
+      <c r="H938" t="n">
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
+      <c r="L938" t="n">
+        <v>1</v>
+      </c>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C939" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="D939" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E939" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F939" t="n">
+        <v>88060.4797</v>
+      </c>
+      <c r="G939" t="n">
+        <v>-20779193.052805</v>
+      </c>
+      <c r="H939" t="n">
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="n">
+        <v>1</v>
+      </c>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C940" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D940" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E940" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="F940" t="n">
+        <v>9351.075268817</v>
+      </c>
+      <c r="G940" t="n">
+        <v>-20769841.97753618</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="n">
+        <v>1</v>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C941" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D941" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E941" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F941" t="n">
+        <v>121.9725</v>
+      </c>
+      <c r="G941" t="n">
+        <v>-20769963.95003618</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="n">
+        <v>1</v>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C942" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D942" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E942" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F942" t="n">
+        <v>299115.1012</v>
+      </c>
+      <c r="G942" t="n">
+        <v>-21069079.05123618</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="n">
+        <v>1</v>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C943" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D943" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E943" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F943" t="n">
+        <v>102388.9919</v>
+      </c>
+      <c r="G943" t="n">
+        <v>-20966690.05933618</v>
+      </c>
+      <c r="H943" t="n">
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J943" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="n">
+        <v>1</v>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C944" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D944" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E944" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F944" t="n">
+        <v>2138.5608</v>
+      </c>
+      <c r="G944" t="n">
+        <v>-20966690.05933618</v>
+      </c>
+      <c r="H944" t="n">
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J944" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L944" t="n">
+        <v>1</v>
+      </c>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C945" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D945" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E945" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F945" t="n">
+        <v>60056.123830107</v>
+      </c>
+      <c r="G945" t="n">
+        <v>-21026746.18316628</v>
+      </c>
+      <c r="H945" t="n">
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J945" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L945" t="n">
+        <v>1</v>
+      </c>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C946" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D946" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E946" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F946" t="n">
+        <v>92208.076</v>
+      </c>
+      <c r="G946" t="n">
+        <v>-20934538.10716628</v>
+      </c>
+      <c r="H946" t="n">
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J946" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="n">
+        <v>1</v>
+      </c>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C947" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D947" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E947" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F947" t="n">
+        <v>42844.9154</v>
+      </c>
+      <c r="G947" t="n">
+        <v>-20891693.19176628</v>
+      </c>
+      <c r="H947" t="n">
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J947" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L947" t="n">
+        <v>1</v>
+      </c>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C948" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D948" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E948" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F948" t="n">
+        <v>72577.87059999999</v>
+      </c>
+      <c r="G948" t="n">
+        <v>-20819115.32116628</v>
+      </c>
+      <c r="H948" t="n">
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="J948" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L948" t="n">
+        <v>1</v>
+      </c>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C949" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D949" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E949" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F949" t="n">
+        <v>5203.1811</v>
+      </c>
+      <c r="G949" t="n">
+        <v>-20824318.50226628</v>
+      </c>
+      <c r="H949" t="n">
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="J949" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K949" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="C894" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D894" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="E894" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="F894" t="n">
-        <v>973819.0631</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-22293968.41443062</v>
-      </c>
-      <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="J894" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C895" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D895" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E895" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F895" t="n">
-        <v>249152.6451</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-22293968.41443062</v>
-      </c>
-      <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J895" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C896" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="D896" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E896" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F896" t="n">
-        <v>790950.1397000001</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-21503018.27473062</v>
-      </c>
-      <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J896" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C897" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D897" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E897" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F897" t="n">
-        <v>3039</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-21506057.27473062</v>
-      </c>
-      <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="C898" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="D898" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E898" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="F898" t="n">
-        <v>988557.1818</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-22494614.45653062</v>
-      </c>
-      <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="J898" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="C899" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D899" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E899" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F899" t="n">
-        <v>298696.6273</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-22195917.82923062</v>
-      </c>
-      <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="J899" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="C900" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D900" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E900" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F900" t="n">
-        <v>1763959.1633</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-20431958.66593062</v>
-      </c>
-      <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J900" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C901" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D901" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E901" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F901" t="n">
-        <v>339572.8286</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-20092385.83733062</v>
-      </c>
-      <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="J901" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="C902" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="D902" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E902" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="F902" t="n">
-        <v>337927.0703</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-19754458.76703062</v>
-      </c>
-      <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J902" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C903" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="D903" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="E903" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F903" t="n">
-        <v>128719.001336076</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-19625739.76569454</v>
-      </c>
-      <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="J903" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C904" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D904" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E904" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F904" t="n">
-        <v>1199003.061263924</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-18426736.70443062</v>
-      </c>
-      <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="J904" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
-      <c r="M904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C905" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D905" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E905" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F905" t="n">
-        <v>551930.1478</v>
-      </c>
-      <c r="G905" t="n">
-        <v>-18978666.85223062</v>
-      </c>
-      <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L905" t="n">
-        <v>1</v>
-      </c>
-      <c r="M905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C906" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D906" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E906" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F906" t="n">
-        <v>44717.6767</v>
-      </c>
-      <c r="G906" t="n">
-        <v>-18933949.17553062</v>
-      </c>
-      <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L906" t="n">
-        <v>1</v>
-      </c>
-      <c r="M906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C907" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="D907" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="E907" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F907" t="n">
-        <v>46098.5743</v>
-      </c>
-      <c r="G907" t="n">
-        <v>-18887850.60123062</v>
-      </c>
-      <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L907" t="n">
-        <v>1</v>
-      </c>
-      <c r="M907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C908" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D908" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E908" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F908" t="n">
-        <v>119917.986</v>
-      </c>
-      <c r="G908" t="n">
-        <v>-18767932.61523062</v>
-      </c>
-      <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L908" t="n">
-        <v>1</v>
-      </c>
-      <c r="M908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C909" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D909" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E909" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F909" t="n">
-        <v>454287.5314</v>
-      </c>
-      <c r="G909" t="n">
-        <v>-19222220.14663061</v>
-      </c>
-      <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L909" t="n">
-        <v>1</v>
-      </c>
-      <c r="M909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C910" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D910" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E910" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F910" t="n">
-        <v>133393.1586</v>
-      </c>
-      <c r="G910" t="n">
-        <v>-19088826.98803062</v>
-      </c>
-      <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L910" t="n">
-        <v>1</v>
-      </c>
-      <c r="M910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C911" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D911" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E911" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F911" t="n">
-        <v>529225.7291</v>
-      </c>
-      <c r="G911" t="n">
-        <v>-19618052.71713062</v>
-      </c>
-      <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L911" t="n">
-        <v>1</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C912" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="D912" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E912" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F912" t="n">
-        <v>2032722.4652</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-21650775.18233062</v>
-      </c>
-      <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="C913" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="D913" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E913" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F913" t="n">
-        <v>48868.8221</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-21601906.36023062</v>
-      </c>
-      <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C914" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="D914" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="E914" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F914" t="n">
-        <v>99190.0022</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-21502716.35803062</v>
-      </c>
-      <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="C915" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D915" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E915" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F915" t="n">
-        <v>44054.95</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-21458661.40803062</v>
-      </c>
-      <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C916" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D916" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E916" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F916" t="n">
-        <v>99053.4399</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-21359607.96813062</v>
-      </c>
-      <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="C917" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D917" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E917" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F917" t="n">
-        <v>689231.405</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-20670376.56313062</v>
-      </c>
-      <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C918" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D918" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E918" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F918" t="n">
-        <v>822418.414332418</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-19847958.1487982</v>
-      </c>
-      <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="C919" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D919" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="E919" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F919" t="n">
-        <v>718130.1284</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-19129828.0203982</v>
-      </c>
-      <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C920" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D920" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="E920" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F920" t="n">
-        <v>95904.8952</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-19033923.1251982</v>
-      </c>
-      <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C921" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D921" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E921" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F921" t="n">
-        <v>213590.016</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-19247513.1411982</v>
-      </c>
-      <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C922" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D922" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E922" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F922" t="n">
-        <v>184703.352072287</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-19062809.78912591</v>
-      </c>
-      <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="C923" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D923" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E923" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F923" t="n">
-        <v>51138.809</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-19113948.59812591</v>
-      </c>
-      <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C924" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D924" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E924" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F924" t="n">
-        <v>942257.5646</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-20056206.16272591</v>
-      </c>
-      <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C925" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D925" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E925" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F925" t="n">
-        <v>666743.2653</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-20722949.42802591</v>
-      </c>
-      <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C926" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D926" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E926" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F926" t="n">
-        <v>55111.6219</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-20667837.80612591</v>
-      </c>
-      <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="C927" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D927" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E927" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F927" t="n">
-        <v>232481.8164</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-20900319.6225259</v>
-      </c>
-      <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C928" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="D928" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E928" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="F928" t="n">
-        <v>33.512</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-20900286.11052591</v>
-      </c>
-      <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C929" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D929" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E929" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F929" t="n">
-        <v>5342.703</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-20905628.81352591</v>
-      </c>
-      <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L929" t="n">
-        <v>1</v>
-      </c>
-      <c r="M929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C930" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D930" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E930" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F930" t="n">
-        <v>284730.6683</v>
-      </c>
-      <c r="G930" t="n">
-        <v>-21190359.48182591</v>
-      </c>
-      <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L930" t="n">
-        <v>1</v>
-      </c>
-      <c r="M930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C931" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D931" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E931" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F931" t="n">
-        <v>248035.5698</v>
-      </c>
-      <c r="G931" t="n">
-        <v>-21190359.48182591</v>
-      </c>
-      <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L931" t="n">
-        <v>1</v>
-      </c>
-      <c r="M931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C932" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D932" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E932" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F932" t="n">
-        <v>722503.295420911</v>
-      </c>
-      <c r="G932" t="n">
-        <v>-20467856.186405</v>
-      </c>
-      <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L932" t="n">
-        <v>1</v>
-      </c>
-      <c r="M932" t="inlineStr"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C933" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D933" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E933" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F933" t="n">
-        <v>35688.8425</v>
-      </c>
-      <c r="G933" t="n">
-        <v>-20503545.028905</v>
-      </c>
-      <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L933" t="n">
-        <v>1</v>
-      </c>
-      <c r="M933" t="inlineStr"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C934" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D934" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E934" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F934" t="n">
-        <v>141802.0804</v>
-      </c>
-      <c r="G934" t="n">
-        <v>-20361742.948505</v>
-      </c>
-      <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L934" t="n">
-        <v>1</v>
-      </c>
-      <c r="M934" t="inlineStr"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C935" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D935" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E935" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F935" t="n">
-        <v>299414.7496</v>
-      </c>
-      <c r="G935" t="n">
-        <v>-20661157.698105</v>
-      </c>
-      <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L935" t="n">
-        <v>1</v>
-      </c>
-      <c r="M935" t="inlineStr"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C936" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D936" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E936" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F936" t="n">
-        <v>21</v>
-      </c>
-      <c r="G936" t="n">
-        <v>-20661157.698105</v>
-      </c>
-      <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L936" t="n">
-        <v>1</v>
-      </c>
-      <c r="M936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C937" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D937" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E937" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F937" t="n">
-        <v>410271.0462</v>
-      </c>
-      <c r="G937" t="n">
-        <v>-20661157.698105</v>
-      </c>
-      <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L937" t="n">
-        <v>1</v>
-      </c>
-      <c r="M937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C938" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D938" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E938" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F938" t="n">
-        <v>29974.875</v>
-      </c>
-      <c r="G938" t="n">
-        <v>-20691132.573105</v>
-      </c>
-      <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L938" t="n">
-        <v>1</v>
-      </c>
-      <c r="M938" t="inlineStr"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-      <c r="B939" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C939" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="D939" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E939" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F939" t="n">
-        <v>88060.4797</v>
-      </c>
-      <c r="G939" t="n">
-        <v>-20779193.052805</v>
-      </c>
-      <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L939" t="n">
-        <v>1</v>
-      </c>
-      <c r="M939" t="inlineStr"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C940" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D940" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E940" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="F940" t="n">
-        <v>9351.075268817</v>
-      </c>
-      <c r="G940" t="n">
-        <v>-20769841.97753618</v>
-      </c>
-      <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L940" t="n">
-        <v>1</v>
-      </c>
-      <c r="M940" t="inlineStr"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C941" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D941" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E941" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F941" t="n">
-        <v>121.9725</v>
-      </c>
-      <c r="G941" t="n">
-        <v>-20769963.95003618</v>
-      </c>
-      <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L941" t="n">
-        <v>1</v>
-      </c>
-      <c r="M941" t="inlineStr"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C942" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D942" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E942" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F942" t="n">
-        <v>299115.1012</v>
-      </c>
-      <c r="G942" t="n">
-        <v>-21069079.05123618</v>
-      </c>
-      <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L942" t="n">
-        <v>1</v>
-      </c>
-      <c r="M942" t="inlineStr"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C943" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D943" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E943" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F943" t="n">
-        <v>102388.9919</v>
-      </c>
-      <c r="G943" t="n">
-        <v>-20966690.05933618</v>
-      </c>
-      <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L943" t="n">
-        <v>1</v>
-      </c>
-      <c r="M943" t="inlineStr"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C944" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D944" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E944" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F944" t="n">
-        <v>2138.5608</v>
-      </c>
-      <c r="G944" t="n">
-        <v>-20966690.05933618</v>
-      </c>
-      <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="J944" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L944" t="n">
-        <v>1</v>
-      </c>
-      <c r="M944" t="inlineStr"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C945" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D945" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E945" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F945" t="n">
-        <v>60056.123830107</v>
-      </c>
-      <c r="G945" t="n">
-        <v>-21026746.18316628</v>
-      </c>
-      <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="J945" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L945" t="n">
-        <v>1</v>
-      </c>
-      <c r="M945" t="inlineStr"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-      <c r="B946" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C946" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D946" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E946" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F946" t="n">
-        <v>92208.076</v>
-      </c>
-      <c r="G946" t="n">
-        <v>-20934538.10716628</v>
-      </c>
-      <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J946" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L946" t="n">
-        <v>1</v>
-      </c>
-      <c r="M946" t="inlineStr"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-      <c r="B947" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C947" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D947" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E947" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F947" t="n">
-        <v>42844.9154</v>
-      </c>
-      <c r="G947" t="n">
-        <v>-20891693.19176628</v>
-      </c>
-      <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="J947" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L947" t="n">
-        <v>1</v>
-      </c>
-      <c r="M947" t="inlineStr"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="C948" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D948" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E948" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F948" t="n">
-        <v>72577.87059999999</v>
-      </c>
-      <c r="G948" t="n">
-        <v>-20819115.32116628</v>
-      </c>
-      <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="J948" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L948" t="n">
-        <v>1</v>
-      </c>
-      <c r="M948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C949" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D949" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E949" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F949" t="n">
-        <v>5203.1811</v>
-      </c>
-      <c r="G949" t="n">
-        <v>-20824318.50226628</v>
-      </c>
-      <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32113,11 +31783,13 @@
         <v>-20693069.05046628</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>7.45</v>
+      </c>
       <c r="J950" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32152,11 +31824,13 @@
         <v>-20104376.9214757</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>7.52</v>
+      </c>
       <c r="J951" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32191,11 +31865,13 @@
         <v>-20110273.0419757</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>7.53</v>
+      </c>
       <c r="J952" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32230,11 +31906,13 @@
         <v>-20074652.9701757</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>7.52</v>
+      </c>
       <c r="J953" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32269,11 +31947,13 @@
         <v>-20074652.9701757</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>7.53</v>
+      </c>
       <c r="J954" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32308,11 +31988,13 @@
         <v>-20083913.9177757</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>7.53</v>
+      </c>
       <c r="J955" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
